--- a/frontend/public/device-upload-template.xlsx
+++ b/frontend/public/device-upload-template.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Devices" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="Gold Template" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="Device Models" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Device Models" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Extension</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Cisco CP-8861 Desk Phone</t>
+  </si>
+  <si>
+    <t>Mitel 6920</t>
+  </si>
+  <si>
+    <t>Mitel 6930</t>
+  </si>
+  <si>
+    <t>Mitel 6940</t>
+  </si>
+  <si>
+    <t>Mitel IP 480</t>
+  </si>
+  <si>
+    <t>Mitel IP 480g</t>
+  </si>
+  <si>
+    <t>Mitel 485g</t>
   </si>
   <si>
     <t>Mitel 6905 IP Phone</t>
@@ -232,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,9 +263,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3114,7 +3135,7 @@
   </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B658">
-      <formula1>'Device Models'!$A$1:$A$82</formula1>
+      <formula1>'Device Models'!$A$1:$A$88</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -3183,14 +3204,14 @@
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4">
@@ -5752,7 +5773,7 @@
   </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B658">
-      <formula1>'Device Models'!$A$1:$A$82</formula1>
+      <formula1>'Device Models'!$A$1:$A$88</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -5773,413 +5794,443 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>38</v>
+      <c r="A41" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>39</v>
+      <c r="A42" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>40</v>
+      <c r="A43" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
-        <v>40</v>
+      <c r="A44" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>41</v>
+      <c r="A45" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>41</v>
+      <c r="A46" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
-        <v>41</v>
+      <c r="A47" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>42</v>
+      <c r="A48" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>42</v>
+      <c r="A49" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>42</v>
+      <c r="A50" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>43</v>
+      <c r="A51" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>43</v>
+      <c r="A52" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>43</v>
+      <c r="A53" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
-        <v>44</v>
+      <c r="A54" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
-        <v>45</v>
+      <c r="A55" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
-        <v>46</v>
+      <c r="A56" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>47</v>
+      <c r="A57" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
-        <v>47</v>
+      <c r="A58" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>47</v>
+      <c r="A59" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>48</v>
+      <c r="A60" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
-        <v>48</v>
+      <c r="A61" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>48</v>
+      <c r="A62" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>49</v>
+      <c r="A63" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>49</v>
+      <c r="A64" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
-        <v>49</v>
+      <c r="A65" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>50</v>
+      <c r="A66" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
-        <v>50</v>
+      <c r="A67" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
-        <v>50</v>
+      <c r="A68" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
-        <v>51</v>
+      <c r="A69" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>51</v>
+      <c r="A70" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
-        <v>51</v>
+      <c r="A71" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>52</v>
+      <c r="A72" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="s">
-        <v>52</v>
+      <c r="A73" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
-        <v>52</v>
+      <c r="A74" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>53</v>
+      <c r="A75" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
-        <v>53</v>
+      <c r="A76" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>53</v>
+      <c r="A77" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
-        <v>53</v>
+      <c r="A78" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
-        <v>54</v>
+      <c r="A79" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
-        <v>54</v>
+      <c r="A80" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
-        <v>54</v>
+      <c r="A81" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
-        <v>54</v>
+      <c r="A82" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/device-upload-template.xlsx
+++ b/frontend/public/device-upload-template.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Devices" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="Gold Template" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Device Models" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Device Models" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -72,7 +72,7 @@
     <t>Mitel IP 480g</t>
   </si>
   <si>
-    <t>Mitel 485g</t>
+    <t>Mitel IP 485g</t>
   </si>
   <si>
     <t>Mitel 6905 IP Phone</t>

--- a/frontend/public/device-upload-template.xlsx
+++ b/frontend/public/device-upload-template.xlsx
@@ -261,11 +261,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -276,7 +276,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font/>
       <fill>
@@ -293,6 +293,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFE06666"/>
           <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border/>
@@ -565,2508 +575,1704 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22">
-      <c r="B22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23">
-      <c r="B23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24">
-      <c r="B24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25">
-      <c r="B25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26">
-      <c r="B26" s="4"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27">
-      <c r="B27" s="4"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28">
-      <c r="B28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29">
-      <c r="B29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30">
-      <c r="B30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32">
-      <c r="B32" s="4"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34">
-      <c r="B34" s="4"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35">
-      <c r="B35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36">
-      <c r="B36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37">
-      <c r="B37" s="4"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38">
-      <c r="B38" s="4"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39">
-      <c r="B39" s="4"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40">
-      <c r="B40" s="4"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41">
-      <c r="B41" s="4"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42">
-      <c r="B42" s="4"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43">
-      <c r="B43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44">
-      <c r="B44" s="4"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="4"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="4"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="4"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48">
-      <c r="B48" s="4"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49">
-      <c r="B49" s="4"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50">
-      <c r="B50" s="4"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51">
-      <c r="B51" s="4"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52">
-      <c r="B52" s="4"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53">
-      <c r="B53" s="4"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54">
-      <c r="B54" s="4"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55">
-      <c r="B55" s="4"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56">
-      <c r="B56" s="4"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57">
-      <c r="B57" s="4"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58">
-      <c r="B58" s="4"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59">
-      <c r="B59" s="4"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60">
-      <c r="B60" s="4"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61">
-      <c r="B61" s="4"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62">
-      <c r="B62" s="4"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63">
-      <c r="B63" s="4"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64">
-      <c r="B64" s="4"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65">
-      <c r="B65" s="4"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66">
-      <c r="B66" s="4"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67">
-      <c r="B67" s="4"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68">
-      <c r="B68" s="4"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69">
-      <c r="B69" s="4"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70">
-      <c r="B70" s="4"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71">
-      <c r="B71" s="4"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72">
-      <c r="B72" s="4"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73">
-      <c r="B73" s="4"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74">
-      <c r="B74" s="4"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75">
-      <c r="B75" s="4"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76">
-      <c r="B76" s="4"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77">
-      <c r="B77" s="4"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78">
-      <c r="B78" s="4"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79">
-      <c r="B79" s="4"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80">
-      <c r="B80" s="4"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81">
-      <c r="B81" s="4"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82">
-      <c r="B82" s="4"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83">
-      <c r="B83" s="4"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84">
-      <c r="B84" s="4"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85">
-      <c r="B85" s="4"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86">
-      <c r="B86" s="4"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87">
-      <c r="B87" s="4"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88">
-      <c r="B88" s="4"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89">
-      <c r="B89" s="4"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90">
-      <c r="B90" s="4"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91">
-      <c r="B91" s="4"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92">
-      <c r="B92" s="4"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93">
-      <c r="B93" s="4"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94">
-      <c r="B94" s="4"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95">
-      <c r="B95" s="4"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96">
-      <c r="B96" s="4"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97">
-      <c r="B97" s="4"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98">
-      <c r="B98" s="4"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99">
-      <c r="B99" s="4"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100">
-      <c r="B100" s="4"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101">
-      <c r="B101" s="4"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102">
-      <c r="B102" s="4"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103">
-      <c r="B103" s="4"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104">
-      <c r="B104" s="4"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105">
-      <c r="B105" s="4"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106">
-      <c r="B106" s="4"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107">
-      <c r="B107" s="4"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108">
-      <c r="B108" s="4"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109">
-      <c r="B109" s="4"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110">
-      <c r="B110" s="4"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111">
-      <c r="B111" s="4"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112">
-      <c r="B112" s="4"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113">
-      <c r="B113" s="4"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114">
-      <c r="B114" s="4"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115">
-      <c r="B115" s="4"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116">
-      <c r="B116" s="4"/>
-      <c r="F116" s="6"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117">
-      <c r="B117" s="4"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118">
-      <c r="B118" s="4"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119">
-      <c r="B119" s="4"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120">
-      <c r="B120" s="4"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121">
-      <c r="B121" s="4"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122">
-      <c r="B122" s="4"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123">
-      <c r="B123" s="4"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="5"/>
     </row>
     <row r="124">
-      <c r="B124" s="4"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125">
-      <c r="B125" s="4"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126">
-      <c r="B126" s="4"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127">
-      <c r="B127" s="4"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128">
-      <c r="B128" s="4"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129">
-      <c r="B129" s="4"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130">
-      <c r="B130" s="4"/>
-      <c r="F130" s="6"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131">
-      <c r="B131" s="4"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132">
-      <c r="B132" s="4"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133">
-      <c r="B133" s="4"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134">
-      <c r="B134" s="4"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135">
-      <c r="B135" s="4"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136">
-      <c r="B136" s="4"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137">
-      <c r="B137" s="4"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138">
-      <c r="B138" s="4"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139">
-      <c r="B139" s="4"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140">
-      <c r="B140" s="4"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141">
-      <c r="B141" s="4"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142">
-      <c r="B142" s="4"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143">
-      <c r="B143" s="4"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144">
-      <c r="B144" s="4"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145">
-      <c r="B145" s="4"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="5"/>
     </row>
     <row r="146">
-      <c r="B146" s="4"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147">
-      <c r="B147" s="4"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="5"/>
     </row>
     <row r="148">
-      <c r="B148" s="4"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149">
-      <c r="B149" s="4"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150">
-      <c r="B150" s="4"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151">
-      <c r="B151" s="4"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152">
-      <c r="B152" s="4"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153">
-      <c r="B153" s="4"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154">
-      <c r="B154" s="4"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155">
-      <c r="B155" s="4"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156">
-      <c r="B156" s="4"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157">
-      <c r="B157" s="4"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158">
-      <c r="B158" s="4"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159">
-      <c r="B159" s="4"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160">
-      <c r="B160" s="4"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161">
-      <c r="B161" s="4"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162">
-      <c r="B162" s="4"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163">
-      <c r="B163" s="4"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164">
-      <c r="B164" s="4"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165">
-      <c r="B165" s="4"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166">
-      <c r="B166" s="4"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167">
-      <c r="B167" s="4"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168">
-      <c r="B168" s="4"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169">
-      <c r="B169" s="4"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170">
-      <c r="B170" s="4"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171">
-      <c r="B171" s="4"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172">
-      <c r="B172" s="4"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173">
-      <c r="B173" s="4"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174">
-      <c r="B174" s="4"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175">
-      <c r="B175" s="4"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176">
-      <c r="B176" s="4"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177">
-      <c r="B177" s="4"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178">
-      <c r="B178" s="4"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179">
-      <c r="B179" s="4"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180">
-      <c r="B180" s="4"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181">
-      <c r="B181" s="4"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182">
-      <c r="B182" s="4"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183">
-      <c r="B183" s="4"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184">
-      <c r="B184" s="4"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185">
-      <c r="B185" s="4"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186">
-      <c r="B186" s="4"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187">
-      <c r="B187" s="4"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188">
-      <c r="B188" s="4"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189">
-      <c r="B189" s="4"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190">
-      <c r="B190" s="4"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="5"/>
     </row>
     <row r="191">
-      <c r="B191" s="4"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="5"/>
     </row>
     <row r="192">
-      <c r="B192" s="4"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193">
-      <c r="B193" s="4"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194">
-      <c r="B194" s="4"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195">
-      <c r="B195" s="4"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196">
-      <c r="B196" s="4"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197">
-      <c r="B197" s="4"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198">
-      <c r="B198" s="4"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199">
-      <c r="B199" s="4"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200">
-      <c r="B200" s="4"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="5"/>
     </row>
     <row r="201">
-      <c r="B201" s="4"/>
-      <c r="F201" s="6"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202">
-      <c r="B202" s="4"/>
-      <c r="F202" s="6"/>
+      <c r="F202" s="5"/>
     </row>
     <row r="203">
-      <c r="B203" s="4"/>
-      <c r="F203" s="6"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204">
-      <c r="B204" s="4"/>
-      <c r="F204" s="6"/>
+      <c r="F204" s="5"/>
     </row>
     <row r="205">
-      <c r="B205" s="4"/>
-      <c r="F205" s="6"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206">
-      <c r="B206" s="4"/>
-      <c r="F206" s="6"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207">
-      <c r="B207" s="4"/>
-      <c r="F207" s="6"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208">
-      <c r="B208" s="4"/>
-      <c r="F208" s="6"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209">
-      <c r="B209" s="4"/>
-      <c r="F209" s="6"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210">
-      <c r="B210" s="4"/>
-      <c r="F210" s="6"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211">
-      <c r="B211" s="4"/>
-      <c r="F211" s="6"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212">
-      <c r="B212" s="4"/>
-      <c r="F212" s="6"/>
+      <c r="F212" s="5"/>
     </row>
     <row r="213">
-      <c r="B213" s="4"/>
-      <c r="F213" s="6"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214">
-      <c r="B214" s="4"/>
-      <c r="F214" s="6"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215">
-      <c r="B215" s="4"/>
-      <c r="F215" s="6"/>
+      <c r="F215" s="5"/>
     </row>
     <row r="216">
-      <c r="B216" s="4"/>
-      <c r="F216" s="6"/>
+      <c r="F216" s="5"/>
     </row>
     <row r="217">
-      <c r="B217" s="4"/>
-      <c r="F217" s="6"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218">
-      <c r="B218" s="4"/>
-      <c r="F218" s="6"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219">
-      <c r="B219" s="4"/>
-      <c r="F219" s="6"/>
+      <c r="F219" s="5"/>
     </row>
     <row r="220">
-      <c r="B220" s="4"/>
-      <c r="F220" s="6"/>
+      <c r="F220" s="5"/>
     </row>
     <row r="221">
-      <c r="B221" s="4"/>
-      <c r="F221" s="6"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222">
-      <c r="B222" s="4"/>
-      <c r="F222" s="6"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223">
-      <c r="B223" s="4"/>
-      <c r="F223" s="6"/>
+      <c r="F223" s="5"/>
     </row>
     <row r="224">
-      <c r="B224" s="4"/>
-      <c r="F224" s="6"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225">
-      <c r="B225" s="4"/>
-      <c r="F225" s="6"/>
+      <c r="F225" s="5"/>
     </row>
     <row r="226">
-      <c r="B226" s="4"/>
-      <c r="F226" s="6"/>
+      <c r="F226" s="5"/>
     </row>
     <row r="227">
-      <c r="B227" s="4"/>
-      <c r="F227" s="6"/>
+      <c r="F227" s="5"/>
     </row>
     <row r="228">
-      <c r="B228" s="4"/>
-      <c r="F228" s="6"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229">
-      <c r="B229" s="4"/>
-      <c r="F229" s="6"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230">
-      <c r="B230" s="4"/>
-      <c r="F230" s="6"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231">
-      <c r="B231" s="4"/>
-      <c r="F231" s="6"/>
+      <c r="F231" s="5"/>
     </row>
     <row r="232">
-      <c r="B232" s="4"/>
-      <c r="F232" s="6"/>
+      <c r="F232" s="5"/>
     </row>
     <row r="233">
-      <c r="B233" s="4"/>
-      <c r="F233" s="6"/>
+      <c r="F233" s="5"/>
     </row>
     <row r="234">
-      <c r="B234" s="4"/>
-      <c r="F234" s="6"/>
+      <c r="F234" s="5"/>
     </row>
     <row r="235">
-      <c r="B235" s="4"/>
-      <c r="F235" s="6"/>
+      <c r="F235" s="5"/>
     </row>
     <row r="236">
-      <c r="B236" s="4"/>
-      <c r="F236" s="6"/>
+      <c r="F236" s="5"/>
     </row>
     <row r="237">
-      <c r="B237" s="4"/>
-      <c r="F237" s="6"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238">
-      <c r="B238" s="4"/>
-      <c r="F238" s="6"/>
+      <c r="F238" s="5"/>
     </row>
     <row r="239">
-      <c r="B239" s="4"/>
-      <c r="F239" s="6"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240">
-      <c r="B240" s="4"/>
-      <c r="F240" s="6"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241">
-      <c r="B241" s="4"/>
-      <c r="F241" s="6"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242">
-      <c r="B242" s="4"/>
-      <c r="F242" s="6"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243">
-      <c r="B243" s="4"/>
-      <c r="F243" s="6"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244">
-      <c r="B244" s="4"/>
-      <c r="F244" s="6"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245">
-      <c r="B245" s="4"/>
-      <c r="F245" s="6"/>
+      <c r="F245" s="5"/>
     </row>
     <row r="246">
-      <c r="B246" s="4"/>
-      <c r="F246" s="6"/>
+      <c r="F246" s="5"/>
     </row>
     <row r="247">
-      <c r="B247" s="4"/>
-      <c r="F247" s="6"/>
+      <c r="F247" s="5"/>
     </row>
     <row r="248">
-      <c r="B248" s="4"/>
-      <c r="F248" s="6"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="249">
-      <c r="B249" s="4"/>
-      <c r="F249" s="6"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250">
-      <c r="B250" s="4"/>
-      <c r="F250" s="6"/>
+      <c r="F250" s="5"/>
     </row>
     <row r="251">
-      <c r="B251" s="4"/>
-      <c r="F251" s="6"/>
+      <c r="F251" s="5"/>
     </row>
     <row r="252">
-      <c r="B252" s="4"/>
-      <c r="F252" s="6"/>
+      <c r="F252" s="5"/>
     </row>
     <row r="253">
-      <c r="B253" s="4"/>
-      <c r="F253" s="6"/>
+      <c r="F253" s="5"/>
     </row>
     <row r="254">
-      <c r="B254" s="4"/>
-      <c r="F254" s="6"/>
+      <c r="F254" s="5"/>
     </row>
     <row r="255">
-      <c r="B255" s="4"/>
-      <c r="F255" s="6"/>
+      <c r="F255" s="5"/>
     </row>
     <row r="256">
-      <c r="B256" s="4"/>
-      <c r="F256" s="6"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257">
-      <c r="B257" s="4"/>
-      <c r="F257" s="6"/>
+      <c r="F257" s="5"/>
     </row>
     <row r="258">
-      <c r="B258" s="4"/>
-      <c r="F258" s="6"/>
+      <c r="F258" s="5"/>
     </row>
     <row r="259">
-      <c r="B259" s="4"/>
-      <c r="F259" s="6"/>
+      <c r="F259" s="5"/>
     </row>
     <row r="260">
-      <c r="B260" s="4"/>
-      <c r="F260" s="6"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261">
-      <c r="B261" s="4"/>
-      <c r="F261" s="6"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262">
-      <c r="B262" s="4"/>
-      <c r="F262" s="6"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263">
-      <c r="B263" s="4"/>
-      <c r="F263" s="6"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264">
-      <c r="B264" s="4"/>
-      <c r="F264" s="6"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265">
-      <c r="B265" s="4"/>
-      <c r="F265" s="6"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266">
-      <c r="B266" s="4"/>
-      <c r="F266" s="6"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267">
-      <c r="B267" s="4"/>
-      <c r="F267" s="6"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268">
-      <c r="B268" s="4"/>
-      <c r="F268" s="6"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269">
-      <c r="B269" s="4"/>
-      <c r="F269" s="6"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270">
-      <c r="B270" s="4"/>
-      <c r="F270" s="6"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271">
-      <c r="B271" s="4"/>
-      <c r="F271" s="6"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272">
-      <c r="B272" s="4"/>
-      <c r="F272" s="6"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273">
-      <c r="B273" s="4"/>
-      <c r="F273" s="6"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274">
-      <c r="B274" s="4"/>
-      <c r="F274" s="6"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275">
-      <c r="B275" s="4"/>
-      <c r="F275" s="6"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276">
-      <c r="B276" s="4"/>
-      <c r="F276" s="6"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277">
-      <c r="B277" s="4"/>
-      <c r="F277" s="6"/>
+      <c r="F277" s="5"/>
     </row>
     <row r="278">
-      <c r="B278" s="4"/>
-      <c r="F278" s="6"/>
+      <c r="F278" s="5"/>
     </row>
     <row r="279">
-      <c r="B279" s="4"/>
-      <c r="F279" s="6"/>
+      <c r="F279" s="5"/>
     </row>
     <row r="280">
-      <c r="B280" s="4"/>
-      <c r="F280" s="6"/>
+      <c r="F280" s="5"/>
     </row>
     <row r="281">
-      <c r="B281" s="4"/>
-      <c r="F281" s="6"/>
+      <c r="F281" s="5"/>
     </row>
     <row r="282">
-      <c r="B282" s="4"/>
-      <c r="F282" s="6"/>
+      <c r="F282" s="5"/>
     </row>
     <row r="283">
-      <c r="B283" s="4"/>
-      <c r="F283" s="6"/>
+      <c r="F283" s="5"/>
     </row>
     <row r="284">
-      <c r="B284" s="4"/>
-      <c r="F284" s="6"/>
+      <c r="F284" s="5"/>
     </row>
     <row r="285">
-      <c r="B285" s="4"/>
-      <c r="F285" s="6"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286">
-      <c r="B286" s="4"/>
-      <c r="F286" s="6"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287">
-      <c r="B287" s="4"/>
-      <c r="F287" s="6"/>
+      <c r="F287" s="5"/>
     </row>
     <row r="288">
-      <c r="B288" s="4"/>
-      <c r="F288" s="6"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289">
-      <c r="B289" s="4"/>
-      <c r="F289" s="6"/>
+      <c r="F289" s="5"/>
     </row>
     <row r="290">
-      <c r="B290" s="4"/>
-      <c r="F290" s="6"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291">
-      <c r="B291" s="4"/>
-      <c r="F291" s="6"/>
+      <c r="F291" s="5"/>
     </row>
     <row r="292">
-      <c r="B292" s="4"/>
-      <c r="F292" s="6"/>
+      <c r="F292" s="5"/>
     </row>
     <row r="293">
-      <c r="B293" s="4"/>
-      <c r="F293" s="6"/>
+      <c r="F293" s="5"/>
     </row>
     <row r="294">
-      <c r="B294" s="4"/>
-      <c r="F294" s="6"/>
+      <c r="F294" s="5"/>
     </row>
     <row r="295">
-      <c r="B295" s="4"/>
-      <c r="F295" s="6"/>
+      <c r="F295" s="5"/>
     </row>
     <row r="296">
-      <c r="B296" s="4"/>
-      <c r="F296" s="6"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297">
-      <c r="B297" s="4"/>
-      <c r="F297" s="6"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298">
-      <c r="B298" s="4"/>
-      <c r="F298" s="6"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299">
-      <c r="B299" s="4"/>
-      <c r="F299" s="6"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300">
-      <c r="B300" s="4"/>
-      <c r="F300" s="6"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301">
-      <c r="B301" s="4"/>
-      <c r="F301" s="6"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302">
-      <c r="B302" s="4"/>
-      <c r="F302" s="6"/>
+      <c r="F302" s="5"/>
     </row>
     <row r="303">
-      <c r="B303" s="4"/>
-      <c r="F303" s="6"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304">
-      <c r="B304" s="4"/>
-      <c r="F304" s="6"/>
+      <c r="F304" s="5"/>
     </row>
     <row r="305">
-      <c r="B305" s="4"/>
-      <c r="F305" s="6"/>
+      <c r="F305" s="5"/>
     </row>
     <row r="306">
-      <c r="B306" s="4"/>
-      <c r="F306" s="6"/>
+      <c r="F306" s="5"/>
     </row>
     <row r="307">
-      <c r="B307" s="4"/>
-      <c r="F307" s="6"/>
+      <c r="F307" s="5"/>
     </row>
     <row r="308">
-      <c r="B308" s="4"/>
-      <c r="F308" s="6"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309">
-      <c r="B309" s="4"/>
-      <c r="F309" s="6"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310">
-      <c r="B310" s="4"/>
-      <c r="F310" s="6"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311">
-      <c r="B311" s="4"/>
-      <c r="F311" s="6"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312">
-      <c r="B312" s="4"/>
-      <c r="F312" s="6"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313">
-      <c r="B313" s="4"/>
-      <c r="F313" s="6"/>
+      <c r="F313" s="5"/>
     </row>
     <row r="314">
-      <c r="B314" s="4"/>
-      <c r="F314" s="6"/>
+      <c r="F314" s="5"/>
     </row>
     <row r="315">
-      <c r="B315" s="4"/>
-      <c r="F315" s="6"/>
+      <c r="F315" s="5"/>
     </row>
     <row r="316">
-      <c r="B316" s="4"/>
-      <c r="F316" s="6"/>
+      <c r="F316" s="5"/>
     </row>
     <row r="317">
-      <c r="B317" s="4"/>
-      <c r="F317" s="6"/>
+      <c r="F317" s="5"/>
     </row>
     <row r="318">
-      <c r="B318" s="4"/>
-      <c r="F318" s="6"/>
+      <c r="F318" s="5"/>
     </row>
     <row r="319">
-      <c r="B319" s="4"/>
-      <c r="F319" s="6"/>
+      <c r="F319" s="5"/>
     </row>
     <row r="320">
-      <c r="B320" s="4"/>
-      <c r="F320" s="6"/>
+      <c r="F320" s="5"/>
     </row>
     <row r="321">
-      <c r="B321" s="4"/>
-      <c r="F321" s="6"/>
+      <c r="F321" s="5"/>
     </row>
     <row r="322">
-      <c r="B322" s="4"/>
-      <c r="F322" s="6"/>
+      <c r="F322" s="5"/>
     </row>
     <row r="323">
-      <c r="B323" s="4"/>
-      <c r="F323" s="6"/>
+      <c r="F323" s="5"/>
     </row>
     <row r="324">
-      <c r="B324" s="4"/>
-      <c r="F324" s="6"/>
+      <c r="F324" s="5"/>
     </row>
     <row r="325">
-      <c r="B325" s="4"/>
-      <c r="F325" s="6"/>
+      <c r="F325" s="5"/>
     </row>
     <row r="326">
-      <c r="B326" s="4"/>
-      <c r="F326" s="6"/>
+      <c r="F326" s="5"/>
     </row>
     <row r="327">
-      <c r="B327" s="4"/>
-      <c r="F327" s="6"/>
+      <c r="F327" s="5"/>
     </row>
     <row r="328">
-      <c r="B328" s="4"/>
-      <c r="F328" s="6"/>
+      <c r="F328" s="5"/>
     </row>
     <row r="329">
-      <c r="B329" s="4"/>
-      <c r="F329" s="6"/>
+      <c r="F329" s="5"/>
     </row>
     <row r="330">
-      <c r="B330" s="4"/>
-      <c r="F330" s="6"/>
+      <c r="F330" s="5"/>
     </row>
     <row r="331">
-      <c r="B331" s="4"/>
-      <c r="F331" s="6"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332">
-      <c r="B332" s="4"/>
-      <c r="F332" s="6"/>
+      <c r="F332" s="5"/>
     </row>
     <row r="333">
-      <c r="B333" s="4"/>
-      <c r="F333" s="6"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334">
-      <c r="B334" s="4"/>
-      <c r="F334" s="6"/>
+      <c r="F334" s="5"/>
     </row>
     <row r="335">
-      <c r="B335" s="4"/>
-      <c r="F335" s="6"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336">
-      <c r="B336" s="4"/>
-      <c r="F336" s="6"/>
+      <c r="F336" s="5"/>
     </row>
     <row r="337">
-      <c r="B337" s="4"/>
-      <c r="F337" s="6"/>
+      <c r="F337" s="5"/>
     </row>
     <row r="338">
-      <c r="B338" s="4"/>
-      <c r="F338" s="6"/>
+      <c r="F338" s="5"/>
     </row>
     <row r="339">
-      <c r="B339" s="4"/>
-      <c r="F339" s="6"/>
+      <c r="F339" s="5"/>
     </row>
     <row r="340">
-      <c r="B340" s="4"/>
-      <c r="F340" s="6"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="341">
-      <c r="B341" s="4"/>
-      <c r="F341" s="6"/>
+      <c r="F341" s="5"/>
     </row>
     <row r="342">
-      <c r="B342" s="4"/>
-      <c r="F342" s="6"/>
+      <c r="F342" s="5"/>
     </row>
     <row r="343">
-      <c r="B343" s="4"/>
-      <c r="F343" s="6"/>
+      <c r="F343" s="5"/>
     </row>
     <row r="344">
-      <c r="B344" s="4"/>
-      <c r="F344" s="6"/>
+      <c r="F344" s="5"/>
     </row>
     <row r="345">
-      <c r="B345" s="4"/>
-      <c r="F345" s="6"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346">
-      <c r="B346" s="4"/>
-      <c r="F346" s="6"/>
+      <c r="F346" s="5"/>
     </row>
     <row r="347">
-      <c r="B347" s="4"/>
-      <c r="F347" s="6"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="348">
-      <c r="B348" s="4"/>
-      <c r="F348" s="6"/>
+      <c r="F348" s="5"/>
     </row>
     <row r="349">
-      <c r="B349" s="4"/>
-      <c r="F349" s="6"/>
+      <c r="F349" s="5"/>
     </row>
     <row r="350">
-      <c r="B350" s="4"/>
-      <c r="F350" s="6"/>
+      <c r="F350" s="5"/>
     </row>
     <row r="351">
-      <c r="B351" s="4"/>
-      <c r="F351" s="6"/>
+      <c r="F351" s="5"/>
     </row>
     <row r="352">
-      <c r="B352" s="4"/>
-      <c r="F352" s="6"/>
+      <c r="F352" s="5"/>
     </row>
     <row r="353">
-      <c r="B353" s="4"/>
-      <c r="F353" s="6"/>
+      <c r="F353" s="5"/>
     </row>
     <row r="354">
-      <c r="B354" s="4"/>
-      <c r="F354" s="6"/>
+      <c r="F354" s="5"/>
     </row>
     <row r="355">
-      <c r="B355" s="4"/>
-      <c r="F355" s="6"/>
+      <c r="F355" s="5"/>
     </row>
     <row r="356">
-      <c r="B356" s="4"/>
-      <c r="F356" s="6"/>
+      <c r="F356" s="5"/>
     </row>
     <row r="357">
-      <c r="B357" s="4"/>
-      <c r="F357" s="6"/>
+      <c r="F357" s="5"/>
     </row>
     <row r="358">
-      <c r="B358" s="4"/>
-      <c r="F358" s="6"/>
+      <c r="F358" s="5"/>
     </row>
     <row r="359">
-      <c r="B359" s="4"/>
-      <c r="F359" s="6"/>
+      <c r="F359" s="5"/>
     </row>
     <row r="360">
-      <c r="B360" s="4"/>
-      <c r="F360" s="6"/>
+      <c r="F360" s="5"/>
     </row>
     <row r="361">
-      <c r="B361" s="4"/>
-      <c r="F361" s="6"/>
+      <c r="F361" s="5"/>
     </row>
     <row r="362">
-      <c r="B362" s="4"/>
-      <c r="F362" s="6"/>
+      <c r="F362" s="5"/>
     </row>
     <row r="363">
-      <c r="B363" s="4"/>
-      <c r="F363" s="6"/>
+      <c r="F363" s="5"/>
     </row>
     <row r="364">
-      <c r="B364" s="4"/>
-      <c r="F364" s="6"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365">
-      <c r="B365" s="4"/>
-      <c r="F365" s="6"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366">
-      <c r="B366" s="4"/>
-      <c r="F366" s="6"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367">
-      <c r="B367" s="4"/>
-      <c r="F367" s="6"/>
+      <c r="F367" s="5"/>
     </row>
     <row r="368">
-      <c r="B368" s="4"/>
-      <c r="F368" s="6"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369">
-      <c r="B369" s="4"/>
-      <c r="F369" s="6"/>
+      <c r="F369" s="5"/>
     </row>
     <row r="370">
-      <c r="B370" s="4"/>
-      <c r="F370" s="6"/>
+      <c r="F370" s="5"/>
     </row>
     <row r="371">
-      <c r="B371" s="4"/>
-      <c r="F371" s="6"/>
+      <c r="F371" s="5"/>
     </row>
     <row r="372">
-      <c r="B372" s="4"/>
-      <c r="F372" s="6"/>
+      <c r="F372" s="5"/>
     </row>
     <row r="373">
-      <c r="B373" s="4"/>
-      <c r="F373" s="6"/>
+      <c r="F373" s="5"/>
     </row>
     <row r="374">
-      <c r="B374" s="4"/>
-      <c r="F374" s="6"/>
+      <c r="F374" s="5"/>
     </row>
     <row r="375">
-      <c r="B375" s="4"/>
-      <c r="F375" s="6"/>
+      <c r="F375" s="5"/>
     </row>
     <row r="376">
-      <c r="B376" s="4"/>
-      <c r="F376" s="6"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377">
-      <c r="B377" s="4"/>
-      <c r="F377" s="6"/>
+      <c r="F377" s="5"/>
     </row>
     <row r="378">
-      <c r="B378" s="4"/>
-      <c r="F378" s="6"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379">
-      <c r="B379" s="4"/>
-      <c r="F379" s="6"/>
+      <c r="F379" s="5"/>
     </row>
     <row r="380">
-      <c r="B380" s="4"/>
-      <c r="F380" s="6"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381">
-      <c r="B381" s="4"/>
-      <c r="F381" s="6"/>
+      <c r="F381" s="5"/>
     </row>
     <row r="382">
-      <c r="B382" s="4"/>
-      <c r="F382" s="6"/>
+      <c r="F382" s="5"/>
     </row>
     <row r="383">
-      <c r="B383" s="4"/>
-      <c r="F383" s="6"/>
+      <c r="F383" s="5"/>
     </row>
     <row r="384">
-      <c r="B384" s="4"/>
-      <c r="F384" s="6"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385">
-      <c r="B385" s="4"/>
-      <c r="F385" s="6"/>
+      <c r="F385" s="5"/>
     </row>
     <row r="386">
-      <c r="B386" s="4"/>
-      <c r="F386" s="6"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387">
-      <c r="B387" s="4"/>
-      <c r="F387" s="6"/>
+      <c r="F387" s="5"/>
     </row>
     <row r="388">
-      <c r="B388" s="4"/>
-      <c r="F388" s="6"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389">
-      <c r="B389" s="4"/>
-      <c r="F389" s="6"/>
+      <c r="F389" s="5"/>
     </row>
     <row r="390">
-      <c r="B390" s="4"/>
-      <c r="F390" s="6"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391">
-      <c r="B391" s="4"/>
-      <c r="F391" s="6"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392">
-      <c r="B392" s="4"/>
-      <c r="F392" s="6"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393">
-      <c r="B393" s="4"/>
-      <c r="F393" s="6"/>
+      <c r="F393" s="5"/>
     </row>
     <row r="394">
-      <c r="B394" s="4"/>
-      <c r="F394" s="6"/>
+      <c r="F394" s="5"/>
     </row>
     <row r="395">
-      <c r="B395" s="4"/>
-      <c r="F395" s="6"/>
+      <c r="F395" s="5"/>
     </row>
     <row r="396">
-      <c r="B396" s="4"/>
-      <c r="F396" s="6"/>
+      <c r="F396" s="5"/>
     </row>
     <row r="397">
-      <c r="B397" s="4"/>
-      <c r="F397" s="6"/>
+      <c r="F397" s="5"/>
     </row>
     <row r="398">
-      <c r="B398" s="4"/>
-      <c r="F398" s="6"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399">
-      <c r="B399" s="4"/>
-      <c r="F399" s="6"/>
+      <c r="F399" s="5"/>
     </row>
     <row r="400">
-      <c r="B400" s="4"/>
-      <c r="F400" s="6"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401">
-      <c r="B401" s="4"/>
-      <c r="F401" s="6"/>
+      <c r="F401" s="5"/>
     </row>
     <row r="402">
-      <c r="B402" s="4"/>
-      <c r="F402" s="6"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403">
-      <c r="B403" s="4"/>
-      <c r="F403" s="6"/>
+      <c r="F403" s="5"/>
     </row>
     <row r="404">
-      <c r="B404" s="4"/>
-      <c r="F404" s="6"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405">
-      <c r="B405" s="4"/>
-      <c r="F405" s="6"/>
+      <c r="F405" s="5"/>
     </row>
     <row r="406">
-      <c r="B406" s="4"/>
-      <c r="F406" s="6"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407">
-      <c r="B407" s="4"/>
-      <c r="F407" s="6"/>
+      <c r="F407" s="5"/>
     </row>
     <row r="408">
-      <c r="B408" s="4"/>
-      <c r="F408" s="6"/>
+      <c r="F408" s="5"/>
     </row>
     <row r="409">
-      <c r="B409" s="4"/>
-      <c r="F409" s="6"/>
+      <c r="F409" s="5"/>
     </row>
     <row r="410">
-      <c r="B410" s="4"/>
-      <c r="F410" s="6"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411">
-      <c r="B411" s="4"/>
-      <c r="F411" s="6"/>
+      <c r="F411" s="5"/>
     </row>
     <row r="412">
-      <c r="B412" s="4"/>
-      <c r="F412" s="6"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413">
-      <c r="B413" s="4"/>
-      <c r="F413" s="6"/>
+      <c r="F413" s="5"/>
     </row>
     <row r="414">
-      <c r="B414" s="4"/>
-      <c r="F414" s="6"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415">
-      <c r="B415" s="4"/>
-      <c r="F415" s="6"/>
+      <c r="F415" s="5"/>
     </row>
     <row r="416">
-      <c r="B416" s="4"/>
-      <c r="F416" s="6"/>
+      <c r="F416" s="5"/>
     </row>
     <row r="417">
-      <c r="B417" s="4"/>
-      <c r="F417" s="6"/>
+      <c r="F417" s="5"/>
     </row>
     <row r="418">
-      <c r="B418" s="4"/>
-      <c r="F418" s="6"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419">
-      <c r="B419" s="4"/>
-      <c r="F419" s="6"/>
+      <c r="F419" s="5"/>
     </row>
     <row r="420">
-      <c r="B420" s="4"/>
-      <c r="F420" s="6"/>
+      <c r="F420" s="5"/>
     </row>
     <row r="421">
-      <c r="B421" s="4"/>
-      <c r="F421" s="6"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422">
-      <c r="B422" s="4"/>
-      <c r="F422" s="6"/>
+      <c r="F422" s="5"/>
     </row>
     <row r="423">
-      <c r="B423" s="4"/>
-      <c r="F423" s="6"/>
+      <c r="F423" s="5"/>
     </row>
     <row r="424">
-      <c r="B424" s="4"/>
-      <c r="F424" s="6"/>
+      <c r="F424" s="5"/>
     </row>
     <row r="425">
-      <c r="B425" s="4"/>
-      <c r="F425" s="6"/>
+      <c r="F425" s="5"/>
     </row>
     <row r="426">
-      <c r="B426" s="4"/>
-      <c r="F426" s="6"/>
+      <c r="F426" s="5"/>
     </row>
     <row r="427">
-      <c r="B427" s="4"/>
-      <c r="F427" s="6"/>
+      <c r="F427" s="5"/>
     </row>
     <row r="428">
-      <c r="B428" s="4"/>
-      <c r="F428" s="6"/>
+      <c r="F428" s="5"/>
     </row>
     <row r="429">
-      <c r="B429" s="4"/>
-      <c r="F429" s="6"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430">
-      <c r="B430" s="4"/>
-      <c r="F430" s="6"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431">
-      <c r="B431" s="4"/>
-      <c r="F431" s="6"/>
+      <c r="F431" s="5"/>
     </row>
     <row r="432">
-      <c r="B432" s="4"/>
-      <c r="F432" s="6"/>
+      <c r="F432" s="5"/>
     </row>
     <row r="433">
-      <c r="B433" s="4"/>
-      <c r="F433" s="6"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434">
-      <c r="B434" s="4"/>
-      <c r="F434" s="6"/>
+      <c r="F434" s="5"/>
     </row>
     <row r="435">
-      <c r="B435" s="4"/>
-      <c r="F435" s="6"/>
+      <c r="F435" s="5"/>
     </row>
     <row r="436">
-      <c r="B436" s="4"/>
-      <c r="F436" s="6"/>
+      <c r="F436" s="5"/>
     </row>
     <row r="437">
-      <c r="B437" s="4"/>
-      <c r="F437" s="6"/>
+      <c r="F437" s="5"/>
     </row>
     <row r="438">
-      <c r="B438" s="4"/>
-      <c r="F438" s="6"/>
+      <c r="F438" s="5"/>
     </row>
     <row r="439">
-      <c r="B439" s="4"/>
-      <c r="F439" s="6"/>
+      <c r="F439" s="5"/>
     </row>
     <row r="440">
-      <c r="B440" s="4"/>
-      <c r="F440" s="6"/>
+      <c r="F440" s="5"/>
     </row>
     <row r="441">
-      <c r="B441" s="4"/>
-      <c r="F441" s="6"/>
+      <c r="F441" s="5"/>
     </row>
     <row r="442">
-      <c r="B442" s="4"/>
-      <c r="F442" s="6"/>
+      <c r="F442" s="5"/>
     </row>
     <row r="443">
-      <c r="B443" s="4"/>
-      <c r="F443" s="6"/>
+      <c r="F443" s="5"/>
     </row>
     <row r="444">
-      <c r="B444" s="4"/>
-      <c r="F444" s="6"/>
+      <c r="F444" s="5"/>
     </row>
     <row r="445">
-      <c r="B445" s="4"/>
-      <c r="F445" s="6"/>
+      <c r="F445" s="5"/>
     </row>
     <row r="446">
-      <c r="B446" s="4"/>
-      <c r="F446" s="6"/>
+      <c r="F446" s="5"/>
     </row>
     <row r="447">
-      <c r="B447" s="4"/>
-      <c r="F447" s="6"/>
+      <c r="F447" s="5"/>
     </row>
     <row r="448">
-      <c r="B448" s="4"/>
-      <c r="F448" s="6"/>
+      <c r="F448" s="5"/>
     </row>
     <row r="449">
-      <c r="B449" s="4"/>
-      <c r="F449" s="6"/>
+      <c r="F449" s="5"/>
     </row>
     <row r="450">
-      <c r="B450" s="4"/>
-      <c r="F450" s="6"/>
+      <c r="F450" s="5"/>
     </row>
     <row r="451">
-      <c r="B451" s="4"/>
-      <c r="F451" s="6"/>
+      <c r="F451" s="5"/>
     </row>
     <row r="452">
-      <c r="B452" s="4"/>
-      <c r="F452" s="6"/>
+      <c r="F452" s="5"/>
     </row>
     <row r="453">
-      <c r="B453" s="4"/>
-      <c r="F453" s="6"/>
+      <c r="F453" s="5"/>
     </row>
     <row r="454">
-      <c r="B454" s="4"/>
-      <c r="F454" s="6"/>
+      <c r="F454" s="5"/>
     </row>
     <row r="455">
-      <c r="B455" s="4"/>
-      <c r="F455" s="6"/>
+      <c r="F455" s="5"/>
     </row>
     <row r="456">
-      <c r="B456" s="4"/>
-      <c r="F456" s="6"/>
+      <c r="F456" s="5"/>
     </row>
     <row r="457">
-      <c r="B457" s="4"/>
-      <c r="F457" s="6"/>
+      <c r="F457" s="5"/>
     </row>
     <row r="458">
-      <c r="B458" s="4"/>
-      <c r="F458" s="6"/>
+      <c r="F458" s="5"/>
     </row>
     <row r="459">
-      <c r="B459" s="4"/>
-      <c r="F459" s="6"/>
+      <c r="F459" s="5"/>
     </row>
     <row r="460">
-      <c r="B460" s="4"/>
-      <c r="F460" s="6"/>
+      <c r="F460" s="5"/>
     </row>
     <row r="461">
-      <c r="B461" s="4"/>
-      <c r="F461" s="6"/>
+      <c r="F461" s="5"/>
     </row>
     <row r="462">
-      <c r="B462" s="4"/>
-      <c r="F462" s="6"/>
+      <c r="F462" s="5"/>
     </row>
     <row r="463">
-      <c r="B463" s="4"/>
-      <c r="F463" s="6"/>
+      <c r="F463" s="5"/>
     </row>
     <row r="464">
-      <c r="B464" s="4"/>
-      <c r="F464" s="6"/>
+      <c r="F464" s="5"/>
     </row>
     <row r="465">
-      <c r="B465" s="4"/>
-      <c r="F465" s="6"/>
+      <c r="F465" s="5"/>
     </row>
     <row r="466">
-      <c r="B466" s="4"/>
-      <c r="F466" s="6"/>
+      <c r="F466" s="5"/>
     </row>
     <row r="467">
-      <c r="B467" s="4"/>
-      <c r="F467" s="6"/>
+      <c r="F467" s="5"/>
     </row>
     <row r="468">
-      <c r="B468" s="4"/>
-      <c r="F468" s="6"/>
+      <c r="F468" s="5"/>
     </row>
     <row r="469">
-      <c r="B469" s="4"/>
-      <c r="F469" s="6"/>
+      <c r="F469" s="5"/>
     </row>
     <row r="470">
-      <c r="B470" s="4"/>
-      <c r="F470" s="6"/>
+      <c r="F470" s="5"/>
     </row>
     <row r="471">
-      <c r="B471" s="4"/>
-      <c r="F471" s="6"/>
+      <c r="F471" s="5"/>
     </row>
     <row r="472">
-      <c r="B472" s="4"/>
-      <c r="F472" s="6"/>
+      <c r="F472" s="5"/>
     </row>
     <row r="473">
-      <c r="B473" s="4"/>
-      <c r="F473" s="6"/>
+      <c r="F473" s="5"/>
     </row>
     <row r="474">
-      <c r="B474" s="4"/>
-      <c r="F474" s="6"/>
+      <c r="F474" s="5"/>
     </row>
     <row r="475">
-      <c r="B475" s="4"/>
-      <c r="F475" s="6"/>
+      <c r="F475" s="5"/>
     </row>
     <row r="476">
-      <c r="B476" s="4"/>
-      <c r="F476" s="6"/>
+      <c r="F476" s="5"/>
     </row>
     <row r="477">
-      <c r="B477" s="4"/>
-      <c r="F477" s="6"/>
+      <c r="F477" s="5"/>
     </row>
     <row r="478">
-      <c r="B478" s="4"/>
-      <c r="F478" s="6"/>
+      <c r="F478" s="5"/>
     </row>
     <row r="479">
-      <c r="B479" s="4"/>
-      <c r="F479" s="6"/>
+      <c r="F479" s="5"/>
     </row>
     <row r="480">
-      <c r="B480" s="4"/>
-      <c r="F480" s="6"/>
+      <c r="F480" s="5"/>
     </row>
     <row r="481">
-      <c r="B481" s="4"/>
-      <c r="F481" s="6"/>
+      <c r="F481" s="5"/>
     </row>
     <row r="482">
-      <c r="B482" s="4"/>
-      <c r="F482" s="6"/>
+      <c r="F482" s="5"/>
     </row>
     <row r="483">
-      <c r="B483" s="4"/>
-      <c r="F483" s="6"/>
+      <c r="F483" s="5"/>
     </row>
     <row r="484">
-      <c r="B484" s="4"/>
-      <c r="F484" s="6"/>
+      <c r="F484" s="5"/>
     </row>
     <row r="485">
-      <c r="B485" s="4"/>
-      <c r="F485" s="6"/>
+      <c r="F485" s="5"/>
     </row>
     <row r="486">
-      <c r="B486" s="4"/>
-      <c r="F486" s="6"/>
+      <c r="F486" s="5"/>
     </row>
     <row r="487">
-      <c r="B487" s="4"/>
-      <c r="F487" s="6"/>
+      <c r="F487" s="5"/>
     </row>
     <row r="488">
-      <c r="B488" s="4"/>
-      <c r="F488" s="6"/>
+      <c r="F488" s="5"/>
     </row>
     <row r="489">
-      <c r="B489" s="4"/>
-      <c r="F489" s="6"/>
+      <c r="F489" s="5"/>
     </row>
     <row r="490">
-      <c r="B490" s="4"/>
-      <c r="F490" s="6"/>
+      <c r="F490" s="5"/>
     </row>
     <row r="491">
-      <c r="B491" s="4"/>
-      <c r="F491" s="6"/>
+      <c r="F491" s="5"/>
     </row>
     <row r="492">
-      <c r="B492" s="4"/>
-      <c r="F492" s="6"/>
+      <c r="F492" s="5"/>
     </row>
     <row r="493">
-      <c r="B493" s="4"/>
-      <c r="F493" s="6"/>
+      <c r="F493" s="5"/>
     </row>
     <row r="494">
-      <c r="B494" s="4"/>
-      <c r="F494" s="6"/>
+      <c r="F494" s="5"/>
     </row>
     <row r="495">
-      <c r="B495" s="4"/>
-      <c r="F495" s="6"/>
+      <c r="F495" s="5"/>
     </row>
     <row r="496">
-      <c r="B496" s="4"/>
-      <c r="F496" s="6"/>
+      <c r="F496" s="5"/>
     </row>
     <row r="497">
-      <c r="B497" s="4"/>
-      <c r="F497" s="6"/>
+      <c r="F497" s="5"/>
     </row>
     <row r="498">
-      <c r="B498" s="4"/>
-      <c r="F498" s="6"/>
+      <c r="F498" s="5"/>
     </row>
     <row r="499">
-      <c r="B499" s="4"/>
-      <c r="F499" s="6"/>
+      <c r="F499" s="5"/>
     </row>
     <row r="500">
-      <c r="B500" s="4"/>
-      <c r="F500" s="6"/>
+      <c r="F500" s="5"/>
     </row>
     <row r="501">
-      <c r="B501" s="4"/>
-      <c r="F501" s="6"/>
+      <c r="F501" s="5"/>
     </row>
     <row r="502">
-      <c r="B502" s="4"/>
-      <c r="F502" s="6"/>
+      <c r="F502" s="5"/>
     </row>
     <row r="503">
-      <c r="B503" s="4"/>
-      <c r="F503" s="6"/>
+      <c r="F503" s="5"/>
     </row>
     <row r="504">
-      <c r="B504" s="4"/>
-      <c r="F504" s="6"/>
+      <c r="F504" s="5"/>
     </row>
     <row r="505">
-      <c r="B505" s="4"/>
-      <c r="F505" s="6"/>
+      <c r="F505" s="5"/>
     </row>
     <row r="506">
-      <c r="B506" s="4"/>
-      <c r="F506" s="6"/>
+      <c r="F506" s="5"/>
     </row>
     <row r="507">
-      <c r="B507" s="4"/>
-      <c r="F507" s="6"/>
+      <c r="F507" s="5"/>
     </row>
     <row r="508">
-      <c r="B508" s="4"/>
-      <c r="F508" s="6"/>
+      <c r="F508" s="5"/>
     </row>
     <row r="509">
-      <c r="B509" s="4"/>
-      <c r="F509" s="6"/>
+      <c r="F509" s="5"/>
     </row>
     <row r="510">
-      <c r="B510" s="4"/>
-      <c r="F510" s="6"/>
+      <c r="F510" s="5"/>
     </row>
     <row r="511">
-      <c r="B511" s="4"/>
-      <c r="F511" s="6"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="4"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="4"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="4"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="4"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="4"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="4"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="4"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="4"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="4"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="4"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="4"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="4"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="4"/>
-    </row>
-    <row r="525">
-      <c r="B525" s="4"/>
-    </row>
-    <row r="526">
-      <c r="B526" s="4"/>
-    </row>
-    <row r="527">
-      <c r="B527" s="4"/>
-    </row>
-    <row r="528">
-      <c r="B528" s="4"/>
-    </row>
-    <row r="529">
-      <c r="B529" s="4"/>
-    </row>
-    <row r="530">
-      <c r="B530" s="4"/>
-    </row>
-    <row r="531">
-      <c r="B531" s="4"/>
-    </row>
-    <row r="532">
-      <c r="B532" s="4"/>
-    </row>
-    <row r="533">
-      <c r="B533" s="4"/>
-    </row>
-    <row r="534">
-      <c r="B534" s="4"/>
-    </row>
-    <row r="535">
-      <c r="B535" s="4"/>
-    </row>
-    <row r="536">
-      <c r="B536" s="4"/>
-    </row>
-    <row r="537">
-      <c r="B537" s="4"/>
-    </row>
-    <row r="538">
-      <c r="B538" s="4"/>
-    </row>
-    <row r="539">
-      <c r="B539" s="4"/>
-    </row>
-    <row r="540">
-      <c r="B540" s="4"/>
-    </row>
-    <row r="541">
-      <c r="B541" s="4"/>
-    </row>
-    <row r="542">
-      <c r="B542" s="4"/>
-    </row>
-    <row r="543">
-      <c r="B543" s="4"/>
-    </row>
-    <row r="544">
-      <c r="B544" s="4"/>
-    </row>
-    <row r="545">
-      <c r="B545" s="4"/>
-    </row>
-    <row r="546">
-      <c r="B546" s="4"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="4"/>
-    </row>
-    <row r="548">
-      <c r="B548" s="4"/>
-    </row>
-    <row r="549">
-      <c r="B549" s="4"/>
-    </row>
-    <row r="550">
-      <c r="B550" s="4"/>
-    </row>
-    <row r="551">
-      <c r="B551" s="4"/>
-    </row>
-    <row r="552">
-      <c r="B552" s="4"/>
-    </row>
-    <row r="553">
-      <c r="B553" s="4"/>
-    </row>
-    <row r="554">
-      <c r="B554" s="4"/>
-    </row>
-    <row r="555">
-      <c r="B555" s="4"/>
-    </row>
-    <row r="556">
-      <c r="B556" s="4"/>
-    </row>
-    <row r="557">
-      <c r="B557" s="4"/>
-    </row>
-    <row r="558">
-      <c r="B558" s="4"/>
-    </row>
-    <row r="559">
-      <c r="B559" s="4"/>
-    </row>
-    <row r="560">
-      <c r="B560" s="4"/>
-    </row>
-    <row r="561">
-      <c r="B561" s="4"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="4"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="4"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="4"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="4"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="4"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="4"/>
-    </row>
-    <row r="568">
-      <c r="B568" s="4"/>
-    </row>
-    <row r="569">
-      <c r="B569" s="4"/>
-    </row>
-    <row r="570">
-      <c r="B570" s="4"/>
-    </row>
-    <row r="571">
-      <c r="B571" s="4"/>
-    </row>
-    <row r="572">
-      <c r="B572" s="4"/>
-    </row>
-    <row r="573">
-      <c r="B573" s="4"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="4"/>
-    </row>
-    <row r="575">
-      <c r="B575" s="4"/>
-    </row>
-    <row r="576">
-      <c r="B576" s="4"/>
-    </row>
-    <row r="577">
-      <c r="B577" s="4"/>
-    </row>
-    <row r="578">
-      <c r="B578" s="4"/>
-    </row>
-    <row r="579">
-      <c r="B579" s="4"/>
-    </row>
-    <row r="580">
-      <c r="B580" s="4"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="4"/>
-    </row>
-    <row r="582">
-      <c r="B582" s="4"/>
-    </row>
-    <row r="583">
-      <c r="B583" s="4"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="4"/>
-    </row>
-    <row r="585">
-      <c r="B585" s="4"/>
-    </row>
-    <row r="586">
-      <c r="B586" s="4"/>
-    </row>
-    <row r="587">
-      <c r="B587" s="4"/>
-    </row>
-    <row r="588">
-      <c r="B588" s="4"/>
-    </row>
-    <row r="589">
-      <c r="B589" s="4"/>
-    </row>
-    <row r="590">
-      <c r="B590" s="4"/>
-    </row>
-    <row r="591">
-      <c r="B591" s="4"/>
-    </row>
-    <row r="592">
-      <c r="B592" s="4"/>
-    </row>
-    <row r="593">
-      <c r="B593" s="4"/>
-    </row>
-    <row r="594">
-      <c r="B594" s="4"/>
-    </row>
-    <row r="595">
-      <c r="B595" s="4"/>
-    </row>
-    <row r="596">
-      <c r="B596" s="4"/>
-    </row>
-    <row r="597">
-      <c r="B597" s="4"/>
-    </row>
-    <row r="598">
-      <c r="B598" s="4"/>
-    </row>
-    <row r="599">
-      <c r="B599" s="4"/>
-    </row>
-    <row r="600">
-      <c r="B600" s="4"/>
-    </row>
-    <row r="601">
-      <c r="B601" s="4"/>
-    </row>
-    <row r="602">
-      <c r="B602" s="4"/>
-    </row>
-    <row r="603">
-      <c r="B603" s="4"/>
-    </row>
-    <row r="604">
-      <c r="B604" s="4"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="4"/>
-    </row>
-    <row r="606">
-      <c r="B606" s="4"/>
-    </row>
-    <row r="607">
-      <c r="B607" s="4"/>
-    </row>
-    <row r="608">
-      <c r="B608" s="4"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="4"/>
-    </row>
-    <row r="610">
-      <c r="B610" s="4"/>
-    </row>
-    <row r="611">
-      <c r="B611" s="4"/>
-    </row>
-    <row r="612">
-      <c r="B612" s="4"/>
-    </row>
-    <row r="613">
-      <c r="B613" s="4"/>
-    </row>
-    <row r="614">
-      <c r="B614" s="4"/>
-    </row>
-    <row r="615">
-      <c r="B615" s="4"/>
-    </row>
-    <row r="616">
-      <c r="B616" s="4"/>
-    </row>
-    <row r="617">
-      <c r="B617" s="4"/>
-    </row>
-    <row r="618">
-      <c r="B618" s="4"/>
-    </row>
-    <row r="619">
-      <c r="B619" s="4"/>
-    </row>
-    <row r="620">
-      <c r="B620" s="4"/>
-    </row>
-    <row r="621">
-      <c r="B621" s="4"/>
-    </row>
-    <row r="622">
-      <c r="B622" s="4"/>
-    </row>
-    <row r="623">
-      <c r="B623" s="4"/>
-    </row>
-    <row r="624">
-      <c r="B624" s="4"/>
-    </row>
-    <row r="625">
-      <c r="B625" s="4"/>
-    </row>
-    <row r="626">
-      <c r="B626" s="4"/>
-    </row>
-    <row r="627">
-      <c r="B627" s="4"/>
-    </row>
-    <row r="628">
-      <c r="B628" s="4"/>
-    </row>
-    <row r="629">
-      <c r="B629" s="4"/>
-    </row>
-    <row r="630">
-      <c r="B630" s="4"/>
-    </row>
-    <row r="631">
-      <c r="B631" s="4"/>
-    </row>
-    <row r="632">
-      <c r="B632" s="4"/>
-    </row>
-    <row r="633">
-      <c r="B633" s="4"/>
-    </row>
-    <row r="634">
-      <c r="B634" s="4"/>
-    </row>
-    <row r="635">
-      <c r="B635" s="4"/>
-    </row>
-    <row r="636">
-      <c r="B636" s="4"/>
-    </row>
-    <row r="637">
-      <c r="B637" s="4"/>
-    </row>
-    <row r="638">
-      <c r="B638" s="4"/>
-    </row>
-    <row r="639">
-      <c r="B639" s="4"/>
-    </row>
-    <row r="640">
-      <c r="B640" s="4"/>
-    </row>
-    <row r="641">
-      <c r="B641" s="4"/>
-    </row>
-    <row r="642">
-      <c r="B642" s="4"/>
-    </row>
-    <row r="643">
-      <c r="B643" s="4"/>
-    </row>
-    <row r="644">
-      <c r="B644" s="4"/>
-    </row>
-    <row r="645">
-      <c r="B645" s="4"/>
-    </row>
-    <row r="646">
-      <c r="B646" s="4"/>
-    </row>
-    <row r="647">
-      <c r="B647" s="4"/>
-    </row>
-    <row r="648">
-      <c r="B648" s="4"/>
-    </row>
-    <row r="649">
-      <c r="B649" s="4"/>
-    </row>
-    <row r="650">
-      <c r="B650" s="4"/>
-    </row>
-    <row r="651">
-      <c r="B651" s="4"/>
-    </row>
-    <row r="652">
-      <c r="B652" s="4"/>
-    </row>
-    <row r="653">
-      <c r="B653" s="4"/>
-    </row>
-    <row r="654">
-      <c r="B654" s="4"/>
-    </row>
-    <row r="655">
-      <c r="B655" s="4"/>
-    </row>
-    <row r="656">
-      <c r="B656" s="4"/>
-    </row>
-    <row r="657">
-      <c r="B657" s="4"/>
-    </row>
-    <row r="658">
-      <c r="B658" s="4"/>
-    </row>
+      <c r="F511" s="5"/>
+    </row>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
   </sheetData>
   <conditionalFormatting sqref="A2:A658">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -3133,11 +2339,11 @@
       <formula>988</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B658">
-      <formula1>'Device Models'!$A$1:$A$88</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="14">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3203,2507 +2409,2507 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22">
-      <c r="B22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23">
-      <c r="B23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24">
-      <c r="B24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25">
-      <c r="B25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26">
-      <c r="B26" s="4"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27">
-      <c r="B27" s="4"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28">
-      <c r="B28" s="4"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29">
-      <c r="B29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30">
-      <c r="B30" s="4"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32">
-      <c r="B32" s="4"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34">
-      <c r="B34" s="4"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35">
-      <c r="B35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36">
-      <c r="B36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37">
-      <c r="B37" s="4"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38">
-      <c r="B38" s="4"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39">
-      <c r="B39" s="4"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40">
-      <c r="B40" s="4"/>
-      <c r="F40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41">
-      <c r="B41" s="4"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42">
-      <c r="B42" s="4"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43">
-      <c r="B43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44">
-      <c r="B44" s="4"/>
-      <c r="F44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="4"/>
-      <c r="F45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="4"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47">
-      <c r="B47" s="4"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48">
-      <c r="B48" s="4"/>
-      <c r="F48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49">
-      <c r="B49" s="4"/>
-      <c r="F49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50">
-      <c r="B50" s="4"/>
-      <c r="F50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51">
-      <c r="B51" s="4"/>
-      <c r="F51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52">
-      <c r="B52" s="4"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53">
-      <c r="B53" s="4"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54">
-      <c r="B54" s="4"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55">
-      <c r="B55" s="4"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56">
-      <c r="B56" s="4"/>
-      <c r="F56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57">
-      <c r="B57" s="4"/>
-      <c r="F57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58">
-      <c r="B58" s="4"/>
-      <c r="F58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59">
-      <c r="B59" s="4"/>
-      <c r="F59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60">
-      <c r="B60" s="4"/>
-      <c r="F60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61">
-      <c r="B61" s="4"/>
-      <c r="F61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62">
-      <c r="B62" s="4"/>
-      <c r="F62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63">
-      <c r="B63" s="4"/>
-      <c r="F63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64">
-      <c r="B64" s="4"/>
-      <c r="F64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65">
-      <c r="B65" s="4"/>
-      <c r="F65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66">
-      <c r="B66" s="4"/>
-      <c r="F66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67">
-      <c r="B67" s="4"/>
-      <c r="F67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68">
-      <c r="B68" s="4"/>
-      <c r="F68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69">
-      <c r="B69" s="4"/>
-      <c r="F69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70">
-      <c r="B70" s="4"/>
-      <c r="F70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71">
-      <c r="B71" s="4"/>
-      <c r="F71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72">
-      <c r="B72" s="4"/>
-      <c r="F72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73">
-      <c r="B73" s="4"/>
-      <c r="F73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74">
-      <c r="B74" s="4"/>
-      <c r="F74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75">
-      <c r="B75" s="4"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76">
-      <c r="B76" s="4"/>
-      <c r="F76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77">
-      <c r="B77" s="4"/>
-      <c r="F77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78">
-      <c r="B78" s="4"/>
-      <c r="F78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79">
-      <c r="B79" s="4"/>
-      <c r="F79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80">
-      <c r="B80" s="4"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81">
-      <c r="B81" s="4"/>
-      <c r="F81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82">
-      <c r="B82" s="4"/>
-      <c r="F82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83">
-      <c r="B83" s="4"/>
-      <c r="F83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84">
-      <c r="B84" s="4"/>
-      <c r="F84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85">
-      <c r="B85" s="4"/>
-      <c r="F85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86">
-      <c r="B86" s="4"/>
-      <c r="F86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87">
-      <c r="B87" s="4"/>
-      <c r="F87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88">
-      <c r="B88" s="4"/>
-      <c r="F88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89">
-      <c r="B89" s="4"/>
-      <c r="F89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90">
-      <c r="B90" s="4"/>
-      <c r="F90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91">
-      <c r="B91" s="4"/>
-      <c r="F91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92">
-      <c r="B92" s="4"/>
-      <c r="F92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93">
-      <c r="B93" s="4"/>
-      <c r="F93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94">
-      <c r="B94" s="4"/>
-      <c r="F94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95">
-      <c r="B95" s="4"/>
-      <c r="F95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96">
-      <c r="B96" s="4"/>
-      <c r="F96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97">
-      <c r="B97" s="4"/>
-      <c r="F97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98">
-      <c r="B98" s="4"/>
-      <c r="F98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99">
-      <c r="B99" s="4"/>
-      <c r="F99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100">
-      <c r="B100" s="4"/>
-      <c r="F100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101">
-      <c r="B101" s="4"/>
-      <c r="F101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102">
-      <c r="B102" s="4"/>
-      <c r="F102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103">
-      <c r="B103" s="4"/>
-      <c r="F103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104">
-      <c r="B104" s="4"/>
-      <c r="F104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105">
-      <c r="B105" s="4"/>
-      <c r="F105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106">
-      <c r="B106" s="4"/>
-      <c r="F106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107">
-      <c r="B107" s="4"/>
-      <c r="F107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108">
-      <c r="B108" s="4"/>
-      <c r="F108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109">
-      <c r="B109" s="4"/>
-      <c r="F109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110">
-      <c r="B110" s="4"/>
-      <c r="F110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111">
-      <c r="B111" s="4"/>
-      <c r="F111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112">
-      <c r="B112" s="4"/>
-      <c r="F112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113">
-      <c r="B113" s="4"/>
-      <c r="F113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114">
-      <c r="B114" s="4"/>
-      <c r="F114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115">
-      <c r="B115" s="4"/>
-      <c r="F115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116">
-      <c r="B116" s="4"/>
-      <c r="F116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117">
-      <c r="B117" s="4"/>
-      <c r="F117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118">
-      <c r="B118" s="4"/>
-      <c r="F118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119">
-      <c r="B119" s="4"/>
-      <c r="F119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120">
-      <c r="B120" s="4"/>
-      <c r="F120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121">
-      <c r="B121" s="4"/>
-      <c r="F121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122">
-      <c r="B122" s="4"/>
-      <c r="F122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123">
-      <c r="B123" s="4"/>
-      <c r="F123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="F123" s="5"/>
     </row>
     <row r="124">
-      <c r="B124" s="4"/>
-      <c r="F124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125">
-      <c r="B125" s="4"/>
-      <c r="F125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126">
-      <c r="B126" s="4"/>
-      <c r="F126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127">
-      <c r="B127" s="4"/>
-      <c r="F127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128">
-      <c r="B128" s="4"/>
-      <c r="F128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129">
-      <c r="B129" s="4"/>
-      <c r="F129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130">
-      <c r="B130" s="4"/>
-      <c r="F130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131">
-      <c r="B131" s="4"/>
-      <c r="F131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132">
-      <c r="B132" s="4"/>
-      <c r="F132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133">
-      <c r="B133" s="4"/>
-      <c r="F133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134">
-      <c r="B134" s="4"/>
-      <c r="F134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135">
-      <c r="B135" s="4"/>
-      <c r="F135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136">
-      <c r="B136" s="4"/>
-      <c r="F136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137">
-      <c r="B137" s="4"/>
-      <c r="F137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138">
-      <c r="B138" s="4"/>
-      <c r="F138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139">
-      <c r="B139" s="4"/>
-      <c r="F139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140">
-      <c r="B140" s="4"/>
-      <c r="F140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141">
-      <c r="B141" s="4"/>
-      <c r="F141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142">
-      <c r="B142" s="4"/>
-      <c r="F142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143">
-      <c r="B143" s="4"/>
-      <c r="F143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144">
-      <c r="B144" s="4"/>
-      <c r="F144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145">
-      <c r="B145" s="4"/>
-      <c r="F145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="F145" s="5"/>
     </row>
     <row r="146">
-      <c r="B146" s="4"/>
-      <c r="F146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147">
-      <c r="B147" s="4"/>
-      <c r="F147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="F147" s="5"/>
     </row>
     <row r="148">
-      <c r="B148" s="4"/>
-      <c r="F148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149">
-      <c r="B149" s="4"/>
-      <c r="F149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150">
-      <c r="B150" s="4"/>
-      <c r="F150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151">
-      <c r="B151" s="4"/>
-      <c r="F151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152">
-      <c r="B152" s="4"/>
-      <c r="F152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153">
-      <c r="B153" s="4"/>
-      <c r="F153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154">
-      <c r="B154" s="4"/>
-      <c r="F154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155">
-      <c r="B155" s="4"/>
-      <c r="F155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156">
-      <c r="B156" s="4"/>
-      <c r="F156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157">
-      <c r="B157" s="4"/>
-      <c r="F157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158">
-      <c r="B158" s="4"/>
-      <c r="F158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159">
-      <c r="B159" s="4"/>
-      <c r="F159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160">
-      <c r="B160" s="4"/>
-      <c r="F160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161">
-      <c r="B161" s="4"/>
-      <c r="F161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162">
-      <c r="B162" s="4"/>
-      <c r="F162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163">
-      <c r="B163" s="4"/>
-      <c r="F163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164">
-      <c r="B164" s="4"/>
-      <c r="F164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165">
-      <c r="B165" s="4"/>
-      <c r="F165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166">
-      <c r="B166" s="4"/>
-      <c r="F166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167">
-      <c r="B167" s="4"/>
-      <c r="F167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168">
-      <c r="B168" s="4"/>
-      <c r="F168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169">
-      <c r="B169" s="4"/>
-      <c r="F169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170">
-      <c r="B170" s="4"/>
-      <c r="F170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171">
-      <c r="B171" s="4"/>
-      <c r="F171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172">
-      <c r="B172" s="4"/>
-      <c r="F172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173">
-      <c r="B173" s="4"/>
-      <c r="F173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174">
-      <c r="B174" s="4"/>
-      <c r="F174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175">
-      <c r="B175" s="4"/>
-      <c r="F175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176">
-      <c r="B176" s="4"/>
-      <c r="F176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177">
-      <c r="B177" s="4"/>
-      <c r="F177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178">
-      <c r="B178" s="4"/>
-      <c r="F178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179">
-      <c r="B179" s="4"/>
-      <c r="F179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180">
-      <c r="B180" s="4"/>
-      <c r="F180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181">
-      <c r="B181" s="4"/>
-      <c r="F181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182">
-      <c r="B182" s="4"/>
-      <c r="F182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183">
-      <c r="B183" s="4"/>
-      <c r="F183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184">
-      <c r="B184" s="4"/>
-      <c r="F184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185">
-      <c r="B185" s="4"/>
-      <c r="F185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186">
-      <c r="B186" s="4"/>
-      <c r="F186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187">
-      <c r="B187" s="4"/>
-      <c r="F187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188">
-      <c r="B188" s="4"/>
-      <c r="F188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189">
-      <c r="B189" s="4"/>
-      <c r="F189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190">
-      <c r="B190" s="4"/>
-      <c r="F190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="F190" s="5"/>
     </row>
     <row r="191">
-      <c r="B191" s="4"/>
-      <c r="F191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="F191" s="5"/>
     </row>
     <row r="192">
-      <c r="B192" s="4"/>
-      <c r="F192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193">
-      <c r="B193" s="4"/>
-      <c r="F193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194">
-      <c r="B194" s="4"/>
-      <c r="F194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195">
-      <c r="B195" s="4"/>
-      <c r="F195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196">
-      <c r="B196" s="4"/>
-      <c r="F196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197">
-      <c r="B197" s="4"/>
-      <c r="F197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198">
-      <c r="B198" s="4"/>
-      <c r="F198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199">
-      <c r="B199" s="4"/>
-      <c r="F199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200">
-      <c r="B200" s="4"/>
-      <c r="F200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="F200" s="5"/>
     </row>
     <row r="201">
-      <c r="B201" s="4"/>
-      <c r="F201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202">
-      <c r="B202" s="4"/>
-      <c r="F202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="F202" s="5"/>
     </row>
     <row r="203">
-      <c r="B203" s="4"/>
-      <c r="F203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204">
-      <c r="B204" s="4"/>
-      <c r="F204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="F204" s="5"/>
     </row>
     <row r="205">
-      <c r="B205" s="4"/>
-      <c r="F205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206">
-      <c r="B206" s="4"/>
-      <c r="F206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207">
-      <c r="B207" s="4"/>
-      <c r="F207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208">
-      <c r="B208" s="4"/>
-      <c r="F208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209">
-      <c r="B209" s="4"/>
-      <c r="F209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210">
-      <c r="B210" s="4"/>
-      <c r="F210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211">
-      <c r="B211" s="4"/>
-      <c r="F211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212">
-      <c r="B212" s="4"/>
-      <c r="F212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="F212" s="5"/>
     </row>
     <row r="213">
-      <c r="B213" s="4"/>
-      <c r="F213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214">
-      <c r="B214" s="4"/>
-      <c r="F214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215">
-      <c r="B215" s="4"/>
-      <c r="F215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="F215" s="5"/>
     </row>
     <row r="216">
-      <c r="B216" s="4"/>
-      <c r="F216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="F216" s="5"/>
     </row>
     <row r="217">
-      <c r="B217" s="4"/>
-      <c r="F217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218">
-      <c r="B218" s="4"/>
-      <c r="F218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219">
-      <c r="B219" s="4"/>
-      <c r="F219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="F219" s="5"/>
     </row>
     <row r="220">
-      <c r="B220" s="4"/>
-      <c r="F220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="F220" s="5"/>
     </row>
     <row r="221">
-      <c r="B221" s="4"/>
-      <c r="F221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222">
-      <c r="B222" s="4"/>
-      <c r="F222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223">
-      <c r="B223" s="4"/>
-      <c r="F223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="F223" s="5"/>
     </row>
     <row r="224">
-      <c r="B224" s="4"/>
-      <c r="F224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225">
-      <c r="B225" s="4"/>
-      <c r="F225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="F225" s="5"/>
     </row>
     <row r="226">
-      <c r="B226" s="4"/>
-      <c r="F226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="F226" s="5"/>
     </row>
     <row r="227">
-      <c r="B227" s="4"/>
-      <c r="F227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="F227" s="5"/>
     </row>
     <row r="228">
-      <c r="B228" s="4"/>
-      <c r="F228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229">
-      <c r="B229" s="4"/>
-      <c r="F229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230">
-      <c r="B230" s="4"/>
-      <c r="F230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231">
-      <c r="B231" s="4"/>
-      <c r="F231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="F231" s="5"/>
     </row>
     <row r="232">
-      <c r="B232" s="4"/>
-      <c r="F232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="F232" s="5"/>
     </row>
     <row r="233">
-      <c r="B233" s="4"/>
-      <c r="F233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="F233" s="5"/>
     </row>
     <row r="234">
-      <c r="B234" s="4"/>
-      <c r="F234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="F234" s="5"/>
     </row>
     <row r="235">
-      <c r="B235" s="4"/>
-      <c r="F235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="F235" s="5"/>
     </row>
     <row r="236">
-      <c r="B236" s="4"/>
-      <c r="F236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="F236" s="5"/>
     </row>
     <row r="237">
-      <c r="B237" s="4"/>
-      <c r="F237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238">
-      <c r="B238" s="4"/>
-      <c r="F238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="F238" s="5"/>
     </row>
     <row r="239">
-      <c r="B239" s="4"/>
-      <c r="F239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240">
-      <c r="B240" s="4"/>
-      <c r="F240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241">
-      <c r="B241" s="4"/>
-      <c r="F241" s="6"/>
+      <c r="B241" s="6"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242">
-      <c r="B242" s="4"/>
-      <c r="F242" s="6"/>
+      <c r="B242" s="6"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243">
-      <c r="B243" s="4"/>
-      <c r="F243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244">
-      <c r="B244" s="4"/>
-      <c r="F244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245">
-      <c r="B245" s="4"/>
-      <c r="F245" s="6"/>
+      <c r="B245" s="6"/>
+      <c r="F245" s="5"/>
     </row>
     <row r="246">
-      <c r="B246" s="4"/>
-      <c r="F246" s="6"/>
+      <c r="B246" s="6"/>
+      <c r="F246" s="5"/>
     </row>
     <row r="247">
-      <c r="B247" s="4"/>
-      <c r="F247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="F247" s="5"/>
     </row>
     <row r="248">
-      <c r="B248" s="4"/>
-      <c r="F248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="249">
-      <c r="B249" s="4"/>
-      <c r="F249" s="6"/>
+      <c r="B249" s="6"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250">
-      <c r="B250" s="4"/>
-      <c r="F250" s="6"/>
+      <c r="B250" s="6"/>
+      <c r="F250" s="5"/>
     </row>
     <row r="251">
-      <c r="B251" s="4"/>
-      <c r="F251" s="6"/>
+      <c r="B251" s="6"/>
+      <c r="F251" s="5"/>
     </row>
     <row r="252">
-      <c r="B252" s="4"/>
-      <c r="F252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="F252" s="5"/>
     </row>
     <row r="253">
-      <c r="B253" s="4"/>
-      <c r="F253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="F253" s="5"/>
     </row>
     <row r="254">
-      <c r="B254" s="4"/>
-      <c r="F254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="F254" s="5"/>
     </row>
     <row r="255">
-      <c r="B255" s="4"/>
-      <c r="F255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="F255" s="5"/>
     </row>
     <row r="256">
-      <c r="B256" s="4"/>
-      <c r="F256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257">
-      <c r="B257" s="4"/>
-      <c r="F257" s="6"/>
+      <c r="B257" s="6"/>
+      <c r="F257" s="5"/>
     </row>
     <row r="258">
-      <c r="B258" s="4"/>
-      <c r="F258" s="6"/>
+      <c r="B258" s="6"/>
+      <c r="F258" s="5"/>
     </row>
     <row r="259">
-      <c r="B259" s="4"/>
-      <c r="F259" s="6"/>
+      <c r="B259" s="6"/>
+      <c r="F259" s="5"/>
     </row>
     <row r="260">
-      <c r="B260" s="4"/>
-      <c r="F260" s="6"/>
+      <c r="B260" s="6"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261">
-      <c r="B261" s="4"/>
-      <c r="F261" s="6"/>
+      <c r="B261" s="6"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262">
-      <c r="B262" s="4"/>
-      <c r="F262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263">
-      <c r="B263" s="4"/>
-      <c r="F263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264">
-      <c r="B264" s="4"/>
-      <c r="F264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265">
-      <c r="B265" s="4"/>
-      <c r="F265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266">
-      <c r="B266" s="4"/>
-      <c r="F266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267">
-      <c r="B267" s="4"/>
-      <c r="F267" s="6"/>
+      <c r="B267" s="6"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268">
-      <c r="B268" s="4"/>
-      <c r="F268" s="6"/>
+      <c r="B268" s="6"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269">
-      <c r="B269" s="4"/>
-      <c r="F269" s="6"/>
+      <c r="B269" s="6"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270">
-      <c r="B270" s="4"/>
-      <c r="F270" s="6"/>
+      <c r="B270" s="6"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271">
-      <c r="B271" s="4"/>
-      <c r="F271" s="6"/>
+      <c r="B271" s="6"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272">
-      <c r="B272" s="4"/>
-      <c r="F272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273">
-      <c r="B273" s="4"/>
-      <c r="F273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274">
-      <c r="B274" s="4"/>
-      <c r="F274" s="6"/>
+      <c r="B274" s="6"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275">
-      <c r="B275" s="4"/>
-      <c r="F275" s="6"/>
+      <c r="B275" s="6"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276">
-      <c r="B276" s="4"/>
-      <c r="F276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277">
-      <c r="B277" s="4"/>
-      <c r="F277" s="6"/>
+      <c r="B277" s="6"/>
+      <c r="F277" s="5"/>
     </row>
     <row r="278">
-      <c r="B278" s="4"/>
-      <c r="F278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="F278" s="5"/>
     </row>
     <row r="279">
-      <c r="B279" s="4"/>
-      <c r="F279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="F279" s="5"/>
     </row>
     <row r="280">
-      <c r="B280" s="4"/>
-      <c r="F280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="F280" s="5"/>
     </row>
     <row r="281">
-      <c r="B281" s="4"/>
-      <c r="F281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="F281" s="5"/>
     </row>
     <row r="282">
-      <c r="B282" s="4"/>
-      <c r="F282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="F282" s="5"/>
     </row>
     <row r="283">
-      <c r="B283" s="4"/>
-      <c r="F283" s="6"/>
+      <c r="B283" s="6"/>
+      <c r="F283" s="5"/>
     </row>
     <row r="284">
-      <c r="B284" s="4"/>
-      <c r="F284" s="6"/>
+      <c r="B284" s="6"/>
+      <c r="F284" s="5"/>
     </row>
     <row r="285">
-      <c r="B285" s="4"/>
-      <c r="F285" s="6"/>
+      <c r="B285" s="6"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286">
-      <c r="B286" s="4"/>
-      <c r="F286" s="6"/>
+      <c r="B286" s="6"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287">
-      <c r="B287" s="4"/>
-      <c r="F287" s="6"/>
+      <c r="B287" s="6"/>
+      <c r="F287" s="5"/>
     </row>
     <row r="288">
-      <c r="B288" s="4"/>
-      <c r="F288" s="6"/>
+      <c r="B288" s="6"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289">
-      <c r="B289" s="4"/>
-      <c r="F289" s="6"/>
+      <c r="B289" s="6"/>
+      <c r="F289" s="5"/>
     </row>
     <row r="290">
-      <c r="B290" s="4"/>
-      <c r="F290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291">
-      <c r="B291" s="4"/>
-      <c r="F291" s="6"/>
+      <c r="B291" s="6"/>
+      <c r="F291" s="5"/>
     </row>
     <row r="292">
-      <c r="B292" s="4"/>
-      <c r="F292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="F292" s="5"/>
     </row>
     <row r="293">
-      <c r="B293" s="4"/>
-      <c r="F293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="F293" s="5"/>
     </row>
     <row r="294">
-      <c r="B294" s="4"/>
-      <c r="F294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="F294" s="5"/>
     </row>
     <row r="295">
-      <c r="B295" s="4"/>
-      <c r="F295" s="6"/>
+      <c r="B295" s="6"/>
+      <c r="F295" s="5"/>
     </row>
     <row r="296">
-      <c r="B296" s="4"/>
-      <c r="F296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297">
-      <c r="B297" s="4"/>
-      <c r="F297" s="6"/>
+      <c r="B297" s="6"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298">
-      <c r="B298" s="4"/>
-      <c r="F298" s="6"/>
+      <c r="B298" s="6"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299">
-      <c r="B299" s="4"/>
-      <c r="F299" s="6"/>
+      <c r="B299" s="6"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300">
-      <c r="B300" s="4"/>
-      <c r="F300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301">
-      <c r="B301" s="4"/>
-      <c r="F301" s="6"/>
+      <c r="B301" s="6"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302">
-      <c r="B302" s="4"/>
-      <c r="F302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="F302" s="5"/>
     </row>
     <row r="303">
-      <c r="B303" s="4"/>
-      <c r="F303" s="6"/>
+      <c r="B303" s="6"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304">
-      <c r="B304" s="4"/>
-      <c r="F304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="F304" s="5"/>
     </row>
     <row r="305">
-      <c r="B305" s="4"/>
-      <c r="F305" s="6"/>
+      <c r="B305" s="6"/>
+      <c r="F305" s="5"/>
     </row>
     <row r="306">
-      <c r="B306" s="4"/>
-      <c r="F306" s="6"/>
+      <c r="B306" s="6"/>
+      <c r="F306" s="5"/>
     </row>
     <row r="307">
-      <c r="B307" s="4"/>
-      <c r="F307" s="6"/>
+      <c r="B307" s="6"/>
+      <c r="F307" s="5"/>
     </row>
     <row r="308">
-      <c r="B308" s="4"/>
-      <c r="F308" s="6"/>
+      <c r="B308" s="6"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309">
-      <c r="B309" s="4"/>
-      <c r="F309" s="6"/>
+      <c r="B309" s="6"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310">
-      <c r="B310" s="4"/>
-      <c r="F310" s="6"/>
+      <c r="B310" s="6"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311">
-      <c r="B311" s="4"/>
-      <c r="F311" s="6"/>
+      <c r="B311" s="6"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312">
-      <c r="B312" s="4"/>
-      <c r="F312" s="6"/>
+      <c r="B312" s="6"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313">
-      <c r="B313" s="4"/>
-      <c r="F313" s="6"/>
+      <c r="B313" s="6"/>
+      <c r="F313" s="5"/>
     </row>
     <row r="314">
-      <c r="B314" s="4"/>
-      <c r="F314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="F314" s="5"/>
     </row>
     <row r="315">
-      <c r="B315" s="4"/>
-      <c r="F315" s="6"/>
+      <c r="B315" s="6"/>
+      <c r="F315" s="5"/>
     </row>
     <row r="316">
-      <c r="B316" s="4"/>
-      <c r="F316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="F316" s="5"/>
     </row>
     <row r="317">
-      <c r="B317" s="4"/>
-      <c r="F317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="F317" s="5"/>
     </row>
     <row r="318">
-      <c r="B318" s="4"/>
-      <c r="F318" s="6"/>
+      <c r="B318" s="6"/>
+      <c r="F318" s="5"/>
     </row>
     <row r="319">
-      <c r="B319" s="4"/>
-      <c r="F319" s="6"/>
+      <c r="B319" s="6"/>
+      <c r="F319" s="5"/>
     </row>
     <row r="320">
-      <c r="B320" s="4"/>
-      <c r="F320" s="6"/>
+      <c r="B320" s="6"/>
+      <c r="F320" s="5"/>
     </row>
     <row r="321">
-      <c r="B321" s="4"/>
-      <c r="F321" s="6"/>
+      <c r="B321" s="6"/>
+      <c r="F321" s="5"/>
     </row>
     <row r="322">
-      <c r="B322" s="4"/>
-      <c r="F322" s="6"/>
+      <c r="B322" s="6"/>
+      <c r="F322" s="5"/>
     </row>
     <row r="323">
-      <c r="B323" s="4"/>
-      <c r="F323" s="6"/>
+      <c r="B323" s="6"/>
+      <c r="F323" s="5"/>
     </row>
     <row r="324">
-      <c r="B324" s="4"/>
-      <c r="F324" s="6"/>
+      <c r="B324" s="6"/>
+      <c r="F324" s="5"/>
     </row>
     <row r="325">
-      <c r="B325" s="4"/>
-      <c r="F325" s="6"/>
+      <c r="B325" s="6"/>
+      <c r="F325" s="5"/>
     </row>
     <row r="326">
-      <c r="B326" s="4"/>
-      <c r="F326" s="6"/>
+      <c r="B326" s="6"/>
+      <c r="F326" s="5"/>
     </row>
     <row r="327">
-      <c r="B327" s="4"/>
-      <c r="F327" s="6"/>
+      <c r="B327" s="6"/>
+      <c r="F327" s="5"/>
     </row>
     <row r="328">
-      <c r="B328" s="4"/>
-      <c r="F328" s="6"/>
+      <c r="B328" s="6"/>
+      <c r="F328" s="5"/>
     </row>
     <row r="329">
-      <c r="B329" s="4"/>
-      <c r="F329" s="6"/>
+      <c r="B329" s="6"/>
+      <c r="F329" s="5"/>
     </row>
     <row r="330">
-      <c r="B330" s="4"/>
-      <c r="F330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="F330" s="5"/>
     </row>
     <row r="331">
-      <c r="B331" s="4"/>
-      <c r="F331" s="6"/>
+      <c r="B331" s="6"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332">
-      <c r="B332" s="4"/>
-      <c r="F332" s="6"/>
+      <c r="B332" s="6"/>
+      <c r="F332" s="5"/>
     </row>
     <row r="333">
-      <c r="B333" s="4"/>
-      <c r="F333" s="6"/>
+      <c r="B333" s="6"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334">
-      <c r="B334" s="4"/>
-      <c r="F334" s="6"/>
+      <c r="B334" s="6"/>
+      <c r="F334" s="5"/>
     </row>
     <row r="335">
-      <c r="B335" s="4"/>
-      <c r="F335" s="6"/>
+      <c r="B335" s="6"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336">
-      <c r="B336" s="4"/>
-      <c r="F336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="F336" s="5"/>
     </row>
     <row r="337">
-      <c r="B337" s="4"/>
-      <c r="F337" s="6"/>
+      <c r="B337" s="6"/>
+      <c r="F337" s="5"/>
     </row>
     <row r="338">
-      <c r="B338" s="4"/>
-      <c r="F338" s="6"/>
+      <c r="B338" s="6"/>
+      <c r="F338" s="5"/>
     </row>
     <row r="339">
-      <c r="B339" s="4"/>
-      <c r="F339" s="6"/>
+      <c r="B339" s="6"/>
+      <c r="F339" s="5"/>
     </row>
     <row r="340">
-      <c r="B340" s="4"/>
-      <c r="F340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="341">
-      <c r="B341" s="4"/>
-      <c r="F341" s="6"/>
+      <c r="B341" s="6"/>
+      <c r="F341" s="5"/>
     </row>
     <row r="342">
-      <c r="B342" s="4"/>
-      <c r="F342" s="6"/>
+      <c r="B342" s="6"/>
+      <c r="F342" s="5"/>
     </row>
     <row r="343">
-      <c r="B343" s="4"/>
-      <c r="F343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="F343" s="5"/>
     </row>
     <row r="344">
-      <c r="B344" s="4"/>
-      <c r="F344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="F344" s="5"/>
     </row>
     <row r="345">
-      <c r="B345" s="4"/>
-      <c r="F345" s="6"/>
+      <c r="B345" s="6"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346">
-      <c r="B346" s="4"/>
-      <c r="F346" s="6"/>
+      <c r="B346" s="6"/>
+      <c r="F346" s="5"/>
     </row>
     <row r="347">
-      <c r="B347" s="4"/>
-      <c r="F347" s="6"/>
+      <c r="B347" s="6"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="348">
-      <c r="B348" s="4"/>
-      <c r="F348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="F348" s="5"/>
     </row>
     <row r="349">
-      <c r="B349" s="4"/>
-      <c r="F349" s="6"/>
+      <c r="B349" s="6"/>
+      <c r="F349" s="5"/>
     </row>
     <row r="350">
-      <c r="B350" s="4"/>
-      <c r="F350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="F350" s="5"/>
     </row>
     <row r="351">
-      <c r="B351" s="4"/>
-      <c r="F351" s="6"/>
+      <c r="B351" s="6"/>
+      <c r="F351" s="5"/>
     </row>
     <row r="352">
-      <c r="B352" s="4"/>
-      <c r="F352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="F352" s="5"/>
     </row>
     <row r="353">
-      <c r="B353" s="4"/>
-      <c r="F353" s="6"/>
+      <c r="B353" s="6"/>
+      <c r="F353" s="5"/>
     </row>
     <row r="354">
-      <c r="B354" s="4"/>
-      <c r="F354" s="6"/>
+      <c r="B354" s="6"/>
+      <c r="F354" s="5"/>
     </row>
     <row r="355">
-      <c r="B355" s="4"/>
-      <c r="F355" s="6"/>
+      <c r="B355" s="6"/>
+      <c r="F355" s="5"/>
     </row>
     <row r="356">
-      <c r="B356" s="4"/>
-      <c r="F356" s="6"/>
+      <c r="B356" s="6"/>
+      <c r="F356" s="5"/>
     </row>
     <row r="357">
-      <c r="B357" s="4"/>
-      <c r="F357" s="6"/>
+      <c r="B357" s="6"/>
+      <c r="F357" s="5"/>
     </row>
     <row r="358">
-      <c r="B358" s="4"/>
-      <c r="F358" s="6"/>
+      <c r="B358" s="6"/>
+      <c r="F358" s="5"/>
     </row>
     <row r="359">
-      <c r="B359" s="4"/>
-      <c r="F359" s="6"/>
+      <c r="B359" s="6"/>
+      <c r="F359" s="5"/>
     </row>
     <row r="360">
-      <c r="B360" s="4"/>
-      <c r="F360" s="6"/>
+      <c r="B360" s="6"/>
+      <c r="F360" s="5"/>
     </row>
     <row r="361">
-      <c r="B361" s="4"/>
-      <c r="F361" s="6"/>
+      <c r="B361" s="6"/>
+      <c r="F361" s="5"/>
     </row>
     <row r="362">
-      <c r="B362" s="4"/>
-      <c r="F362" s="6"/>
+      <c r="B362" s="6"/>
+      <c r="F362" s="5"/>
     </row>
     <row r="363">
-      <c r="B363" s="4"/>
-      <c r="F363" s="6"/>
+      <c r="B363" s="6"/>
+      <c r="F363" s="5"/>
     </row>
     <row r="364">
-      <c r="B364" s="4"/>
-      <c r="F364" s="6"/>
+      <c r="B364" s="6"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365">
-      <c r="B365" s="4"/>
-      <c r="F365" s="6"/>
+      <c r="B365" s="6"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366">
-      <c r="B366" s="4"/>
-      <c r="F366" s="6"/>
+      <c r="B366" s="6"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367">
-      <c r="B367" s="4"/>
-      <c r="F367" s="6"/>
+      <c r="B367" s="6"/>
+      <c r="F367" s="5"/>
     </row>
     <row r="368">
-      <c r="B368" s="4"/>
-      <c r="F368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369">
-      <c r="B369" s="4"/>
-      <c r="F369" s="6"/>
+      <c r="B369" s="6"/>
+      <c r="F369" s="5"/>
     </row>
     <row r="370">
-      <c r="B370" s="4"/>
-      <c r="F370" s="6"/>
+      <c r="B370" s="6"/>
+      <c r="F370" s="5"/>
     </row>
     <row r="371">
-      <c r="B371" s="4"/>
-      <c r="F371" s="6"/>
+      <c r="B371" s="6"/>
+      <c r="F371" s="5"/>
     </row>
     <row r="372">
-      <c r="B372" s="4"/>
-      <c r="F372" s="6"/>
+      <c r="B372" s="6"/>
+      <c r="F372" s="5"/>
     </row>
     <row r="373">
-      <c r="B373" s="4"/>
-      <c r="F373" s="6"/>
+      <c r="B373" s="6"/>
+      <c r="F373" s="5"/>
     </row>
     <row r="374">
-      <c r="B374" s="4"/>
-      <c r="F374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="F374" s="5"/>
     </row>
     <row r="375">
-      <c r="B375" s="4"/>
-      <c r="F375" s="6"/>
+      <c r="B375" s="6"/>
+      <c r="F375" s="5"/>
     </row>
     <row r="376">
-      <c r="B376" s="4"/>
-      <c r="F376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377">
-      <c r="B377" s="4"/>
-      <c r="F377" s="6"/>
+      <c r="B377" s="6"/>
+      <c r="F377" s="5"/>
     </row>
     <row r="378">
-      <c r="B378" s="4"/>
-      <c r="F378" s="6"/>
+      <c r="B378" s="6"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379">
-      <c r="B379" s="4"/>
-      <c r="F379" s="6"/>
+      <c r="B379" s="6"/>
+      <c r="F379" s="5"/>
     </row>
     <row r="380">
-      <c r="B380" s="4"/>
-      <c r="F380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381">
-      <c r="B381" s="4"/>
-      <c r="F381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="F381" s="5"/>
     </row>
     <row r="382">
-      <c r="B382" s="4"/>
-      <c r="F382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="F382" s="5"/>
     </row>
     <row r="383">
-      <c r="B383" s="4"/>
-      <c r="F383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="F383" s="5"/>
     </row>
     <row r="384">
-      <c r="B384" s="4"/>
-      <c r="F384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385">
-      <c r="B385" s="4"/>
-      <c r="F385" s="6"/>
+      <c r="B385" s="6"/>
+      <c r="F385" s="5"/>
     </row>
     <row r="386">
-      <c r="B386" s="4"/>
-      <c r="F386" s="6"/>
+      <c r="B386" s="6"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387">
-      <c r="B387" s="4"/>
-      <c r="F387" s="6"/>
+      <c r="B387" s="6"/>
+      <c r="F387" s="5"/>
     </row>
     <row r="388">
-      <c r="B388" s="4"/>
-      <c r="F388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389">
-      <c r="B389" s="4"/>
-      <c r="F389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="F389" s="5"/>
     </row>
     <row r="390">
-      <c r="B390" s="4"/>
-      <c r="F390" s="6"/>
+      <c r="B390" s="6"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391">
-      <c r="B391" s="4"/>
-      <c r="F391" s="6"/>
+      <c r="B391" s="6"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392">
-      <c r="B392" s="4"/>
-      <c r="F392" s="6"/>
+      <c r="B392" s="6"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393">
-      <c r="B393" s="4"/>
-      <c r="F393" s="6"/>
+      <c r="B393" s="6"/>
+      <c r="F393" s="5"/>
     </row>
     <row r="394">
-      <c r="B394" s="4"/>
-      <c r="F394" s="6"/>
+      <c r="B394" s="6"/>
+      <c r="F394" s="5"/>
     </row>
     <row r="395">
-      <c r="B395" s="4"/>
-      <c r="F395" s="6"/>
+      <c r="B395" s="6"/>
+      <c r="F395" s="5"/>
     </row>
     <row r="396">
-      <c r="B396" s="4"/>
-      <c r="F396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="F396" s="5"/>
     </row>
     <row r="397">
-      <c r="B397" s="4"/>
-      <c r="F397" s="6"/>
+      <c r="B397" s="6"/>
+      <c r="F397" s="5"/>
     </row>
     <row r="398">
-      <c r="B398" s="4"/>
-      <c r="F398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399">
-      <c r="B399" s="4"/>
-      <c r="F399" s="6"/>
+      <c r="B399" s="6"/>
+      <c r="F399" s="5"/>
     </row>
     <row r="400">
-      <c r="B400" s="4"/>
-      <c r="F400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401">
-      <c r="B401" s="4"/>
-      <c r="F401" s="6"/>
+      <c r="B401" s="6"/>
+      <c r="F401" s="5"/>
     </row>
     <row r="402">
-      <c r="B402" s="4"/>
-      <c r="F402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403">
-      <c r="B403" s="4"/>
-      <c r="F403" s="6"/>
+      <c r="B403" s="6"/>
+      <c r="F403" s="5"/>
     </row>
     <row r="404">
-      <c r="B404" s="4"/>
-      <c r="F404" s="6"/>
+      <c r="B404" s="6"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405">
-      <c r="B405" s="4"/>
-      <c r="F405" s="6"/>
+      <c r="B405" s="6"/>
+      <c r="F405" s="5"/>
     </row>
     <row r="406">
-      <c r="B406" s="4"/>
-      <c r="F406" s="6"/>
+      <c r="B406" s="6"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407">
-      <c r="B407" s="4"/>
-      <c r="F407" s="6"/>
+      <c r="B407" s="6"/>
+      <c r="F407" s="5"/>
     </row>
     <row r="408">
-      <c r="B408" s="4"/>
-      <c r="F408" s="6"/>
+      <c r="B408" s="6"/>
+      <c r="F408" s="5"/>
     </row>
     <row r="409">
-      <c r="B409" s="4"/>
-      <c r="F409" s="6"/>
+      <c r="B409" s="6"/>
+      <c r="F409" s="5"/>
     </row>
     <row r="410">
-      <c r="B410" s="4"/>
-      <c r="F410" s="6"/>
+      <c r="B410" s="6"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411">
-      <c r="B411" s="4"/>
-      <c r="F411" s="6"/>
+      <c r="B411" s="6"/>
+      <c r="F411" s="5"/>
     </row>
     <row r="412">
-      <c r="B412" s="4"/>
-      <c r="F412" s="6"/>
+      <c r="B412" s="6"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413">
-      <c r="B413" s="4"/>
-      <c r="F413" s="6"/>
+      <c r="B413" s="6"/>
+      <c r="F413" s="5"/>
     </row>
     <row r="414">
-      <c r="B414" s="4"/>
-      <c r="F414" s="6"/>
+      <c r="B414" s="6"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415">
-      <c r="B415" s="4"/>
-      <c r="F415" s="6"/>
+      <c r="B415" s="6"/>
+      <c r="F415" s="5"/>
     </row>
     <row r="416">
-      <c r="B416" s="4"/>
-      <c r="F416" s="6"/>
+      <c r="B416" s="6"/>
+      <c r="F416" s="5"/>
     </row>
     <row r="417">
-      <c r="B417" s="4"/>
-      <c r="F417" s="6"/>
+      <c r="B417" s="6"/>
+      <c r="F417" s="5"/>
     </row>
     <row r="418">
-      <c r="B418" s="4"/>
-      <c r="F418" s="6"/>
+      <c r="B418" s="6"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419">
-      <c r="B419" s="4"/>
-      <c r="F419" s="6"/>
+      <c r="B419" s="6"/>
+      <c r="F419" s="5"/>
     </row>
     <row r="420">
-      <c r="B420" s="4"/>
-      <c r="F420" s="6"/>
+      <c r="B420" s="6"/>
+      <c r="F420" s="5"/>
     </row>
     <row r="421">
-      <c r="B421" s="4"/>
-      <c r="F421" s="6"/>
+      <c r="B421" s="6"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422">
-      <c r="B422" s="4"/>
-      <c r="F422" s="6"/>
+      <c r="B422" s="6"/>
+      <c r="F422" s="5"/>
     </row>
     <row r="423">
-      <c r="B423" s="4"/>
-      <c r="F423" s="6"/>
+      <c r="B423" s="6"/>
+      <c r="F423" s="5"/>
     </row>
     <row r="424">
-      <c r="B424" s="4"/>
-      <c r="F424" s="6"/>
+      <c r="B424" s="6"/>
+      <c r="F424" s="5"/>
     </row>
     <row r="425">
-      <c r="B425" s="4"/>
-      <c r="F425" s="6"/>
+      <c r="B425" s="6"/>
+      <c r="F425" s="5"/>
     </row>
     <row r="426">
-      <c r="B426" s="4"/>
-      <c r="F426" s="6"/>
+      <c r="B426" s="6"/>
+      <c r="F426" s="5"/>
     </row>
     <row r="427">
-      <c r="B427" s="4"/>
-      <c r="F427" s="6"/>
+      <c r="B427" s="6"/>
+      <c r="F427" s="5"/>
     </row>
     <row r="428">
-      <c r="B428" s="4"/>
-      <c r="F428" s="6"/>
+      <c r="B428" s="6"/>
+      <c r="F428" s="5"/>
     </row>
     <row r="429">
-      <c r="B429" s="4"/>
-      <c r="F429" s="6"/>
+      <c r="B429" s="6"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430">
-      <c r="B430" s="4"/>
-      <c r="F430" s="6"/>
+      <c r="B430" s="6"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431">
-      <c r="B431" s="4"/>
-      <c r="F431" s="6"/>
+      <c r="B431" s="6"/>
+      <c r="F431" s="5"/>
     </row>
     <row r="432">
-      <c r="B432" s="4"/>
-      <c r="F432" s="6"/>
+      <c r="B432" s="6"/>
+      <c r="F432" s="5"/>
     </row>
     <row r="433">
-      <c r="B433" s="4"/>
-      <c r="F433" s="6"/>
+      <c r="B433" s="6"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434">
-      <c r="B434" s="4"/>
-      <c r="F434" s="6"/>
+      <c r="B434" s="6"/>
+      <c r="F434" s="5"/>
     </row>
     <row r="435">
-      <c r="B435" s="4"/>
-      <c r="F435" s="6"/>
+      <c r="B435" s="6"/>
+      <c r="F435" s="5"/>
     </row>
     <row r="436">
-      <c r="B436" s="4"/>
-      <c r="F436" s="6"/>
+      <c r="B436" s="6"/>
+      <c r="F436" s="5"/>
     </row>
     <row r="437">
-      <c r="B437" s="4"/>
-      <c r="F437" s="6"/>
+      <c r="B437" s="6"/>
+      <c r="F437" s="5"/>
     </row>
     <row r="438">
-      <c r="B438" s="4"/>
-      <c r="F438" s="6"/>
+      <c r="B438" s="6"/>
+      <c r="F438" s="5"/>
     </row>
     <row r="439">
-      <c r="B439" s="4"/>
-      <c r="F439" s="6"/>
+      <c r="B439" s="6"/>
+      <c r="F439" s="5"/>
     </row>
     <row r="440">
-      <c r="B440" s="4"/>
-      <c r="F440" s="6"/>
+      <c r="B440" s="6"/>
+      <c r="F440" s="5"/>
     </row>
     <row r="441">
-      <c r="B441" s="4"/>
-      <c r="F441" s="6"/>
+      <c r="B441" s="6"/>
+      <c r="F441" s="5"/>
     </row>
     <row r="442">
-      <c r="B442" s="4"/>
-      <c r="F442" s="6"/>
+      <c r="B442" s="6"/>
+      <c r="F442" s="5"/>
     </row>
     <row r="443">
-      <c r="B443" s="4"/>
-      <c r="F443" s="6"/>
+      <c r="B443" s="6"/>
+      <c r="F443" s="5"/>
     </row>
     <row r="444">
-      <c r="B444" s="4"/>
-      <c r="F444" s="6"/>
+      <c r="B444" s="6"/>
+      <c r="F444" s="5"/>
     </row>
     <row r="445">
-      <c r="B445" s="4"/>
-      <c r="F445" s="6"/>
+      <c r="B445" s="6"/>
+      <c r="F445" s="5"/>
     </row>
     <row r="446">
-      <c r="B446" s="4"/>
-      <c r="F446" s="6"/>
+      <c r="B446" s="6"/>
+      <c r="F446" s="5"/>
     </row>
     <row r="447">
-      <c r="B447" s="4"/>
-      <c r="F447" s="6"/>
+      <c r="B447" s="6"/>
+      <c r="F447" s="5"/>
     </row>
     <row r="448">
-      <c r="B448" s="4"/>
-      <c r="F448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="F448" s="5"/>
     </row>
     <row r="449">
-      <c r="B449" s="4"/>
-      <c r="F449" s="6"/>
+      <c r="B449" s="6"/>
+      <c r="F449" s="5"/>
     </row>
     <row r="450">
-      <c r="B450" s="4"/>
-      <c r="F450" s="6"/>
+      <c r="B450" s="6"/>
+      <c r="F450" s="5"/>
     </row>
     <row r="451">
-      <c r="B451" s="4"/>
-      <c r="F451" s="6"/>
+      <c r="B451" s="6"/>
+      <c r="F451" s="5"/>
     </row>
     <row r="452">
-      <c r="B452" s="4"/>
-      <c r="F452" s="6"/>
+      <c r="B452" s="6"/>
+      <c r="F452" s="5"/>
     </row>
     <row r="453">
-      <c r="B453" s="4"/>
-      <c r="F453" s="6"/>
+      <c r="B453" s="6"/>
+      <c r="F453" s="5"/>
     </row>
     <row r="454">
-      <c r="B454" s="4"/>
-      <c r="F454" s="6"/>
+      <c r="B454" s="6"/>
+      <c r="F454" s="5"/>
     </row>
     <row r="455">
-      <c r="B455" s="4"/>
-      <c r="F455" s="6"/>
+      <c r="B455" s="6"/>
+      <c r="F455" s="5"/>
     </row>
     <row r="456">
-      <c r="B456" s="4"/>
-      <c r="F456" s="6"/>
+      <c r="B456" s="6"/>
+      <c r="F456" s="5"/>
     </row>
     <row r="457">
-      <c r="B457" s="4"/>
-      <c r="F457" s="6"/>
+      <c r="B457" s="6"/>
+      <c r="F457" s="5"/>
     </row>
     <row r="458">
-      <c r="B458" s="4"/>
-      <c r="F458" s="6"/>
+      <c r="B458" s="6"/>
+      <c r="F458" s="5"/>
     </row>
     <row r="459">
-      <c r="B459" s="4"/>
-      <c r="F459" s="6"/>
+      <c r="B459" s="6"/>
+      <c r="F459" s="5"/>
     </row>
     <row r="460">
-      <c r="B460" s="4"/>
-      <c r="F460" s="6"/>
+      <c r="B460" s="6"/>
+      <c r="F460" s="5"/>
     </row>
     <row r="461">
-      <c r="B461" s="4"/>
-      <c r="F461" s="6"/>
+      <c r="B461" s="6"/>
+      <c r="F461" s="5"/>
     </row>
     <row r="462">
-      <c r="B462" s="4"/>
-      <c r="F462" s="6"/>
+      <c r="B462" s="6"/>
+      <c r="F462" s="5"/>
     </row>
     <row r="463">
-      <c r="B463" s="4"/>
-      <c r="F463" s="6"/>
+      <c r="B463" s="6"/>
+      <c r="F463" s="5"/>
     </row>
     <row r="464">
-      <c r="B464" s="4"/>
-      <c r="F464" s="6"/>
+      <c r="B464" s="6"/>
+      <c r="F464" s="5"/>
     </row>
     <row r="465">
-      <c r="B465" s="4"/>
-      <c r="F465" s="6"/>
+      <c r="B465" s="6"/>
+      <c r="F465" s="5"/>
     </row>
     <row r="466">
-      <c r="B466" s="4"/>
-      <c r="F466" s="6"/>
+      <c r="B466" s="6"/>
+      <c r="F466" s="5"/>
     </row>
     <row r="467">
-      <c r="B467" s="4"/>
-      <c r="F467" s="6"/>
+      <c r="B467" s="6"/>
+      <c r="F467" s="5"/>
     </row>
     <row r="468">
-      <c r="B468" s="4"/>
-      <c r="F468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="F468" s="5"/>
     </row>
     <row r="469">
-      <c r="B469" s="4"/>
-      <c r="F469" s="6"/>
+      <c r="B469" s="6"/>
+      <c r="F469" s="5"/>
     </row>
     <row r="470">
-      <c r="B470" s="4"/>
-      <c r="F470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="F470" s="5"/>
     </row>
     <row r="471">
-      <c r="B471" s="4"/>
-      <c r="F471" s="6"/>
+      <c r="B471" s="6"/>
+      <c r="F471" s="5"/>
     </row>
     <row r="472">
-      <c r="B472" s="4"/>
-      <c r="F472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="F472" s="5"/>
     </row>
     <row r="473">
-      <c r="B473" s="4"/>
-      <c r="F473" s="6"/>
+      <c r="B473" s="6"/>
+      <c r="F473" s="5"/>
     </row>
     <row r="474">
-      <c r="B474" s="4"/>
-      <c r="F474" s="6"/>
+      <c r="B474" s="6"/>
+      <c r="F474" s="5"/>
     </row>
     <row r="475">
-      <c r="B475" s="4"/>
-      <c r="F475" s="6"/>
+      <c r="B475" s="6"/>
+      <c r="F475" s="5"/>
     </row>
     <row r="476">
-      <c r="B476" s="4"/>
-      <c r="F476" s="6"/>
+      <c r="B476" s="6"/>
+      <c r="F476" s="5"/>
     </row>
     <row r="477">
-      <c r="B477" s="4"/>
-      <c r="F477" s="6"/>
+      <c r="B477" s="6"/>
+      <c r="F477" s="5"/>
     </row>
     <row r="478">
-      <c r="B478" s="4"/>
-      <c r="F478" s="6"/>
+      <c r="B478" s="6"/>
+      <c r="F478" s="5"/>
     </row>
     <row r="479">
-      <c r="B479" s="4"/>
-      <c r="F479" s="6"/>
+      <c r="B479" s="6"/>
+      <c r="F479" s="5"/>
     </row>
     <row r="480">
-      <c r="B480" s="4"/>
-      <c r="F480" s="6"/>
+      <c r="B480" s="6"/>
+      <c r="F480" s="5"/>
     </row>
     <row r="481">
-      <c r="B481" s="4"/>
-      <c r="F481" s="6"/>
+      <c r="B481" s="6"/>
+      <c r="F481" s="5"/>
     </row>
     <row r="482">
-      <c r="B482" s="4"/>
-      <c r="F482" s="6"/>
+      <c r="B482" s="6"/>
+      <c r="F482" s="5"/>
     </row>
     <row r="483">
-      <c r="B483" s="4"/>
-      <c r="F483" s="6"/>
+      <c r="B483" s="6"/>
+      <c r="F483" s="5"/>
     </row>
     <row r="484">
-      <c r="B484" s="4"/>
-      <c r="F484" s="6"/>
+      <c r="B484" s="6"/>
+      <c r="F484" s="5"/>
     </row>
     <row r="485">
-      <c r="B485" s="4"/>
-      <c r="F485" s="6"/>
+      <c r="B485" s="6"/>
+      <c r="F485" s="5"/>
     </row>
     <row r="486">
-      <c r="B486" s="4"/>
-      <c r="F486" s="6"/>
+      <c r="B486" s="6"/>
+      <c r="F486" s="5"/>
     </row>
     <row r="487">
-      <c r="B487" s="4"/>
-      <c r="F487" s="6"/>
+      <c r="B487" s="6"/>
+      <c r="F487" s="5"/>
     </row>
     <row r="488">
-      <c r="B488" s="4"/>
-      <c r="F488" s="6"/>
+      <c r="B488" s="6"/>
+      <c r="F488" s="5"/>
     </row>
     <row r="489">
-      <c r="B489" s="4"/>
-      <c r="F489" s="6"/>
+      <c r="B489" s="6"/>
+      <c r="F489" s="5"/>
     </row>
     <row r="490">
-      <c r="B490" s="4"/>
-      <c r="F490" s="6"/>
+      <c r="B490" s="6"/>
+      <c r="F490" s="5"/>
     </row>
     <row r="491">
-      <c r="B491" s="4"/>
-      <c r="F491" s="6"/>
+      <c r="B491" s="6"/>
+      <c r="F491" s="5"/>
     </row>
     <row r="492">
-      <c r="B492" s="4"/>
-      <c r="F492" s="6"/>
+      <c r="B492" s="6"/>
+      <c r="F492" s="5"/>
     </row>
     <row r="493">
-      <c r="B493" s="4"/>
-      <c r="F493" s="6"/>
+      <c r="B493" s="6"/>
+      <c r="F493" s="5"/>
     </row>
     <row r="494">
-      <c r="B494" s="4"/>
-      <c r="F494" s="6"/>
+      <c r="B494" s="6"/>
+      <c r="F494" s="5"/>
     </row>
     <row r="495">
-      <c r="B495" s="4"/>
-      <c r="F495" s="6"/>
+      <c r="B495" s="6"/>
+      <c r="F495" s="5"/>
     </row>
     <row r="496">
-      <c r="B496" s="4"/>
-      <c r="F496" s="6"/>
+      <c r="B496" s="6"/>
+      <c r="F496" s="5"/>
     </row>
     <row r="497">
-      <c r="B497" s="4"/>
-      <c r="F497" s="6"/>
+      <c r="B497" s="6"/>
+      <c r="F497" s="5"/>
     </row>
     <row r="498">
-      <c r="B498" s="4"/>
-      <c r="F498" s="6"/>
+      <c r="B498" s="6"/>
+      <c r="F498" s="5"/>
     </row>
     <row r="499">
-      <c r="B499" s="4"/>
-      <c r="F499" s="6"/>
+      <c r="B499" s="6"/>
+      <c r="F499" s="5"/>
     </row>
     <row r="500">
-      <c r="B500" s="4"/>
-      <c r="F500" s="6"/>
+      <c r="B500" s="6"/>
+      <c r="F500" s="5"/>
     </row>
     <row r="501">
-      <c r="B501" s="4"/>
-      <c r="F501" s="6"/>
+      <c r="B501" s="6"/>
+      <c r="F501" s="5"/>
     </row>
     <row r="502">
-      <c r="B502" s="4"/>
-      <c r="F502" s="6"/>
+      <c r="B502" s="6"/>
+      <c r="F502" s="5"/>
     </row>
     <row r="503">
-      <c r="B503" s="4"/>
-      <c r="F503" s="6"/>
+      <c r="B503" s="6"/>
+      <c r="F503" s="5"/>
     </row>
     <row r="504">
-      <c r="B504" s="4"/>
-      <c r="F504" s="6"/>
+      <c r="B504" s="6"/>
+      <c r="F504" s="5"/>
     </row>
     <row r="505">
-      <c r="B505" s="4"/>
-      <c r="F505" s="6"/>
+      <c r="B505" s="6"/>
+      <c r="F505" s="5"/>
     </row>
     <row r="506">
-      <c r="B506" s="4"/>
-      <c r="F506" s="6"/>
+      <c r="B506" s="6"/>
+      <c r="F506" s="5"/>
     </row>
     <row r="507">
-      <c r="B507" s="4"/>
-      <c r="F507" s="6"/>
+      <c r="B507" s="6"/>
+      <c r="F507" s="5"/>
     </row>
     <row r="508">
-      <c r="B508" s="4"/>
-      <c r="F508" s="6"/>
+      <c r="B508" s="6"/>
+      <c r="F508" s="5"/>
     </row>
     <row r="509">
-      <c r="B509" s="4"/>
-      <c r="F509" s="6"/>
+      <c r="B509" s="6"/>
+      <c r="F509" s="5"/>
     </row>
     <row r="510">
-      <c r="B510" s="4"/>
-      <c r="F510" s="6"/>
+      <c r="B510" s="6"/>
+      <c r="F510" s="5"/>
     </row>
     <row r="511">
-      <c r="B511" s="4"/>
-      <c r="F511" s="6"/>
+      <c r="B511" s="6"/>
+      <c r="F511" s="5"/>
     </row>
     <row r="512">
-      <c r="B512" s="4"/>
+      <c r="B512" s="6"/>
     </row>
     <row r="513">
-      <c r="B513" s="4"/>
+      <c r="B513" s="6"/>
     </row>
     <row r="514">
-      <c r="B514" s="4"/>
+      <c r="B514" s="6"/>
     </row>
     <row r="515">
-      <c r="B515" s="4"/>
+      <c r="B515" s="6"/>
     </row>
     <row r="516">
-      <c r="B516" s="4"/>
+      <c r="B516" s="6"/>
     </row>
     <row r="517">
-      <c r="B517" s="4"/>
+      <c r="B517" s="6"/>
     </row>
     <row r="518">
-      <c r="B518" s="4"/>
+      <c r="B518" s="6"/>
     </row>
     <row r="519">
-      <c r="B519" s="4"/>
+      <c r="B519" s="6"/>
     </row>
     <row r="520">
-      <c r="B520" s="4"/>
+      <c r="B520" s="6"/>
     </row>
     <row r="521">
-      <c r="B521" s="4"/>
+      <c r="B521" s="6"/>
     </row>
     <row r="522">
-      <c r="B522" s="4"/>
+      <c r="B522" s="6"/>
     </row>
     <row r="523">
-      <c r="B523" s="4"/>
+      <c r="B523" s="6"/>
     </row>
     <row r="524">
-      <c r="B524" s="4"/>
+      <c r="B524" s="6"/>
     </row>
     <row r="525">
-      <c r="B525" s="4"/>
+      <c r="B525" s="6"/>
     </row>
     <row r="526">
-      <c r="B526" s="4"/>
+      <c r="B526" s="6"/>
     </row>
     <row r="527">
-      <c r="B527" s="4"/>
+      <c r="B527" s="6"/>
     </row>
     <row r="528">
-      <c r="B528" s="4"/>
+      <c r="B528" s="6"/>
     </row>
     <row r="529">
-      <c r="B529" s="4"/>
+      <c r="B529" s="6"/>
     </row>
     <row r="530">
-      <c r="B530" s="4"/>
+      <c r="B530" s="6"/>
     </row>
     <row r="531">
-      <c r="B531" s="4"/>
+      <c r="B531" s="6"/>
     </row>
     <row r="532">
-      <c r="B532" s="4"/>
+      <c r="B532" s="6"/>
     </row>
     <row r="533">
-      <c r="B533" s="4"/>
+      <c r="B533" s="6"/>
     </row>
     <row r="534">
-      <c r="B534" s="4"/>
+      <c r="B534" s="6"/>
     </row>
     <row r="535">
-      <c r="B535" s="4"/>
+      <c r="B535" s="6"/>
     </row>
     <row r="536">
-      <c r="B536" s="4"/>
+      <c r="B536" s="6"/>
     </row>
     <row r="537">
-      <c r="B537" s="4"/>
+      <c r="B537" s="6"/>
     </row>
     <row r="538">
-      <c r="B538" s="4"/>
+      <c r="B538" s="6"/>
     </row>
     <row r="539">
-      <c r="B539" s="4"/>
+      <c r="B539" s="6"/>
     </row>
     <row r="540">
-      <c r="B540" s="4"/>
+      <c r="B540" s="6"/>
     </row>
     <row r="541">
-      <c r="B541" s="4"/>
+      <c r="B541" s="6"/>
     </row>
     <row r="542">
-      <c r="B542" s="4"/>
+      <c r="B542" s="6"/>
     </row>
     <row r="543">
-      <c r="B543" s="4"/>
+      <c r="B543" s="6"/>
     </row>
     <row r="544">
-      <c r="B544" s="4"/>
+      <c r="B544" s="6"/>
     </row>
     <row r="545">
-      <c r="B545" s="4"/>
+      <c r="B545" s="6"/>
     </row>
     <row r="546">
-      <c r="B546" s="4"/>
+      <c r="B546" s="6"/>
     </row>
     <row r="547">
-      <c r="B547" s="4"/>
+      <c r="B547" s="6"/>
     </row>
     <row r="548">
-      <c r="B548" s="4"/>
+      <c r="B548" s="6"/>
     </row>
     <row r="549">
-      <c r="B549" s="4"/>
+      <c r="B549" s="6"/>
     </row>
     <row r="550">
-      <c r="B550" s="4"/>
+      <c r="B550" s="6"/>
     </row>
     <row r="551">
-      <c r="B551" s="4"/>
+      <c r="B551" s="6"/>
     </row>
     <row r="552">
-      <c r="B552" s="4"/>
+      <c r="B552" s="6"/>
     </row>
     <row r="553">
-      <c r="B553" s="4"/>
+      <c r="B553" s="6"/>
     </row>
     <row r="554">
-      <c r="B554" s="4"/>
+      <c r="B554" s="6"/>
     </row>
     <row r="555">
-      <c r="B555" s="4"/>
+      <c r="B555" s="6"/>
     </row>
     <row r="556">
-      <c r="B556" s="4"/>
+      <c r="B556" s="6"/>
     </row>
     <row r="557">
-      <c r="B557" s="4"/>
+      <c r="B557" s="6"/>
     </row>
     <row r="558">
-      <c r="B558" s="4"/>
+      <c r="B558" s="6"/>
     </row>
     <row r="559">
-      <c r="B559" s="4"/>
+      <c r="B559" s="6"/>
     </row>
     <row r="560">
-      <c r="B560" s="4"/>
+      <c r="B560" s="6"/>
     </row>
     <row r="561">
-      <c r="B561" s="4"/>
+      <c r="B561" s="6"/>
     </row>
     <row r="562">
-      <c r="B562" s="4"/>
+      <c r="B562" s="6"/>
     </row>
     <row r="563">
-      <c r="B563" s="4"/>
+      <c r="B563" s="6"/>
     </row>
     <row r="564">
-      <c r="B564" s="4"/>
+      <c r="B564" s="6"/>
     </row>
     <row r="565">
-      <c r="B565" s="4"/>
+      <c r="B565" s="6"/>
     </row>
     <row r="566">
-      <c r="B566" s="4"/>
+      <c r="B566" s="6"/>
     </row>
     <row r="567">
-      <c r="B567" s="4"/>
+      <c r="B567" s="6"/>
     </row>
     <row r="568">
-      <c r="B568" s="4"/>
+      <c r="B568" s="6"/>
     </row>
     <row r="569">
-      <c r="B569" s="4"/>
+      <c r="B569" s="6"/>
     </row>
     <row r="570">
-      <c r="B570" s="4"/>
+      <c r="B570" s="6"/>
     </row>
     <row r="571">
-      <c r="B571" s="4"/>
+      <c r="B571" s="6"/>
     </row>
     <row r="572">
-      <c r="B572" s="4"/>
+      <c r="B572" s="6"/>
     </row>
     <row r="573">
-      <c r="B573" s="4"/>
+      <c r="B573" s="6"/>
     </row>
     <row r="574">
-      <c r="B574" s="4"/>
+      <c r="B574" s="6"/>
     </row>
     <row r="575">
-      <c r="B575" s="4"/>
+      <c r="B575" s="6"/>
     </row>
     <row r="576">
-      <c r="B576" s="4"/>
+      <c r="B576" s="6"/>
     </row>
     <row r="577">
-      <c r="B577" s="4"/>
+      <c r="B577" s="6"/>
     </row>
     <row r="578">
-      <c r="B578" s="4"/>
+      <c r="B578" s="6"/>
     </row>
     <row r="579">
-      <c r="B579" s="4"/>
+      <c r="B579" s="6"/>
     </row>
     <row r="580">
-      <c r="B580" s="4"/>
+      <c r="B580" s="6"/>
     </row>
     <row r="581">
-      <c r="B581" s="4"/>
+      <c r="B581" s="6"/>
     </row>
     <row r="582">
-      <c r="B582" s="4"/>
+      <c r="B582" s="6"/>
     </row>
     <row r="583">
-      <c r="B583" s="4"/>
+      <c r="B583" s="6"/>
     </row>
     <row r="584">
-      <c r="B584" s="4"/>
+      <c r="B584" s="6"/>
     </row>
     <row r="585">
-      <c r="B585" s="4"/>
+      <c r="B585" s="6"/>
     </row>
     <row r="586">
-      <c r="B586" s="4"/>
+      <c r="B586" s="6"/>
     </row>
     <row r="587">
-      <c r="B587" s="4"/>
+      <c r="B587" s="6"/>
     </row>
     <row r="588">
-      <c r="B588" s="4"/>
+      <c r="B588" s="6"/>
     </row>
     <row r="589">
-      <c r="B589" s="4"/>
+      <c r="B589" s="6"/>
     </row>
     <row r="590">
-      <c r="B590" s="4"/>
+      <c r="B590" s="6"/>
     </row>
     <row r="591">
-      <c r="B591" s="4"/>
+      <c r="B591" s="6"/>
     </row>
     <row r="592">
-      <c r="B592" s="4"/>
+      <c r="B592" s="6"/>
     </row>
     <row r="593">
-      <c r="B593" s="4"/>
+      <c r="B593" s="6"/>
     </row>
     <row r="594">
-      <c r="B594" s="4"/>
+      <c r="B594" s="6"/>
     </row>
     <row r="595">
-      <c r="B595" s="4"/>
+      <c r="B595" s="6"/>
     </row>
     <row r="596">
-      <c r="B596" s="4"/>
+      <c r="B596" s="6"/>
     </row>
     <row r="597">
-      <c r="B597" s="4"/>
+      <c r="B597" s="6"/>
     </row>
     <row r="598">
-      <c r="B598" s="4"/>
+      <c r="B598" s="6"/>
     </row>
     <row r="599">
-      <c r="B599" s="4"/>
+      <c r="B599" s="6"/>
     </row>
     <row r="600">
-      <c r="B600" s="4"/>
+      <c r="B600" s="6"/>
     </row>
     <row r="601">
-      <c r="B601" s="4"/>
+      <c r="B601" s="6"/>
     </row>
     <row r="602">
-      <c r="B602" s="4"/>
+      <c r="B602" s="6"/>
     </row>
     <row r="603">
-      <c r="B603" s="4"/>
+      <c r="B603" s="6"/>
     </row>
     <row r="604">
-      <c r="B604" s="4"/>
+      <c r="B604" s="6"/>
     </row>
     <row r="605">
-      <c r="B605" s="4"/>
+      <c r="B605" s="6"/>
     </row>
     <row r="606">
-      <c r="B606" s="4"/>
+      <c r="B606" s="6"/>
     </row>
     <row r="607">
-      <c r="B607" s="4"/>
+      <c r="B607" s="6"/>
     </row>
     <row r="608">
-      <c r="B608" s="4"/>
+      <c r="B608" s="6"/>
     </row>
     <row r="609">
-      <c r="B609" s="4"/>
+      <c r="B609" s="6"/>
     </row>
     <row r="610">
-      <c r="B610" s="4"/>
+      <c r="B610" s="6"/>
     </row>
     <row r="611">
-      <c r="B611" s="4"/>
+      <c r="B611" s="6"/>
     </row>
     <row r="612">
-      <c r="B612" s="4"/>
+      <c r="B612" s="6"/>
     </row>
     <row r="613">
-      <c r="B613" s="4"/>
+      <c r="B613" s="6"/>
     </row>
     <row r="614">
-      <c r="B614" s="4"/>
+      <c r="B614" s="6"/>
     </row>
     <row r="615">
-      <c r="B615" s="4"/>
+      <c r="B615" s="6"/>
     </row>
     <row r="616">
-      <c r="B616" s="4"/>
+      <c r="B616" s="6"/>
     </row>
     <row r="617">
-      <c r="B617" s="4"/>
+      <c r="B617" s="6"/>
     </row>
     <row r="618">
-      <c r="B618" s="4"/>
+      <c r="B618" s="6"/>
     </row>
     <row r="619">
-      <c r="B619" s="4"/>
+      <c r="B619" s="6"/>
     </row>
     <row r="620">
-      <c r="B620" s="4"/>
+      <c r="B620" s="6"/>
     </row>
     <row r="621">
-      <c r="B621" s="4"/>
+      <c r="B621" s="6"/>
     </row>
     <row r="622">
-      <c r="B622" s="4"/>
+      <c r="B622" s="6"/>
     </row>
     <row r="623">
-      <c r="B623" s="4"/>
+      <c r="B623" s="6"/>
     </row>
     <row r="624">
-      <c r="B624" s="4"/>
+      <c r="B624" s="6"/>
     </row>
     <row r="625">
-      <c r="B625" s="4"/>
+      <c r="B625" s="6"/>
     </row>
     <row r="626">
-      <c r="B626" s="4"/>
+      <c r="B626" s="6"/>
     </row>
     <row r="627">
-      <c r="B627" s="4"/>
+      <c r="B627" s="6"/>
     </row>
     <row r="628">
-      <c r="B628" s="4"/>
+      <c r="B628" s="6"/>
     </row>
     <row r="629">
-      <c r="B629" s="4"/>
+      <c r="B629" s="6"/>
     </row>
     <row r="630">
-      <c r="B630" s="4"/>
+      <c r="B630" s="6"/>
     </row>
     <row r="631">
-      <c r="B631" s="4"/>
+      <c r="B631" s="6"/>
     </row>
     <row r="632">
-      <c r="B632" s="4"/>
+      <c r="B632" s="6"/>
     </row>
     <row r="633">
-      <c r="B633" s="4"/>
+      <c r="B633" s="6"/>
     </row>
     <row r="634">
-      <c r="B634" s="4"/>
+      <c r="B634" s="6"/>
     </row>
     <row r="635">
-      <c r="B635" s="4"/>
+      <c r="B635" s="6"/>
     </row>
     <row r="636">
-      <c r="B636" s="4"/>
+      <c r="B636" s="6"/>
     </row>
     <row r="637">
-      <c r="B637" s="4"/>
+      <c r="B637" s="6"/>
     </row>
     <row r="638">
-      <c r="B638" s="4"/>
+      <c r="B638" s="6"/>
     </row>
     <row r="639">
-      <c r="B639" s="4"/>
+      <c r="B639" s="6"/>
     </row>
     <row r="640">
-      <c r="B640" s="4"/>
+      <c r="B640" s="6"/>
     </row>
     <row r="641">
-      <c r="B641" s="4"/>
+      <c r="B641" s="6"/>
     </row>
     <row r="642">
-      <c r="B642" s="4"/>
+      <c r="B642" s="6"/>
     </row>
     <row r="643">
-      <c r="B643" s="4"/>
+      <c r="B643" s="6"/>
     </row>
     <row r="644">
-      <c r="B644" s="4"/>
+      <c r="B644" s="6"/>
     </row>
     <row r="645">
-      <c r="B645" s="4"/>
+      <c r="B645" s="6"/>
     </row>
     <row r="646">
-      <c r="B646" s="4"/>
+      <c r="B646" s="6"/>
     </row>
     <row r="647">
-      <c r="B647" s="4"/>
+      <c r="B647" s="6"/>
     </row>
     <row r="648">
-      <c r="B648" s="4"/>
+      <c r="B648" s="6"/>
     </row>
     <row r="649">
-      <c r="B649" s="4"/>
+      <c r="B649" s="6"/>
     </row>
     <row r="650">
-      <c r="B650" s="4"/>
+      <c r="B650" s="6"/>
     </row>
     <row r="651">
-      <c r="B651" s="4"/>
+      <c r="B651" s="6"/>
     </row>
     <row r="652">
-      <c r="B652" s="4"/>
+      <c r="B652" s="6"/>
     </row>
     <row r="653">
-      <c r="B653" s="4"/>
+      <c r="B653" s="6"/>
     </row>
     <row r="654">
-      <c r="B654" s="4"/>
+      <c r="B654" s="6"/>
     </row>
     <row r="655">
-      <c r="B655" s="4"/>
+      <c r="B655" s="6"/>
     </row>
     <row r="656">
-      <c r="B656" s="4"/>
+      <c r="B656" s="6"/>
     </row>
     <row r="657">
-      <c r="B657" s="4"/>
+      <c r="B657" s="6"/>
     </row>
     <row r="658">
-      <c r="B658" s="4"/>
+      <c r="B658" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A658">

--- a/frontend/public/device-upload-template.xlsx
+++ b/frontend/public/device-upload-template.xlsx
@@ -4,8 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Devices" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Gold Template" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="Device Models" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Dynamic Data" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="Gold Template" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="Device Models" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -261,11 +262,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -320,6 +321,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -575,1704 +580,2508 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23">
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24">
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25">
-      <c r="F25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26">
-      <c r="F26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27">
-      <c r="F27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28">
-      <c r="F28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29">
-      <c r="F29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30">
-      <c r="F30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31">
-      <c r="F31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32">
-      <c r="F32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33">
-      <c r="F33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34">
-      <c r="F34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35">
-      <c r="F35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36">
-      <c r="F36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37">
-      <c r="F37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38">
-      <c r="F38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39">
-      <c r="F39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40">
-      <c r="F40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41">
-      <c r="F41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42">
-      <c r="F42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43">
-      <c r="F43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44">
-      <c r="F44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45">
-      <c r="F45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46">
-      <c r="F46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47">
-      <c r="F47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48">
-      <c r="F48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49">
-      <c r="F49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50">
-      <c r="F50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51">
-      <c r="F51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52">
-      <c r="F52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53">
-      <c r="F53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54">
-      <c r="F54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55">
-      <c r="F55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56">
-      <c r="F56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57">
-      <c r="F57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58">
-      <c r="F58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59">
-      <c r="F59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60">
-      <c r="F60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61">
-      <c r="F61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62">
-      <c r="F62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63">
-      <c r="F63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64">
-      <c r="F64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65">
-      <c r="F65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66">
-      <c r="F66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67">
-      <c r="F67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68">
-      <c r="F68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69">
-      <c r="F69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70">
-      <c r="F70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71">
-      <c r="F71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72">
-      <c r="F72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73">
-      <c r="F73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74">
-      <c r="F74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75">
-      <c r="F75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76">
-      <c r="F76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77">
-      <c r="F77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78">
-      <c r="F78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79">
-      <c r="F79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80">
-      <c r="F80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81">
-      <c r="F81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82">
-      <c r="F82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83">
-      <c r="F83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84">
-      <c r="F84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85">
-      <c r="F85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86">
-      <c r="F86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87">
-      <c r="F87" s="5"/>
+      <c r="B87" s="4"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88">
-      <c r="F88" s="5"/>
+      <c r="B88" s="4"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89">
-      <c r="F89" s="5"/>
+      <c r="B89" s="4"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90">
-      <c r="F90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91">
-      <c r="F91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92">
-      <c r="F92" s="5"/>
+      <c r="B92" s="4"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93">
-      <c r="F93" s="5"/>
+      <c r="B93" s="4"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94">
-      <c r="F94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95">
-      <c r="F95" s="5"/>
+      <c r="B95" s="4"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96">
-      <c r="F96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97">
-      <c r="F97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98">
-      <c r="F98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99">
-      <c r="F99" s="5"/>
+      <c r="B99" s="4"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100">
-      <c r="F100" s="5"/>
+      <c r="B100" s="4"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101">
-      <c r="F101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102">
-      <c r="F102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103">
-      <c r="F103" s="5"/>
+      <c r="B103" s="4"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104">
-      <c r="F104" s="5"/>
+      <c r="B104" s="4"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105">
-      <c r="F105" s="5"/>
+      <c r="B105" s="4"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106">
-      <c r="F106" s="5"/>
+      <c r="B106" s="4"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107">
-      <c r="F107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108">
-      <c r="F108" s="5"/>
+      <c r="B108" s="4"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109">
-      <c r="F109" s="5"/>
+      <c r="B109" s="4"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110">
-      <c r="F110" s="5"/>
+      <c r="B110" s="4"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111">
-      <c r="F111" s="5"/>
+      <c r="B111" s="4"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112">
-      <c r="F112" s="5"/>
+      <c r="B112" s="4"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113">
-      <c r="F113" s="5"/>
+      <c r="B113" s="4"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114">
-      <c r="F114" s="5"/>
+      <c r="B114" s="4"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115">
-      <c r="F115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116">
-      <c r="F116" s="5"/>
+      <c r="B116" s="4"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117">
-      <c r="F117" s="5"/>
+      <c r="B117" s="4"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118">
-      <c r="F118" s="5"/>
+      <c r="B118" s="4"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119">
-      <c r="F119" s="5"/>
+      <c r="B119" s="4"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120">
-      <c r="F120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121">
-      <c r="F121" s="5"/>
+      <c r="B121" s="4"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122">
-      <c r="F122" s="5"/>
+      <c r="B122" s="4"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123">
-      <c r="F123" s="5"/>
+      <c r="B123" s="4"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124">
-      <c r="F124" s="5"/>
+      <c r="B124" s="4"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125">
-      <c r="F125" s="5"/>
+      <c r="B125" s="4"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126">
-      <c r="F126" s="5"/>
+      <c r="B126" s="4"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127">
-      <c r="F127" s="5"/>
+      <c r="B127" s="4"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128">
-      <c r="F128" s="5"/>
+      <c r="B128" s="4"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129">
-      <c r="F129" s="5"/>
+      <c r="B129" s="4"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130">
-      <c r="F130" s="5"/>
+      <c r="B130" s="4"/>
+      <c r="F130" s="6"/>
     </row>
     <row r="131">
-      <c r="F131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132">
-      <c r="F132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133">
-      <c r="F133" s="5"/>
+      <c r="B133" s="4"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134">
-      <c r="F134" s="5"/>
+      <c r="B134" s="4"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135">
-      <c r="F135" s="5"/>
+      <c r="B135" s="4"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136">
-      <c r="F136" s="5"/>
+      <c r="B136" s="4"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137">
-      <c r="F137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138">
-      <c r="F138" s="5"/>
+      <c r="B138" s="4"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139">
-      <c r="F139" s="5"/>
+      <c r="B139" s="4"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140">
-      <c r="F140" s="5"/>
+      <c r="B140" s="4"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141">
-      <c r="F141" s="5"/>
+      <c r="B141" s="4"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142">
-      <c r="F142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143">
-      <c r="F143" s="5"/>
+      <c r="B143" s="4"/>
+      <c r="F143" s="6"/>
     </row>
     <row r="144">
-      <c r="F144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="F144" s="6"/>
     </row>
     <row r="145">
-      <c r="F145" s="5"/>
+      <c r="B145" s="4"/>
+      <c r="F145" s="6"/>
     </row>
     <row r="146">
-      <c r="F146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147">
-      <c r="F147" s="5"/>
+      <c r="B147" s="4"/>
+      <c r="F147" s="6"/>
     </row>
     <row r="148">
-      <c r="F148" s="5"/>
+      <c r="B148" s="4"/>
+      <c r="F148" s="6"/>
     </row>
     <row r="149">
-      <c r="F149" s="5"/>
+      <c r="B149" s="4"/>
+      <c r="F149" s="6"/>
     </row>
     <row r="150">
-      <c r="F150" s="5"/>
+      <c r="B150" s="4"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151">
-      <c r="F151" s="5"/>
+      <c r="B151" s="4"/>
+      <c r="F151" s="6"/>
     </row>
     <row r="152">
-      <c r="F152" s="5"/>
+      <c r="B152" s="4"/>
+      <c r="F152" s="6"/>
     </row>
     <row r="153">
-      <c r="F153" s="5"/>
+      <c r="B153" s="4"/>
+      <c r="F153" s="6"/>
     </row>
     <row r="154">
-      <c r="F154" s="5"/>
+      <c r="B154" s="4"/>
+      <c r="F154" s="6"/>
     </row>
     <row r="155">
-      <c r="F155" s="5"/>
+      <c r="B155" s="4"/>
+      <c r="F155" s="6"/>
     </row>
     <row r="156">
-      <c r="F156" s="5"/>
+      <c r="B156" s="4"/>
+      <c r="F156" s="6"/>
     </row>
     <row r="157">
-      <c r="F157" s="5"/>
+      <c r="B157" s="4"/>
+      <c r="F157" s="6"/>
     </row>
     <row r="158">
-      <c r="F158" s="5"/>
+      <c r="B158" s="4"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159">
-      <c r="F159" s="5"/>
+      <c r="B159" s="4"/>
+      <c r="F159" s="6"/>
     </row>
     <row r="160">
-      <c r="F160" s="5"/>
+      <c r="B160" s="4"/>
+      <c r="F160" s="6"/>
     </row>
     <row r="161">
-      <c r="F161" s="5"/>
+      <c r="B161" s="4"/>
+      <c r="F161" s="6"/>
     </row>
     <row r="162">
-      <c r="F162" s="5"/>
+      <c r="B162" s="4"/>
+      <c r="F162" s="6"/>
     </row>
     <row r="163">
-      <c r="F163" s="5"/>
+      <c r="B163" s="4"/>
+      <c r="F163" s="6"/>
     </row>
     <row r="164">
-      <c r="F164" s="5"/>
+      <c r="B164" s="4"/>
+      <c r="F164" s="6"/>
     </row>
     <row r="165">
-      <c r="F165" s="5"/>
+      <c r="B165" s="4"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166">
-      <c r="F166" s="5"/>
+      <c r="B166" s="4"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167">
-      <c r="F167" s="5"/>
+      <c r="B167" s="4"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168">
-      <c r="F168" s="5"/>
+      <c r="B168" s="4"/>
+      <c r="F168" s="6"/>
     </row>
     <row r="169">
-      <c r="F169" s="5"/>
+      <c r="B169" s="4"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170">
-      <c r="F170" s="5"/>
+      <c r="B170" s="4"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171">
-      <c r="F171" s="5"/>
+      <c r="B171" s="4"/>
+      <c r="F171" s="6"/>
     </row>
     <row r="172">
-      <c r="F172" s="5"/>
+      <c r="B172" s="4"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173">
-      <c r="F173" s="5"/>
+      <c r="B173" s="4"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174">
-      <c r="F174" s="5"/>
+      <c r="B174" s="4"/>
+      <c r="F174" s="6"/>
     </row>
     <row r="175">
-      <c r="F175" s="5"/>
+      <c r="B175" s="4"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176">
-      <c r="F176" s="5"/>
+      <c r="B176" s="4"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177">
-      <c r="F177" s="5"/>
+      <c r="B177" s="4"/>
+      <c r="F177" s="6"/>
     </row>
     <row r="178">
-      <c r="F178" s="5"/>
+      <c r="B178" s="4"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179">
-      <c r="F179" s="5"/>
+      <c r="B179" s="4"/>
+      <c r="F179" s="6"/>
     </row>
     <row r="180">
-      <c r="F180" s="5"/>
+      <c r="B180" s="4"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181">
-      <c r="F181" s="5"/>
+      <c r="B181" s="4"/>
+      <c r="F181" s="6"/>
     </row>
     <row r="182">
-      <c r="F182" s="5"/>
+      <c r="B182" s="4"/>
+      <c r="F182" s="6"/>
     </row>
     <row r="183">
-      <c r="F183" s="5"/>
+      <c r="B183" s="4"/>
+      <c r="F183" s="6"/>
     </row>
     <row r="184">
-      <c r="F184" s="5"/>
+      <c r="B184" s="4"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185">
-      <c r="F185" s="5"/>
+      <c r="B185" s="4"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186">
-      <c r="F186" s="5"/>
+      <c r="B186" s="4"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187">
-      <c r="F187" s="5"/>
+      <c r="B187" s="4"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188">
-      <c r="F188" s="5"/>
+      <c r="B188" s="4"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189">
-      <c r="F189" s="5"/>
+      <c r="B189" s="4"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190">
-      <c r="F190" s="5"/>
+      <c r="B190" s="4"/>
+      <c r="F190" s="6"/>
     </row>
     <row r="191">
-      <c r="F191" s="5"/>
+      <c r="B191" s="4"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192">
-      <c r="F192" s="5"/>
+      <c r="B192" s="4"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193">
-      <c r="F193" s="5"/>
+      <c r="B193" s="4"/>
+      <c r="F193" s="6"/>
     </row>
     <row r="194">
-      <c r="F194" s="5"/>
+      <c r="B194" s="4"/>
+      <c r="F194" s="6"/>
     </row>
     <row r="195">
-      <c r="F195" s="5"/>
+      <c r="B195" s="4"/>
+      <c r="F195" s="6"/>
     </row>
     <row r="196">
-      <c r="F196" s="5"/>
+      <c r="B196" s="4"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197">
-      <c r="F197" s="5"/>
+      <c r="B197" s="4"/>
+      <c r="F197" s="6"/>
     </row>
     <row r="198">
-      <c r="F198" s="5"/>
+      <c r="B198" s="4"/>
+      <c r="F198" s="6"/>
     </row>
     <row r="199">
-      <c r="F199" s="5"/>
+      <c r="B199" s="4"/>
+      <c r="F199" s="6"/>
     </row>
     <row r="200">
-      <c r="F200" s="5"/>
+      <c r="B200" s="4"/>
+      <c r="F200" s="6"/>
     </row>
     <row r="201">
-      <c r="F201" s="5"/>
+      <c r="B201" s="4"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202">
-      <c r="F202" s="5"/>
+      <c r="B202" s="4"/>
+      <c r="F202" s="6"/>
     </row>
     <row r="203">
-      <c r="F203" s="5"/>
+      <c r="B203" s="4"/>
+      <c r="F203" s="6"/>
     </row>
     <row r="204">
-      <c r="F204" s="5"/>
+      <c r="B204" s="4"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205">
-      <c r="F205" s="5"/>
+      <c r="B205" s="4"/>
+      <c r="F205" s="6"/>
     </row>
     <row r="206">
-      <c r="F206" s="5"/>
+      <c r="B206" s="4"/>
+      <c r="F206" s="6"/>
     </row>
     <row r="207">
-      <c r="F207" s="5"/>
+      <c r="B207" s="4"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208">
-      <c r="F208" s="5"/>
+      <c r="B208" s="4"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209">
-      <c r="F209" s="5"/>
+      <c r="B209" s="4"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210">
-      <c r="F210" s="5"/>
+      <c r="B210" s="4"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211">
-      <c r="F211" s="5"/>
+      <c r="B211" s="4"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212">
-      <c r="F212" s="5"/>
+      <c r="B212" s="4"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213">
-      <c r="F213" s="5"/>
+      <c r="B213" s="4"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214">
-      <c r="F214" s="5"/>
+      <c r="B214" s="4"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215">
-      <c r="F215" s="5"/>
+      <c r="B215" s="4"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216">
-      <c r="F216" s="5"/>
+      <c r="B216" s="4"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217">
-      <c r="F217" s="5"/>
+      <c r="B217" s="4"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218">
-      <c r="F218" s="5"/>
+      <c r="B218" s="4"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219">
-      <c r="F219" s="5"/>
+      <c r="B219" s="4"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220">
-      <c r="F220" s="5"/>
+      <c r="B220" s="4"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221">
-      <c r="F221" s="5"/>
+      <c r="B221" s="4"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222">
-      <c r="F222" s="5"/>
+      <c r="B222" s="4"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223">
-      <c r="F223" s="5"/>
+      <c r="B223" s="4"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224">
-      <c r="F224" s="5"/>
+      <c r="B224" s="4"/>
+      <c r="F224" s="6"/>
     </row>
     <row r="225">
-      <c r="F225" s="5"/>
+      <c r="B225" s="4"/>
+      <c r="F225" s="6"/>
     </row>
     <row r="226">
-      <c r="F226" s="5"/>
+      <c r="B226" s="4"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227">
-      <c r="F227" s="5"/>
+      <c r="B227" s="4"/>
+      <c r="F227" s="6"/>
     </row>
     <row r="228">
-      <c r="F228" s="5"/>
+      <c r="B228" s="4"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229">
-      <c r="F229" s="5"/>
+      <c r="B229" s="4"/>
+      <c r="F229" s="6"/>
     </row>
     <row r="230">
-      <c r="F230" s="5"/>
+      <c r="B230" s="4"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231">
-      <c r="F231" s="5"/>
+      <c r="B231" s="4"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232">
-      <c r="F232" s="5"/>
+      <c r="B232" s="4"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233">
-      <c r="F233" s="5"/>
+      <c r="B233" s="4"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234">
-      <c r="F234" s="5"/>
+      <c r="B234" s="4"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235">
-      <c r="F235" s="5"/>
+      <c r="B235" s="4"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236">
-      <c r="F236" s="5"/>
+      <c r="B236" s="4"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237">
-      <c r="F237" s="5"/>
+      <c r="B237" s="4"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238">
-      <c r="F238" s="5"/>
+      <c r="B238" s="4"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239">
-      <c r="F239" s="5"/>
+      <c r="B239" s="4"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240">
-      <c r="F240" s="5"/>
+      <c r="B240" s="4"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241">
-      <c r="F241" s="5"/>
+      <c r="B241" s="4"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242">
-      <c r="F242" s="5"/>
+      <c r="B242" s="4"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243">
-      <c r="F243" s="5"/>
+      <c r="B243" s="4"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244">
-      <c r="F244" s="5"/>
+      <c r="B244" s="4"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245">
-      <c r="F245" s="5"/>
+      <c r="B245" s="4"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246">
-      <c r="F246" s="5"/>
+      <c r="B246" s="4"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247">
-      <c r="F247" s="5"/>
+      <c r="B247" s="4"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248">
-      <c r="F248" s="5"/>
+      <c r="B248" s="4"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249">
-      <c r="F249" s="5"/>
+      <c r="B249" s="4"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250">
-      <c r="F250" s="5"/>
+      <c r="B250" s="4"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251">
-      <c r="F251" s="5"/>
+      <c r="B251" s="4"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252">
-      <c r="F252" s="5"/>
+      <c r="B252" s="4"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253">
-      <c r="F253" s="5"/>
+      <c r="B253" s="4"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254">
-      <c r="F254" s="5"/>
+      <c r="B254" s="4"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255">
-      <c r="F255" s="5"/>
+      <c r="B255" s="4"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256">
-      <c r="F256" s="5"/>
+      <c r="B256" s="4"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257">
-      <c r="F257" s="5"/>
+      <c r="B257" s="4"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258">
-      <c r="F258" s="5"/>
+      <c r="B258" s="4"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259">
-      <c r="F259" s="5"/>
+      <c r="B259" s="4"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260">
-      <c r="F260" s="5"/>
+      <c r="B260" s="4"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261">
-      <c r="F261" s="5"/>
+      <c r="B261" s="4"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262">
-      <c r="F262" s="5"/>
+      <c r="B262" s="4"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263">
-      <c r="F263" s="5"/>
+      <c r="B263" s="4"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264">
-      <c r="F264" s="5"/>
+      <c r="B264" s="4"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265">
-      <c r="F265" s="5"/>
+      <c r="B265" s="4"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266">
-      <c r="F266" s="5"/>
+      <c r="B266" s="4"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267">
-      <c r="F267" s="5"/>
+      <c r="B267" s="4"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268">
-      <c r="F268" s="5"/>
+      <c r="B268" s="4"/>
+      <c r="F268" s="6"/>
     </row>
     <row r="269">
-      <c r="F269" s="5"/>
+      <c r="B269" s="4"/>
+      <c r="F269" s="6"/>
     </row>
     <row r="270">
-      <c r="F270" s="5"/>
+      <c r="B270" s="4"/>
+      <c r="F270" s="6"/>
     </row>
     <row r="271">
-      <c r="F271" s="5"/>
+      <c r="B271" s="4"/>
+      <c r="F271" s="6"/>
     </row>
     <row r="272">
-      <c r="F272" s="5"/>
+      <c r="B272" s="4"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273">
-      <c r="F273" s="5"/>
+      <c r="B273" s="4"/>
+      <c r="F273" s="6"/>
     </row>
     <row r="274">
-      <c r="F274" s="5"/>
+      <c r="B274" s="4"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275">
-      <c r="F275" s="5"/>
+      <c r="B275" s="4"/>
+      <c r="F275" s="6"/>
     </row>
     <row r="276">
-      <c r="F276" s="5"/>
+      <c r="B276" s="4"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277">
-      <c r="F277" s="5"/>
+      <c r="B277" s="4"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278">
-      <c r="F278" s="5"/>
+      <c r="B278" s="4"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279">
-      <c r="F279" s="5"/>
+      <c r="B279" s="4"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280">
-      <c r="F280" s="5"/>
+      <c r="B280" s="4"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281">
-      <c r="F281" s="5"/>
+      <c r="B281" s="4"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282">
-      <c r="F282" s="5"/>
+      <c r="B282" s="4"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283">
-      <c r="F283" s="5"/>
+      <c r="B283" s="4"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284">
-      <c r="F284" s="5"/>
+      <c r="B284" s="4"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285">
-      <c r="F285" s="5"/>
+      <c r="B285" s="4"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286">
-      <c r="F286" s="5"/>
+      <c r="B286" s="4"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287">
-      <c r="F287" s="5"/>
+      <c r="B287" s="4"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288">
-      <c r="F288" s="5"/>
+      <c r="B288" s="4"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289">
-      <c r="F289" s="5"/>
+      <c r="B289" s="4"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290">
-      <c r="F290" s="5"/>
+      <c r="B290" s="4"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291">
-      <c r="F291" s="5"/>
+      <c r="B291" s="4"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292">
-      <c r="F292" s="5"/>
+      <c r="B292" s="4"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293">
-      <c r="F293" s="5"/>
+      <c r="B293" s="4"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294">
-      <c r="F294" s="5"/>
+      <c r="B294" s="4"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295">
-      <c r="F295" s="5"/>
+      <c r="B295" s="4"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296">
-      <c r="F296" s="5"/>
+      <c r="B296" s="4"/>
+      <c r="F296" s="6"/>
     </row>
     <row r="297">
-      <c r="F297" s="5"/>
+      <c r="B297" s="4"/>
+      <c r="F297" s="6"/>
     </row>
     <row r="298">
-      <c r="F298" s="5"/>
+      <c r="B298" s="4"/>
+      <c r="F298" s="6"/>
     </row>
     <row r="299">
-      <c r="F299" s="5"/>
+      <c r="B299" s="4"/>
+      <c r="F299" s="6"/>
     </row>
     <row r="300">
-      <c r="F300" s="5"/>
+      <c r="B300" s="4"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301">
-      <c r="F301" s="5"/>
+      <c r="B301" s="4"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302">
-      <c r="F302" s="5"/>
+      <c r="B302" s="4"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303">
-      <c r="F303" s="5"/>
+      <c r="B303" s="4"/>
+      <c r="F303" s="6"/>
     </row>
     <row r="304">
-      <c r="F304" s="5"/>
+      <c r="B304" s="4"/>
+      <c r="F304" s="6"/>
     </row>
     <row r="305">
-      <c r="F305" s="5"/>
+      <c r="B305" s="4"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306">
-      <c r="F306" s="5"/>
+      <c r="B306" s="4"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307">
-      <c r="F307" s="5"/>
+      <c r="B307" s="4"/>
+      <c r="F307" s="6"/>
     </row>
     <row r="308">
-      <c r="F308" s="5"/>
+      <c r="B308" s="4"/>
+      <c r="F308" s="6"/>
     </row>
     <row r="309">
-      <c r="F309" s="5"/>
+      <c r="B309" s="4"/>
+      <c r="F309" s="6"/>
     </row>
     <row r="310">
-      <c r="F310" s="5"/>
+      <c r="B310" s="4"/>
+      <c r="F310" s="6"/>
     </row>
     <row r="311">
-      <c r="F311" s="5"/>
+      <c r="B311" s="4"/>
+      <c r="F311" s="6"/>
     </row>
     <row r="312">
-      <c r="F312" s="5"/>
+      <c r="B312" s="4"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313">
-      <c r="F313" s="5"/>
+      <c r="B313" s="4"/>
+      <c r="F313" s="6"/>
     </row>
     <row r="314">
-      <c r="F314" s="5"/>
+      <c r="B314" s="4"/>
+      <c r="F314" s="6"/>
     </row>
     <row r="315">
-      <c r="F315" s="5"/>
+      <c r="B315" s="4"/>
+      <c r="F315" s="6"/>
     </row>
     <row r="316">
-      <c r="F316" s="5"/>
+      <c r="B316" s="4"/>
+      <c r="F316" s="6"/>
     </row>
     <row r="317">
-      <c r="F317" s="5"/>
+      <c r="B317" s="4"/>
+      <c r="F317" s="6"/>
     </row>
     <row r="318">
-      <c r="F318" s="5"/>
+      <c r="B318" s="4"/>
+      <c r="F318" s="6"/>
     </row>
     <row r="319">
-      <c r="F319" s="5"/>
+      <c r="B319" s="4"/>
+      <c r="F319" s="6"/>
     </row>
     <row r="320">
-      <c r="F320" s="5"/>
+      <c r="B320" s="4"/>
+      <c r="F320" s="6"/>
     </row>
     <row r="321">
-      <c r="F321" s="5"/>
+      <c r="B321" s="4"/>
+      <c r="F321" s="6"/>
     </row>
     <row r="322">
-      <c r="F322" s="5"/>
+      <c r="B322" s="4"/>
+      <c r="F322" s="6"/>
     </row>
     <row r="323">
-      <c r="F323" s="5"/>
+      <c r="B323" s="4"/>
+      <c r="F323" s="6"/>
     </row>
     <row r="324">
-      <c r="F324" s="5"/>
+      <c r="B324" s="4"/>
+      <c r="F324" s="6"/>
     </row>
     <row r="325">
-      <c r="F325" s="5"/>
+      <c r="B325" s="4"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326">
-      <c r="F326" s="5"/>
+      <c r="B326" s="4"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327">
-      <c r="F327" s="5"/>
+      <c r="B327" s="4"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328">
-      <c r="F328" s="5"/>
+      <c r="B328" s="4"/>
+      <c r="F328" s="6"/>
     </row>
     <row r="329">
-      <c r="F329" s="5"/>
+      <c r="B329" s="4"/>
+      <c r="F329" s="6"/>
     </row>
     <row r="330">
-      <c r="F330" s="5"/>
+      <c r="B330" s="4"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331">
-      <c r="F331" s="5"/>
+      <c r="B331" s="4"/>
+      <c r="F331" s="6"/>
     </row>
     <row r="332">
-      <c r="F332" s="5"/>
+      <c r="B332" s="4"/>
+      <c r="F332" s="6"/>
     </row>
     <row r="333">
-      <c r="F333" s="5"/>
+      <c r="B333" s="4"/>
+      <c r="F333" s="6"/>
     </row>
     <row r="334">
-      <c r="F334" s="5"/>
+      <c r="B334" s="4"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335">
-      <c r="F335" s="5"/>
+      <c r="B335" s="4"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336">
-      <c r="F336" s="5"/>
+      <c r="B336" s="4"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337">
-      <c r="F337" s="5"/>
+      <c r="B337" s="4"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338">
-      <c r="F338" s="5"/>
+      <c r="B338" s="4"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339">
-      <c r="F339" s="5"/>
+      <c r="B339" s="4"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340">
-      <c r="F340" s="5"/>
+      <c r="B340" s="4"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341">
-      <c r="F341" s="5"/>
+      <c r="B341" s="4"/>
+      <c r="F341" s="6"/>
     </row>
     <row r="342">
-      <c r="F342" s="5"/>
+      <c r="B342" s="4"/>
+      <c r="F342" s="6"/>
     </row>
     <row r="343">
-      <c r="F343" s="5"/>
+      <c r="B343" s="4"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344">
-      <c r="F344" s="5"/>
+      <c r="B344" s="4"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345">
-      <c r="F345" s="5"/>
+      <c r="B345" s="4"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346">
-      <c r="F346" s="5"/>
+      <c r="B346" s="4"/>
+      <c r="F346" s="6"/>
     </row>
     <row r="347">
-      <c r="F347" s="5"/>
+      <c r="B347" s="4"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348">
-      <c r="F348" s="5"/>
+      <c r="B348" s="4"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349">
-      <c r="F349" s="5"/>
+      <c r="B349" s="4"/>
+      <c r="F349" s="6"/>
     </row>
     <row r="350">
-      <c r="F350" s="5"/>
+      <c r="B350" s="4"/>
+      <c r="F350" s="6"/>
     </row>
     <row r="351">
-      <c r="F351" s="5"/>
+      <c r="B351" s="4"/>
+      <c r="F351" s="6"/>
     </row>
     <row r="352">
-      <c r="F352" s="5"/>
+      <c r="B352" s="4"/>
+      <c r="F352" s="6"/>
     </row>
     <row r="353">
-      <c r="F353" s="5"/>
+      <c r="B353" s="4"/>
+      <c r="F353" s="6"/>
     </row>
     <row r="354">
-      <c r="F354" s="5"/>
+      <c r="B354" s="4"/>
+      <c r="F354" s="6"/>
     </row>
     <row r="355">
-      <c r="F355" s="5"/>
+      <c r="B355" s="4"/>
+      <c r="F355" s="6"/>
     </row>
     <row r="356">
-      <c r="F356" s="5"/>
+      <c r="B356" s="4"/>
+      <c r="F356" s="6"/>
     </row>
     <row r="357">
-      <c r="F357" s="5"/>
+      <c r="B357" s="4"/>
+      <c r="F357" s="6"/>
     </row>
     <row r="358">
-      <c r="F358" s="5"/>
+      <c r="B358" s="4"/>
+      <c r="F358" s="6"/>
     </row>
     <row r="359">
-      <c r="F359" s="5"/>
+      <c r="B359" s="4"/>
+      <c r="F359" s="6"/>
     </row>
     <row r="360">
-      <c r="F360" s="5"/>
+      <c r="B360" s="4"/>
+      <c r="F360" s="6"/>
     </row>
     <row r="361">
-      <c r="F361" s="5"/>
+      <c r="B361" s="4"/>
+      <c r="F361" s="6"/>
     </row>
     <row r="362">
-      <c r="F362" s="5"/>
+      <c r="B362" s="4"/>
+      <c r="F362" s="6"/>
     </row>
     <row r="363">
-      <c r="F363" s="5"/>
+      <c r="B363" s="4"/>
+      <c r="F363" s="6"/>
     </row>
     <row r="364">
-      <c r="F364" s="5"/>
+      <c r="B364" s="4"/>
+      <c r="F364" s="6"/>
     </row>
     <row r="365">
-      <c r="F365" s="5"/>
+      <c r="B365" s="4"/>
+      <c r="F365" s="6"/>
     </row>
     <row r="366">
-      <c r="F366" s="5"/>
+      <c r="B366" s="4"/>
+      <c r="F366" s="6"/>
     </row>
     <row r="367">
-      <c r="F367" s="5"/>
+      <c r="B367" s="4"/>
+      <c r="F367" s="6"/>
     </row>
     <row r="368">
-      <c r="F368" s="5"/>
+      <c r="B368" s="4"/>
+      <c r="F368" s="6"/>
     </row>
     <row r="369">
-      <c r="F369" s="5"/>
+      <c r="B369" s="4"/>
+      <c r="F369" s="6"/>
     </row>
     <row r="370">
-      <c r="F370" s="5"/>
+      <c r="B370" s="4"/>
+      <c r="F370" s="6"/>
     </row>
     <row r="371">
-      <c r="F371" s="5"/>
+      <c r="B371" s="4"/>
+      <c r="F371" s="6"/>
     </row>
     <row r="372">
-      <c r="F372" s="5"/>
+      <c r="B372" s="4"/>
+      <c r="F372" s="6"/>
     </row>
     <row r="373">
-      <c r="F373" s="5"/>
+      <c r="B373" s="4"/>
+      <c r="F373" s="6"/>
     </row>
     <row r="374">
-      <c r="F374" s="5"/>
+      <c r="B374" s="4"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375">
-      <c r="F375" s="5"/>
+      <c r="B375" s="4"/>
+      <c r="F375" s="6"/>
     </row>
     <row r="376">
-      <c r="F376" s="5"/>
+      <c r="B376" s="4"/>
+      <c r="F376" s="6"/>
     </row>
     <row r="377">
-      <c r="F377" s="5"/>
+      <c r="B377" s="4"/>
+      <c r="F377" s="6"/>
     </row>
     <row r="378">
-      <c r="F378" s="5"/>
+      <c r="B378" s="4"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379">
-      <c r="F379" s="5"/>
+      <c r="B379" s="4"/>
+      <c r="F379" s="6"/>
     </row>
     <row r="380">
-      <c r="F380" s="5"/>
+      <c r="B380" s="4"/>
+      <c r="F380" s="6"/>
     </row>
     <row r="381">
-      <c r="F381" s="5"/>
+      <c r="B381" s="4"/>
+      <c r="F381" s="6"/>
     </row>
     <row r="382">
-      <c r="F382" s="5"/>
+      <c r="B382" s="4"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383">
-      <c r="F383" s="5"/>
+      <c r="B383" s="4"/>
+      <c r="F383" s="6"/>
     </row>
     <row r="384">
-      <c r="F384" s="5"/>
+      <c r="B384" s="4"/>
+      <c r="F384" s="6"/>
     </row>
     <row r="385">
-      <c r="F385" s="5"/>
+      <c r="B385" s="4"/>
+      <c r="F385" s="6"/>
     </row>
     <row r="386">
-      <c r="F386" s="5"/>
+      <c r="B386" s="4"/>
+      <c r="F386" s="6"/>
     </row>
     <row r="387">
-      <c r="F387" s="5"/>
+      <c r="B387" s="4"/>
+      <c r="F387" s="6"/>
     </row>
     <row r="388">
-      <c r="F388" s="5"/>
+      <c r="B388" s="4"/>
+      <c r="F388" s="6"/>
     </row>
     <row r="389">
-      <c r="F389" s="5"/>
+      <c r="B389" s="4"/>
+      <c r="F389" s="6"/>
     </row>
     <row r="390">
-      <c r="F390" s="5"/>
+      <c r="B390" s="4"/>
+      <c r="F390" s="6"/>
     </row>
     <row r="391">
-      <c r="F391" s="5"/>
+      <c r="B391" s="4"/>
+      <c r="F391" s="6"/>
     </row>
     <row r="392">
-      <c r="F392" s="5"/>
+      <c r="B392" s="4"/>
+      <c r="F392" s="6"/>
     </row>
     <row r="393">
-      <c r="F393" s="5"/>
+      <c r="B393" s="4"/>
+      <c r="F393" s="6"/>
     </row>
     <row r="394">
-      <c r="F394" s="5"/>
+      <c r="B394" s="4"/>
+      <c r="F394" s="6"/>
     </row>
     <row r="395">
-      <c r="F395" s="5"/>
+      <c r="B395" s="4"/>
+      <c r="F395" s="6"/>
     </row>
     <row r="396">
-      <c r="F396" s="5"/>
+      <c r="B396" s="4"/>
+      <c r="F396" s="6"/>
     </row>
     <row r="397">
-      <c r="F397" s="5"/>
+      <c r="B397" s="4"/>
+      <c r="F397" s="6"/>
     </row>
     <row r="398">
-      <c r="F398" s="5"/>
+      <c r="B398" s="4"/>
+      <c r="F398" s="6"/>
     </row>
     <row r="399">
-      <c r="F399" s="5"/>
+      <c r="B399" s="4"/>
+      <c r="F399" s="6"/>
     </row>
     <row r="400">
-      <c r="F400" s="5"/>
+      <c r="B400" s="4"/>
+      <c r="F400" s="6"/>
     </row>
     <row r="401">
-      <c r="F401" s="5"/>
+      <c r="B401" s="4"/>
+      <c r="F401" s="6"/>
     </row>
     <row r="402">
-      <c r="F402" s="5"/>
+      <c r="B402" s="4"/>
+      <c r="F402" s="6"/>
     </row>
     <row r="403">
-      <c r="F403" s="5"/>
+      <c r="B403" s="4"/>
+      <c r="F403" s="6"/>
     </row>
     <row r="404">
-      <c r="F404" s="5"/>
+      <c r="B404" s="4"/>
+      <c r="F404" s="6"/>
     </row>
     <row r="405">
-      <c r="F405" s="5"/>
+      <c r="B405" s="4"/>
+      <c r="F405" s="6"/>
     </row>
     <row r="406">
-      <c r="F406" s="5"/>
+      <c r="B406" s="4"/>
+      <c r="F406" s="6"/>
     </row>
     <row r="407">
-      <c r="F407" s="5"/>
+      <c r="B407" s="4"/>
+      <c r="F407" s="6"/>
     </row>
     <row r="408">
-      <c r="F408" s="5"/>
+      <c r="B408" s="4"/>
+      <c r="F408" s="6"/>
     </row>
     <row r="409">
-      <c r="F409" s="5"/>
+      <c r="B409" s="4"/>
+      <c r="F409" s="6"/>
     </row>
     <row r="410">
-      <c r="F410" s="5"/>
+      <c r="B410" s="4"/>
+      <c r="F410" s="6"/>
     </row>
     <row r="411">
-      <c r="F411" s="5"/>
+      <c r="B411" s="4"/>
+      <c r="F411" s="6"/>
     </row>
     <row r="412">
-      <c r="F412" s="5"/>
+      <c r="B412" s="4"/>
+      <c r="F412" s="6"/>
     </row>
     <row r="413">
-      <c r="F413" s="5"/>
+      <c r="B413" s="4"/>
+      <c r="F413" s="6"/>
     </row>
     <row r="414">
-      <c r="F414" s="5"/>
+      <c r="B414" s="4"/>
+      <c r="F414" s="6"/>
     </row>
     <row r="415">
-      <c r="F415" s="5"/>
+      <c r="B415" s="4"/>
+      <c r="F415" s="6"/>
     </row>
     <row r="416">
-      <c r="F416" s="5"/>
+      <c r="B416" s="4"/>
+      <c r="F416" s="6"/>
     </row>
     <row r="417">
-      <c r="F417" s="5"/>
+      <c r="B417" s="4"/>
+      <c r="F417" s="6"/>
     </row>
     <row r="418">
-      <c r="F418" s="5"/>
+      <c r="B418" s="4"/>
+      <c r="F418" s="6"/>
     </row>
     <row r="419">
-      <c r="F419" s="5"/>
+      <c r="B419" s="4"/>
+      <c r="F419" s="6"/>
     </row>
     <row r="420">
-      <c r="F420" s="5"/>
+      <c r="B420" s="4"/>
+      <c r="F420" s="6"/>
     </row>
     <row r="421">
-      <c r="F421" s="5"/>
+      <c r="B421" s="4"/>
+      <c r="F421" s="6"/>
     </row>
     <row r="422">
-      <c r="F422" s="5"/>
+      <c r="B422" s="4"/>
+      <c r="F422" s="6"/>
     </row>
     <row r="423">
-      <c r="F423" s="5"/>
+      <c r="B423" s="4"/>
+      <c r="F423" s="6"/>
     </row>
     <row r="424">
-      <c r="F424" s="5"/>
+      <c r="B424" s="4"/>
+      <c r="F424" s="6"/>
     </row>
     <row r="425">
-      <c r="F425" s="5"/>
+      <c r="B425" s="4"/>
+      <c r="F425" s="6"/>
     </row>
     <row r="426">
-      <c r="F426" s="5"/>
+      <c r="B426" s="4"/>
+      <c r="F426" s="6"/>
     </row>
     <row r="427">
-      <c r="F427" s="5"/>
+      <c r="B427" s="4"/>
+      <c r="F427" s="6"/>
     </row>
     <row r="428">
-      <c r="F428" s="5"/>
+      <c r="B428" s="4"/>
+      <c r="F428" s="6"/>
     </row>
     <row r="429">
-      <c r="F429" s="5"/>
+      <c r="B429" s="4"/>
+      <c r="F429" s="6"/>
     </row>
     <row r="430">
-      <c r="F430" s="5"/>
+      <c r="B430" s="4"/>
+      <c r="F430" s="6"/>
     </row>
     <row r="431">
-      <c r="F431" s="5"/>
+      <c r="B431" s="4"/>
+      <c r="F431" s="6"/>
     </row>
     <row r="432">
-      <c r="F432" s="5"/>
+      <c r="B432" s="4"/>
+      <c r="F432" s="6"/>
     </row>
     <row r="433">
-      <c r="F433" s="5"/>
+      <c r="B433" s="4"/>
+      <c r="F433" s="6"/>
     </row>
     <row r="434">
-      <c r="F434" s="5"/>
+      <c r="B434" s="4"/>
+      <c r="F434" s="6"/>
     </row>
     <row r="435">
-      <c r="F435" s="5"/>
+      <c r="B435" s="4"/>
+      <c r="F435" s="6"/>
     </row>
     <row r="436">
-      <c r="F436" s="5"/>
+      <c r="B436" s="4"/>
+      <c r="F436" s="6"/>
     </row>
     <row r="437">
-      <c r="F437" s="5"/>
+      <c r="B437" s="4"/>
+      <c r="F437" s="6"/>
     </row>
     <row r="438">
-      <c r="F438" s="5"/>
+      <c r="B438" s="4"/>
+      <c r="F438" s="6"/>
     </row>
     <row r="439">
-      <c r="F439" s="5"/>
+      <c r="B439" s="4"/>
+      <c r="F439" s="6"/>
     </row>
     <row r="440">
-      <c r="F440" s="5"/>
+      <c r="B440" s="4"/>
+      <c r="F440" s="6"/>
     </row>
     <row r="441">
-      <c r="F441" s="5"/>
+      <c r="B441" s="4"/>
+      <c r="F441" s="6"/>
     </row>
     <row r="442">
-      <c r="F442" s="5"/>
+      <c r="B442" s="4"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443">
-      <c r="F443" s="5"/>
+      <c r="B443" s="4"/>
+      <c r="F443" s="6"/>
     </row>
     <row r="444">
-      <c r="F444" s="5"/>
+      <c r="B444" s="4"/>
+      <c r="F444" s="6"/>
     </row>
     <row r="445">
-      <c r="F445" s="5"/>
+      <c r="B445" s="4"/>
+      <c r="F445" s="6"/>
     </row>
     <row r="446">
-      <c r="F446" s="5"/>
+      <c r="B446" s="4"/>
+      <c r="F446" s="6"/>
     </row>
     <row r="447">
-      <c r="F447" s="5"/>
+      <c r="B447" s="4"/>
+      <c r="F447" s="6"/>
     </row>
     <row r="448">
-      <c r="F448" s="5"/>
+      <c r="B448" s="4"/>
+      <c r="F448" s="6"/>
     </row>
     <row r="449">
-      <c r="F449" s="5"/>
+      <c r="B449" s="4"/>
+      <c r="F449" s="6"/>
     </row>
     <row r="450">
-      <c r="F450" s="5"/>
+      <c r="B450" s="4"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451">
-      <c r="F451" s="5"/>
+      <c r="B451" s="4"/>
+      <c r="F451" s="6"/>
     </row>
     <row r="452">
-      <c r="F452" s="5"/>
+      <c r="B452" s="4"/>
+      <c r="F452" s="6"/>
     </row>
     <row r="453">
-      <c r="F453" s="5"/>
+      <c r="B453" s="4"/>
+      <c r="F453" s="6"/>
     </row>
     <row r="454">
-      <c r="F454" s="5"/>
+      <c r="B454" s="4"/>
+      <c r="F454" s="6"/>
     </row>
     <row r="455">
-      <c r="F455" s="5"/>
+      <c r="B455" s="4"/>
+      <c r="F455" s="6"/>
     </row>
     <row r="456">
-      <c r="F456" s="5"/>
+      <c r="B456" s="4"/>
+      <c r="F456" s="6"/>
     </row>
     <row r="457">
-      <c r="F457" s="5"/>
+      <c r="B457" s="4"/>
+      <c r="F457" s="6"/>
     </row>
     <row r="458">
-      <c r="F458" s="5"/>
+      <c r="B458" s="4"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459">
-      <c r="F459" s="5"/>
+      <c r="B459" s="4"/>
+      <c r="F459" s="6"/>
     </row>
     <row r="460">
-      <c r="F460" s="5"/>
+      <c r="B460" s="4"/>
+      <c r="F460" s="6"/>
     </row>
     <row r="461">
-      <c r="F461" s="5"/>
+      <c r="B461" s="4"/>
+      <c r="F461" s="6"/>
     </row>
     <row r="462">
-      <c r="F462" s="5"/>
+      <c r="B462" s="4"/>
+      <c r="F462" s="6"/>
     </row>
     <row r="463">
-      <c r="F463" s="5"/>
+      <c r="B463" s="4"/>
+      <c r="F463" s="6"/>
     </row>
     <row r="464">
-      <c r="F464" s="5"/>
+      <c r="B464" s="4"/>
+      <c r="F464" s="6"/>
     </row>
     <row r="465">
-      <c r="F465" s="5"/>
+      <c r="B465" s="4"/>
+      <c r="F465" s="6"/>
     </row>
     <row r="466">
-      <c r="F466" s="5"/>
+      <c r="B466" s="4"/>
+      <c r="F466" s="6"/>
     </row>
     <row r="467">
-      <c r="F467" s="5"/>
+      <c r="B467" s="4"/>
+      <c r="F467" s="6"/>
     </row>
     <row r="468">
-      <c r="F468" s="5"/>
+      <c r="B468" s="4"/>
+      <c r="F468" s="6"/>
     </row>
     <row r="469">
-      <c r="F469" s="5"/>
+      <c r="B469" s="4"/>
+      <c r="F469" s="6"/>
     </row>
     <row r="470">
-      <c r="F470" s="5"/>
+      <c r="B470" s="4"/>
+      <c r="F470" s="6"/>
     </row>
     <row r="471">
-      <c r="F471" s="5"/>
+      <c r="B471" s="4"/>
+      <c r="F471" s="6"/>
     </row>
     <row r="472">
-      <c r="F472" s="5"/>
+      <c r="B472" s="4"/>
+      <c r="F472" s="6"/>
     </row>
     <row r="473">
-      <c r="F473" s="5"/>
+      <c r="B473" s="4"/>
+      <c r="F473" s="6"/>
     </row>
     <row r="474">
-      <c r="F474" s="5"/>
+      <c r="B474" s="4"/>
+      <c r="F474" s="6"/>
     </row>
     <row r="475">
-      <c r="F475" s="5"/>
+      <c r="B475" s="4"/>
+      <c r="F475" s="6"/>
     </row>
     <row r="476">
-      <c r="F476" s="5"/>
+      <c r="B476" s="4"/>
+      <c r="F476" s="6"/>
     </row>
     <row r="477">
-      <c r="F477" s="5"/>
+      <c r="B477" s="4"/>
+      <c r="F477" s="6"/>
     </row>
     <row r="478">
-      <c r="F478" s="5"/>
+      <c r="B478" s="4"/>
+      <c r="F478" s="6"/>
     </row>
     <row r="479">
-      <c r="F479" s="5"/>
+      <c r="B479" s="4"/>
+      <c r="F479" s="6"/>
     </row>
     <row r="480">
-      <c r="F480" s="5"/>
+      <c r="B480" s="4"/>
+      <c r="F480" s="6"/>
     </row>
     <row r="481">
-      <c r="F481" s="5"/>
+      <c r="B481" s="4"/>
+      <c r="F481" s="6"/>
     </row>
     <row r="482">
-      <c r="F482" s="5"/>
+      <c r="B482" s="4"/>
+      <c r="F482" s="6"/>
     </row>
     <row r="483">
-      <c r="F483" s="5"/>
+      <c r="B483" s="4"/>
+      <c r="F483" s="6"/>
     </row>
     <row r="484">
-      <c r="F484" s="5"/>
+      <c r="B484" s="4"/>
+      <c r="F484" s="6"/>
     </row>
     <row r="485">
-      <c r="F485" s="5"/>
+      <c r="B485" s="4"/>
+      <c r="F485" s="6"/>
     </row>
     <row r="486">
-      <c r="F486" s="5"/>
+      <c r="B486" s="4"/>
+      <c r="F486" s="6"/>
     </row>
     <row r="487">
-      <c r="F487" s="5"/>
+      <c r="B487" s="4"/>
+      <c r="F487" s="6"/>
     </row>
     <row r="488">
-      <c r="F488" s="5"/>
+      <c r="B488" s="4"/>
+      <c r="F488" s="6"/>
     </row>
     <row r="489">
-      <c r="F489" s="5"/>
+      <c r="B489" s="4"/>
+      <c r="F489" s="6"/>
     </row>
     <row r="490">
-      <c r="F490" s="5"/>
+      <c r="B490" s="4"/>
+      <c r="F490" s="6"/>
     </row>
     <row r="491">
-      <c r="F491" s="5"/>
+      <c r="B491" s="4"/>
+      <c r="F491" s="6"/>
     </row>
     <row r="492">
-      <c r="F492" s="5"/>
+      <c r="B492" s="4"/>
+      <c r="F492" s="6"/>
     </row>
     <row r="493">
-      <c r="F493" s="5"/>
+      <c r="B493" s="4"/>
+      <c r="F493" s="6"/>
     </row>
     <row r="494">
-      <c r="F494" s="5"/>
+      <c r="B494" s="4"/>
+      <c r="F494" s="6"/>
     </row>
     <row r="495">
-      <c r="F495" s="5"/>
+      <c r="B495" s="4"/>
+      <c r="F495" s="6"/>
     </row>
     <row r="496">
-      <c r="F496" s="5"/>
+      <c r="B496" s="4"/>
+      <c r="F496" s="6"/>
     </row>
     <row r="497">
-      <c r="F497" s="5"/>
+      <c r="B497" s="4"/>
+      <c r="F497" s="6"/>
     </row>
     <row r="498">
-      <c r="F498" s="5"/>
+      <c r="B498" s="4"/>
+      <c r="F498" s="6"/>
     </row>
     <row r="499">
-      <c r="F499" s="5"/>
+      <c r="B499" s="4"/>
+      <c r="F499" s="6"/>
     </row>
     <row r="500">
-      <c r="F500" s="5"/>
+      <c r="B500" s="4"/>
+      <c r="F500" s="6"/>
     </row>
     <row r="501">
-      <c r="F501" s="5"/>
+      <c r="B501" s="4"/>
+      <c r="F501" s="6"/>
     </row>
     <row r="502">
-      <c r="F502" s="5"/>
+      <c r="B502" s="4"/>
+      <c r="F502" s="6"/>
     </row>
     <row r="503">
-      <c r="F503" s="5"/>
+      <c r="B503" s="4"/>
+      <c r="F503" s="6"/>
     </row>
     <row r="504">
-      <c r="F504" s="5"/>
+      <c r="B504" s="4"/>
+      <c r="F504" s="6"/>
     </row>
     <row r="505">
-      <c r="F505" s="5"/>
+      <c r="B505" s="4"/>
+      <c r="F505" s="6"/>
     </row>
     <row r="506">
-      <c r="F506" s="5"/>
+      <c r="B506" s="4"/>
+      <c r="F506" s="6"/>
     </row>
     <row r="507">
-      <c r="F507" s="5"/>
+      <c r="B507" s="4"/>
+      <c r="F507" s="6"/>
     </row>
     <row r="508">
-      <c r="F508" s="5"/>
+      <c r="B508" s="4"/>
+      <c r="F508" s="6"/>
     </row>
     <row r="509">
-      <c r="F509" s="5"/>
+      <c r="B509" s="4"/>
+      <c r="F509" s="6"/>
     </row>
     <row r="510">
-      <c r="F510" s="5"/>
+      <c r="B510" s="4"/>
+      <c r="F510" s="6"/>
     </row>
     <row r="511">
-      <c r="F511" s="5"/>
-    </row>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-    <row r="576"/>
-    <row r="577"/>
-    <row r="578"/>
-    <row r="579"/>
-    <row r="580"/>
-    <row r="581"/>
-    <row r="582"/>
-    <row r="583"/>
-    <row r="584"/>
-    <row r="585"/>
-    <row r="586"/>
-    <row r="587"/>
-    <row r="588"/>
-    <row r="589"/>
-    <row r="590"/>
-    <row r="591"/>
-    <row r="592"/>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595"/>
-    <row r="596"/>
-    <row r="597"/>
-    <row r="598"/>
-    <row r="599"/>
-    <row r="600"/>
-    <row r="601"/>
-    <row r="602"/>
-    <row r="603"/>
-    <row r="604"/>
-    <row r="605"/>
-    <row r="606"/>
-    <row r="607"/>
-    <row r="608"/>
-    <row r="609"/>
-    <row r="610"/>
-    <row r="611"/>
-    <row r="612"/>
-    <row r="613"/>
-    <row r="614"/>
-    <row r="615"/>
-    <row r="616"/>
-    <row r="617"/>
-    <row r="618"/>
-    <row r="619"/>
-    <row r="620"/>
-    <row r="621"/>
-    <row r="622"/>
-    <row r="623"/>
-    <row r="624"/>
-    <row r="625"/>
-    <row r="626"/>
-    <row r="627"/>
-    <row r="628"/>
-    <row r="629"/>
-    <row r="630"/>
-    <row r="631"/>
-    <row r="632"/>
-    <row r="633"/>
-    <row r="634"/>
-    <row r="635"/>
-    <row r="636"/>
-    <row r="637"/>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642"/>
-    <row r="643"/>
-    <row r="644"/>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
+      <c r="B511" s="4"/>
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A658">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2344,6 +3153,11 @@
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B658">
+      <formula1>'Dynamic Data'!$A$1:$A$1000</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2352,6 +3166,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryRight="0"/>
@@ -2409,2507 +3237,2507 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
-      <c r="B22" s="6"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23">
-      <c r="B23" s="6"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24">
-      <c r="B24" s="6"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25">
-      <c r="B25" s="6"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26">
-      <c r="B26" s="6"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27">
-      <c r="B27" s="6"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28">
-      <c r="B28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29">
-      <c r="B29" s="6"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30">
-      <c r="B30" s="6"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31">
-      <c r="B31" s="6"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32">
-      <c r="B32" s="6"/>
-      <c r="F32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33">
-      <c r="B33" s="6"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34">
-      <c r="B34" s="6"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35">
-      <c r="B35" s="6"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36">
-      <c r="B36" s="6"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37">
-      <c r="B37" s="6"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="6"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39">
-      <c r="B39" s="6"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40">
-      <c r="B40" s="6"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41">
-      <c r="B41" s="6"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42">
-      <c r="B42" s="6"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43">
-      <c r="B43" s="6"/>
-      <c r="F43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44">
-      <c r="B44" s="6"/>
-      <c r="F44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45">
-      <c r="B45" s="6"/>
-      <c r="F45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46">
-      <c r="B46" s="6"/>
-      <c r="F46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
-      <c r="F47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
-      <c r="F48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49">
-      <c r="B49" s="6"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50">
-      <c r="B50" s="6"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51">
-      <c r="B51" s="6"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52">
-      <c r="B52" s="6"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53">
-      <c r="B53" s="6"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54">
-      <c r="B54" s="6"/>
-      <c r="F54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55">
-      <c r="B55" s="6"/>
-      <c r="F55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56">
-      <c r="B56" s="6"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57">
-      <c r="B57" s="6"/>
-      <c r="F57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58">
-      <c r="B58" s="6"/>
-      <c r="F58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59">
-      <c r="B59" s="6"/>
-      <c r="F59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60">
-      <c r="B60" s="6"/>
-      <c r="F60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61">
-      <c r="B61" s="6"/>
-      <c r="F61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62">
-      <c r="B62" s="6"/>
-      <c r="F62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63">
-      <c r="B63" s="6"/>
-      <c r="F63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64">
-      <c r="B64" s="6"/>
-      <c r="F64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65">
-      <c r="B65" s="6"/>
-      <c r="F65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66">
-      <c r="B66" s="6"/>
-      <c r="F66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67">
-      <c r="B67" s="6"/>
-      <c r="F67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68">
-      <c r="B68" s="6"/>
-      <c r="F68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69">
-      <c r="B69" s="6"/>
-      <c r="F69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70">
-      <c r="B70" s="6"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71">
-      <c r="B71" s="6"/>
-      <c r="F71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72">
-      <c r="B72" s="6"/>
-      <c r="F72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73">
-      <c r="B73" s="6"/>
-      <c r="F73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74">
-      <c r="B74" s="6"/>
-      <c r="F74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75">
-      <c r="B75" s="6"/>
-      <c r="F75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76">
-      <c r="B76" s="6"/>
-      <c r="F76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77">
-      <c r="B77" s="6"/>
-      <c r="F77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78">
-      <c r="B78" s="6"/>
-      <c r="F78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79">
-      <c r="B79" s="6"/>
-      <c r="F79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80">
-      <c r="B80" s="6"/>
-      <c r="F80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81">
-      <c r="B81" s="6"/>
-      <c r="F81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82">
-      <c r="B82" s="6"/>
-      <c r="F82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83">
-      <c r="B83" s="6"/>
-      <c r="F83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84">
-      <c r="B84" s="6"/>
-      <c r="F84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85">
-      <c r="B85" s="6"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86">
-      <c r="B86" s="6"/>
-      <c r="F86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87">
-      <c r="B87" s="6"/>
-      <c r="F87" s="5"/>
+      <c r="B87" s="4"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88">
-      <c r="B88" s="6"/>
-      <c r="F88" s="5"/>
+      <c r="B88" s="4"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89">
-      <c r="B89" s="6"/>
-      <c r="F89" s="5"/>
+      <c r="B89" s="4"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90">
-      <c r="B90" s="6"/>
-      <c r="F90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91">
-      <c r="B91" s="6"/>
-      <c r="F91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92">
-      <c r="B92" s="6"/>
-      <c r="F92" s="5"/>
+      <c r="B92" s="4"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93">
-      <c r="B93" s="6"/>
-      <c r="F93" s="5"/>
+      <c r="B93" s="4"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94">
-      <c r="B94" s="6"/>
-      <c r="F94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95">
-      <c r="B95" s="6"/>
-      <c r="F95" s="5"/>
+      <c r="B95" s="4"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96">
-      <c r="B96" s="6"/>
-      <c r="F96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97">
-      <c r="B97" s="6"/>
-      <c r="F97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98">
-      <c r="B98" s="6"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99">
-      <c r="B99" s="6"/>
-      <c r="F99" s="5"/>
+      <c r="B99" s="4"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100">
-      <c r="B100" s="6"/>
-      <c r="F100" s="5"/>
+      <c r="B100" s="4"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101">
-      <c r="B101" s="6"/>
-      <c r="F101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102">
-      <c r="B102" s="6"/>
-      <c r="F102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103">
-      <c r="B103" s="6"/>
-      <c r="F103" s="5"/>
+      <c r="B103" s="4"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104">
-      <c r="B104" s="6"/>
-      <c r="F104" s="5"/>
+      <c r="B104" s="4"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105">
-      <c r="B105" s="6"/>
-      <c r="F105" s="5"/>
+      <c r="B105" s="4"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106">
-      <c r="B106" s="6"/>
-      <c r="F106" s="5"/>
+      <c r="B106" s="4"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107">
-      <c r="B107" s="6"/>
-      <c r="F107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108">
-      <c r="B108" s="6"/>
-      <c r="F108" s="5"/>
+      <c r="B108" s="4"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109">
-      <c r="B109" s="6"/>
-      <c r="F109" s="5"/>
+      <c r="B109" s="4"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110">
-      <c r="B110" s="6"/>
-      <c r="F110" s="5"/>
+      <c r="B110" s="4"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111">
-      <c r="B111" s="6"/>
-      <c r="F111" s="5"/>
+      <c r="B111" s="4"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112">
-      <c r="B112" s="6"/>
-      <c r="F112" s="5"/>
+      <c r="B112" s="4"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113">
-      <c r="B113" s="6"/>
-      <c r="F113" s="5"/>
+      <c r="B113" s="4"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114">
-      <c r="B114" s="6"/>
-      <c r="F114" s="5"/>
+      <c r="B114" s="4"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115">
-      <c r="B115" s="6"/>
-      <c r="F115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116">
-      <c r="B116" s="6"/>
-      <c r="F116" s="5"/>
+      <c r="B116" s="4"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117">
-      <c r="B117" s="6"/>
-      <c r="F117" s="5"/>
+      <c r="B117" s="4"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118">
-      <c r="B118" s="6"/>
-      <c r="F118" s="5"/>
+      <c r="B118" s="4"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119">
-      <c r="B119" s="6"/>
-      <c r="F119" s="5"/>
+      <c r="B119" s="4"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120">
-      <c r="B120" s="6"/>
-      <c r="F120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121">
-      <c r="B121" s="6"/>
-      <c r="F121" s="5"/>
+      <c r="B121" s="4"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122">
-      <c r="B122" s="6"/>
-      <c r="F122" s="5"/>
+      <c r="B122" s="4"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123">
-      <c r="B123" s="6"/>
-      <c r="F123" s="5"/>
+      <c r="B123" s="4"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124">
-      <c r="B124" s="6"/>
-      <c r="F124" s="5"/>
+      <c r="B124" s="4"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125">
-      <c r="B125" s="6"/>
-      <c r="F125" s="5"/>
+      <c r="B125" s="4"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126">
-      <c r="B126" s="6"/>
-      <c r="F126" s="5"/>
+      <c r="B126" s="4"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127">
-      <c r="B127" s="6"/>
-      <c r="F127" s="5"/>
+      <c r="B127" s="4"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128">
-      <c r="B128" s="6"/>
-      <c r="F128" s="5"/>
+      <c r="B128" s="4"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129">
-      <c r="B129" s="6"/>
-      <c r="F129" s="5"/>
+      <c r="B129" s="4"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130">
-      <c r="B130" s="6"/>
-      <c r="F130" s="5"/>
+      <c r="B130" s="4"/>
+      <c r="F130" s="6"/>
     </row>
     <row r="131">
-      <c r="B131" s="6"/>
-      <c r="F131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132">
-      <c r="B132" s="6"/>
-      <c r="F132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133">
-      <c r="B133" s="6"/>
-      <c r="F133" s="5"/>
+      <c r="B133" s="4"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134">
-      <c r="B134" s="6"/>
-      <c r="F134" s="5"/>
+      <c r="B134" s="4"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135">
-      <c r="B135" s="6"/>
-      <c r="F135" s="5"/>
+      <c r="B135" s="4"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136">
-      <c r="B136" s="6"/>
-      <c r="F136" s="5"/>
+      <c r="B136" s="4"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137">
-      <c r="B137" s="6"/>
-      <c r="F137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138">
-      <c r="B138" s="6"/>
-      <c r="F138" s="5"/>
+      <c r="B138" s="4"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139">
-      <c r="B139" s="6"/>
-      <c r="F139" s="5"/>
+      <c r="B139" s="4"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140">
-      <c r="B140" s="6"/>
-      <c r="F140" s="5"/>
+      <c r="B140" s="4"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141">
-      <c r="B141" s="6"/>
-      <c r="F141" s="5"/>
+      <c r="B141" s="4"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142">
-      <c r="B142" s="6"/>
-      <c r="F142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143">
-      <c r="B143" s="6"/>
-      <c r="F143" s="5"/>
+      <c r="B143" s="4"/>
+      <c r="F143" s="6"/>
     </row>
     <row r="144">
-      <c r="B144" s="6"/>
-      <c r="F144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="F144" s="6"/>
     </row>
     <row r="145">
-      <c r="B145" s="6"/>
-      <c r="F145" s="5"/>
+      <c r="B145" s="4"/>
+      <c r="F145" s="6"/>
     </row>
     <row r="146">
-      <c r="B146" s="6"/>
-      <c r="F146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147">
-      <c r="B147" s="6"/>
-      <c r="F147" s="5"/>
+      <c r="B147" s="4"/>
+      <c r="F147" s="6"/>
     </row>
     <row r="148">
-      <c r="B148" s="6"/>
-      <c r="F148" s="5"/>
+      <c r="B148" s="4"/>
+      <c r="F148" s="6"/>
     </row>
     <row r="149">
-      <c r="B149" s="6"/>
-      <c r="F149" s="5"/>
+      <c r="B149" s="4"/>
+      <c r="F149" s="6"/>
     </row>
     <row r="150">
-      <c r="B150" s="6"/>
-      <c r="F150" s="5"/>
+      <c r="B150" s="4"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151">
-      <c r="B151" s="6"/>
-      <c r="F151" s="5"/>
+      <c r="B151" s="4"/>
+      <c r="F151" s="6"/>
     </row>
     <row r="152">
-      <c r="B152" s="6"/>
-      <c r="F152" s="5"/>
+      <c r="B152" s="4"/>
+      <c r="F152" s="6"/>
     </row>
     <row r="153">
-      <c r="B153" s="6"/>
-      <c r="F153" s="5"/>
+      <c r="B153" s="4"/>
+      <c r="F153" s="6"/>
     </row>
     <row r="154">
-      <c r="B154" s="6"/>
-      <c r="F154" s="5"/>
+      <c r="B154" s="4"/>
+      <c r="F154" s="6"/>
     </row>
     <row r="155">
-      <c r="B155" s="6"/>
-      <c r="F155" s="5"/>
+      <c r="B155" s="4"/>
+      <c r="F155" s="6"/>
     </row>
     <row r="156">
-      <c r="B156" s="6"/>
-      <c r="F156" s="5"/>
+      <c r="B156" s="4"/>
+      <c r="F156" s="6"/>
     </row>
     <row r="157">
-      <c r="B157" s="6"/>
-      <c r="F157" s="5"/>
+      <c r="B157" s="4"/>
+      <c r="F157" s="6"/>
     </row>
     <row r="158">
-      <c r="B158" s="6"/>
-      <c r="F158" s="5"/>
+      <c r="B158" s="4"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159">
-      <c r="B159" s="6"/>
-      <c r="F159" s="5"/>
+      <c r="B159" s="4"/>
+      <c r="F159" s="6"/>
     </row>
     <row r="160">
-      <c r="B160" s="6"/>
-      <c r="F160" s="5"/>
+      <c r="B160" s="4"/>
+      <c r="F160" s="6"/>
     </row>
     <row r="161">
-      <c r="B161" s="6"/>
-      <c r="F161" s="5"/>
+      <c r="B161" s="4"/>
+      <c r="F161" s="6"/>
     </row>
     <row r="162">
-      <c r="B162" s="6"/>
-      <c r="F162" s="5"/>
+      <c r="B162" s="4"/>
+      <c r="F162" s="6"/>
     </row>
     <row r="163">
-      <c r="B163" s="6"/>
-      <c r="F163" s="5"/>
+      <c r="B163" s="4"/>
+      <c r="F163" s="6"/>
     </row>
     <row r="164">
-      <c r="B164" s="6"/>
-      <c r="F164" s="5"/>
+      <c r="B164" s="4"/>
+      <c r="F164" s="6"/>
     </row>
     <row r="165">
-      <c r="B165" s="6"/>
-      <c r="F165" s="5"/>
+      <c r="B165" s="4"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166">
-      <c r="B166" s="6"/>
-      <c r="F166" s="5"/>
+      <c r="B166" s="4"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167">
-      <c r="B167" s="6"/>
-      <c r="F167" s="5"/>
+      <c r="B167" s="4"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168">
-      <c r="B168" s="6"/>
-      <c r="F168" s="5"/>
+      <c r="B168" s="4"/>
+      <c r="F168" s="6"/>
     </row>
     <row r="169">
-      <c r="B169" s="6"/>
-      <c r="F169" s="5"/>
+      <c r="B169" s="4"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170">
-      <c r="B170" s="6"/>
-      <c r="F170" s="5"/>
+      <c r="B170" s="4"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171">
-      <c r="B171" s="6"/>
-      <c r="F171" s="5"/>
+      <c r="B171" s="4"/>
+      <c r="F171" s="6"/>
     </row>
     <row r="172">
-      <c r="B172" s="6"/>
-      <c r="F172" s="5"/>
+      <c r="B172" s="4"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173">
-      <c r="B173" s="6"/>
-      <c r="F173" s="5"/>
+      <c r="B173" s="4"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174">
-      <c r="B174" s="6"/>
-      <c r="F174" s="5"/>
+      <c r="B174" s="4"/>
+      <c r="F174" s="6"/>
     </row>
     <row r="175">
-      <c r="B175" s="6"/>
-      <c r="F175" s="5"/>
+      <c r="B175" s="4"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176">
-      <c r="B176" s="6"/>
-      <c r="F176" s="5"/>
+      <c r="B176" s="4"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177">
-      <c r="B177" s="6"/>
-      <c r="F177" s="5"/>
+      <c r="B177" s="4"/>
+      <c r="F177" s="6"/>
     </row>
     <row r="178">
-      <c r="B178" s="6"/>
-      <c r="F178" s="5"/>
+      <c r="B178" s="4"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179">
-      <c r="B179" s="6"/>
-      <c r="F179" s="5"/>
+      <c r="B179" s="4"/>
+      <c r="F179" s="6"/>
     </row>
     <row r="180">
-      <c r="B180" s="6"/>
-      <c r="F180" s="5"/>
+      <c r="B180" s="4"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181">
-      <c r="B181" s="6"/>
-      <c r="F181" s="5"/>
+      <c r="B181" s="4"/>
+      <c r="F181" s="6"/>
     </row>
     <row r="182">
-      <c r="B182" s="6"/>
-      <c r="F182" s="5"/>
+      <c r="B182" s="4"/>
+      <c r="F182" s="6"/>
     </row>
     <row r="183">
-      <c r="B183" s="6"/>
-      <c r="F183" s="5"/>
+      <c r="B183" s="4"/>
+      <c r="F183" s="6"/>
     </row>
     <row r="184">
-      <c r="B184" s="6"/>
-      <c r="F184" s="5"/>
+      <c r="B184" s="4"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185">
-      <c r="B185" s="6"/>
-      <c r="F185" s="5"/>
+      <c r="B185" s="4"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186">
-      <c r="B186" s="6"/>
-      <c r="F186" s="5"/>
+      <c r="B186" s="4"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187">
-      <c r="B187" s="6"/>
-      <c r="F187" s="5"/>
+      <c r="B187" s="4"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188">
-      <c r="B188" s="6"/>
-      <c r="F188" s="5"/>
+      <c r="B188" s="4"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189">
-      <c r="B189" s="6"/>
-      <c r="F189" s="5"/>
+      <c r="B189" s="4"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190">
-      <c r="B190" s="6"/>
-      <c r="F190" s="5"/>
+      <c r="B190" s="4"/>
+      <c r="F190" s="6"/>
     </row>
     <row r="191">
-      <c r="B191" s="6"/>
-      <c r="F191" s="5"/>
+      <c r="B191" s="4"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192">
-      <c r="B192" s="6"/>
-      <c r="F192" s="5"/>
+      <c r="B192" s="4"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193">
-      <c r="B193" s="6"/>
-      <c r="F193" s="5"/>
+      <c r="B193" s="4"/>
+      <c r="F193" s="6"/>
     </row>
     <row r="194">
-      <c r="B194" s="6"/>
-      <c r="F194" s="5"/>
+      <c r="B194" s="4"/>
+      <c r="F194" s="6"/>
     </row>
     <row r="195">
-      <c r="B195" s="6"/>
-      <c r="F195" s="5"/>
+      <c r="B195" s="4"/>
+      <c r="F195" s="6"/>
     </row>
     <row r="196">
-      <c r="B196" s="6"/>
-      <c r="F196" s="5"/>
+      <c r="B196" s="4"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197">
-      <c r="B197" s="6"/>
-      <c r="F197" s="5"/>
+      <c r="B197" s="4"/>
+      <c r="F197" s="6"/>
     </row>
     <row r="198">
-      <c r="B198" s="6"/>
-      <c r="F198" s="5"/>
+      <c r="B198" s="4"/>
+      <c r="F198" s="6"/>
     </row>
     <row r="199">
-      <c r="B199" s="6"/>
-      <c r="F199" s="5"/>
+      <c r="B199" s="4"/>
+      <c r="F199" s="6"/>
     </row>
     <row r="200">
-      <c r="B200" s="6"/>
-      <c r="F200" s="5"/>
+      <c r="B200" s="4"/>
+      <c r="F200" s="6"/>
     </row>
     <row r="201">
-      <c r="B201" s="6"/>
-      <c r="F201" s="5"/>
+      <c r="B201" s="4"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202">
-      <c r="B202" s="6"/>
-      <c r="F202" s="5"/>
+      <c r="B202" s="4"/>
+      <c r="F202" s="6"/>
     </row>
     <row r="203">
-      <c r="B203" s="6"/>
-      <c r="F203" s="5"/>
+      <c r="B203" s="4"/>
+      <c r="F203" s="6"/>
     </row>
     <row r="204">
-      <c r="B204" s="6"/>
-      <c r="F204" s="5"/>
+      <c r="B204" s="4"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205">
-      <c r="B205" s="6"/>
-      <c r="F205" s="5"/>
+      <c r="B205" s="4"/>
+      <c r="F205" s="6"/>
     </row>
     <row r="206">
-      <c r="B206" s="6"/>
-      <c r="F206" s="5"/>
+      <c r="B206" s="4"/>
+      <c r="F206" s="6"/>
     </row>
     <row r="207">
-      <c r="B207" s="6"/>
-      <c r="F207" s="5"/>
+      <c r="B207" s="4"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208">
-      <c r="B208" s="6"/>
-      <c r="F208" s="5"/>
+      <c r="B208" s="4"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209">
-      <c r="B209" s="6"/>
-      <c r="F209" s="5"/>
+      <c r="B209" s="4"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210">
-      <c r="B210" s="6"/>
-      <c r="F210" s="5"/>
+      <c r="B210" s="4"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211">
-      <c r="B211" s="6"/>
-      <c r="F211" s="5"/>
+      <c r="B211" s="4"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212">
-      <c r="B212" s="6"/>
-      <c r="F212" s="5"/>
+      <c r="B212" s="4"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213">
-      <c r="B213" s="6"/>
-      <c r="F213" s="5"/>
+      <c r="B213" s="4"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214">
-      <c r="B214" s="6"/>
-      <c r="F214" s="5"/>
+      <c r="B214" s="4"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215">
-      <c r="B215" s="6"/>
-      <c r="F215" s="5"/>
+      <c r="B215" s="4"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216">
-      <c r="B216" s="6"/>
-      <c r="F216" s="5"/>
+      <c r="B216" s="4"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217">
-      <c r="B217" s="6"/>
-      <c r="F217" s="5"/>
+      <c r="B217" s="4"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218">
-      <c r="B218" s="6"/>
-      <c r="F218" s="5"/>
+      <c r="B218" s="4"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219">
-      <c r="B219" s="6"/>
-      <c r="F219" s="5"/>
+      <c r="B219" s="4"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220">
-      <c r="B220" s="6"/>
-      <c r="F220" s="5"/>
+      <c r="B220" s="4"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221">
-      <c r="B221" s="6"/>
-      <c r="F221" s="5"/>
+      <c r="B221" s="4"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222">
-      <c r="B222" s="6"/>
-      <c r="F222" s="5"/>
+      <c r="B222" s="4"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223">
-      <c r="B223" s="6"/>
-      <c r="F223" s="5"/>
+      <c r="B223" s="4"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224">
-      <c r="B224" s="6"/>
-      <c r="F224" s="5"/>
+      <c r="B224" s="4"/>
+      <c r="F224" s="6"/>
     </row>
     <row r="225">
-      <c r="B225" s="6"/>
-      <c r="F225" s="5"/>
+      <c r="B225" s="4"/>
+      <c r="F225" s="6"/>
     </row>
     <row r="226">
-      <c r="B226" s="6"/>
-      <c r="F226" s="5"/>
+      <c r="B226" s="4"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227">
-      <c r="B227" s="6"/>
-      <c r="F227" s="5"/>
+      <c r="B227" s="4"/>
+      <c r="F227" s="6"/>
     </row>
     <row r="228">
-      <c r="B228" s="6"/>
-      <c r="F228" s="5"/>
+      <c r="B228" s="4"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229">
-      <c r="B229" s="6"/>
-      <c r="F229" s="5"/>
+      <c r="B229" s="4"/>
+      <c r="F229" s="6"/>
     </row>
     <row r="230">
-      <c r="B230" s="6"/>
-      <c r="F230" s="5"/>
+      <c r="B230" s="4"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231">
-      <c r="B231" s="6"/>
-      <c r="F231" s="5"/>
+      <c r="B231" s="4"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232">
-      <c r="B232" s="6"/>
-      <c r="F232" s="5"/>
+      <c r="B232" s="4"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233">
-      <c r="B233" s="6"/>
-      <c r="F233" s="5"/>
+      <c r="B233" s="4"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234">
-      <c r="B234" s="6"/>
-      <c r="F234" s="5"/>
+      <c r="B234" s="4"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235">
-      <c r="B235" s="6"/>
-      <c r="F235" s="5"/>
+      <c r="B235" s="4"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236">
-      <c r="B236" s="6"/>
-      <c r="F236" s="5"/>
+      <c r="B236" s="4"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237">
-      <c r="B237" s="6"/>
-      <c r="F237" s="5"/>
+      <c r="B237" s="4"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238">
-      <c r="B238" s="6"/>
-      <c r="F238" s="5"/>
+      <c r="B238" s="4"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239">
-      <c r="B239" s="6"/>
-      <c r="F239" s="5"/>
+      <c r="B239" s="4"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240">
-      <c r="B240" s="6"/>
-      <c r="F240" s="5"/>
+      <c r="B240" s="4"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241">
-      <c r="B241" s="6"/>
-      <c r="F241" s="5"/>
+      <c r="B241" s="4"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242">
-      <c r="B242" s="6"/>
-      <c r="F242" s="5"/>
+      <c r="B242" s="4"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243">
-      <c r="B243" s="6"/>
-      <c r="F243" s="5"/>
+      <c r="B243" s="4"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244">
-      <c r="B244" s="6"/>
-      <c r="F244" s="5"/>
+      <c r="B244" s="4"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245">
-      <c r="B245" s="6"/>
-      <c r="F245" s="5"/>
+      <c r="B245" s="4"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246">
-      <c r="B246" s="6"/>
-      <c r="F246" s="5"/>
+      <c r="B246" s="4"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247">
-      <c r="B247" s="6"/>
-      <c r="F247" s="5"/>
+      <c r="B247" s="4"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248">
-      <c r="B248" s="6"/>
-      <c r="F248" s="5"/>
+      <c r="B248" s="4"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249">
-      <c r="B249" s="6"/>
-      <c r="F249" s="5"/>
+      <c r="B249" s="4"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250">
-      <c r="B250" s="6"/>
-      <c r="F250" s="5"/>
+      <c r="B250" s="4"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251">
-      <c r="B251" s="6"/>
-      <c r="F251" s="5"/>
+      <c r="B251" s="4"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252">
-      <c r="B252" s="6"/>
-      <c r="F252" s="5"/>
+      <c r="B252" s="4"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253">
-      <c r="B253" s="6"/>
-      <c r="F253" s="5"/>
+      <c r="B253" s="4"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254">
-      <c r="B254" s="6"/>
-      <c r="F254" s="5"/>
+      <c r="B254" s="4"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255">
-      <c r="B255" s="6"/>
-      <c r="F255" s="5"/>
+      <c r="B255" s="4"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256">
-      <c r="B256" s="6"/>
-      <c r="F256" s="5"/>
+      <c r="B256" s="4"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257">
-      <c r="B257" s="6"/>
-      <c r="F257" s="5"/>
+      <c r="B257" s="4"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258">
-      <c r="B258" s="6"/>
-      <c r="F258" s="5"/>
+      <c r="B258" s="4"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259">
-      <c r="B259" s="6"/>
-      <c r="F259" s="5"/>
+      <c r="B259" s="4"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260">
-      <c r="B260" s="6"/>
-      <c r="F260" s="5"/>
+      <c r="B260" s="4"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261">
-      <c r="B261" s="6"/>
-      <c r="F261" s="5"/>
+      <c r="B261" s="4"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262">
-      <c r="B262" s="6"/>
-      <c r="F262" s="5"/>
+      <c r="B262" s="4"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263">
-      <c r="B263" s="6"/>
-      <c r="F263" s="5"/>
+      <c r="B263" s="4"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264">
-      <c r="B264" s="6"/>
-      <c r="F264" s="5"/>
+      <c r="B264" s="4"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265">
-      <c r="B265" s="6"/>
-      <c r="F265" s="5"/>
+      <c r="B265" s="4"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266">
-      <c r="B266" s="6"/>
-      <c r="F266" s="5"/>
+      <c r="B266" s="4"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267">
-      <c r="B267" s="6"/>
-      <c r="F267" s="5"/>
+      <c r="B267" s="4"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268">
-      <c r="B268" s="6"/>
-      <c r="F268" s="5"/>
+      <c r="B268" s="4"/>
+      <c r="F268" s="6"/>
     </row>
     <row r="269">
-      <c r="B269" s="6"/>
-      <c r="F269" s="5"/>
+      <c r="B269" s="4"/>
+      <c r="F269" s="6"/>
     </row>
     <row r="270">
-      <c r="B270" s="6"/>
-      <c r="F270" s="5"/>
+      <c r="B270" s="4"/>
+      <c r="F270" s="6"/>
     </row>
     <row r="271">
-      <c r="B271" s="6"/>
-      <c r="F271" s="5"/>
+      <c r="B271" s="4"/>
+      <c r="F271" s="6"/>
     </row>
     <row r="272">
-      <c r="B272" s="6"/>
-      <c r="F272" s="5"/>
+      <c r="B272" s="4"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273">
-      <c r="B273" s="6"/>
-      <c r="F273" s="5"/>
+      <c r="B273" s="4"/>
+      <c r="F273" s="6"/>
     </row>
     <row r="274">
-      <c r="B274" s="6"/>
-      <c r="F274" s="5"/>
+      <c r="B274" s="4"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275">
-      <c r="B275" s="6"/>
-      <c r="F275" s="5"/>
+      <c r="B275" s="4"/>
+      <c r="F275" s="6"/>
     </row>
     <row r="276">
-      <c r="B276" s="6"/>
-      <c r="F276" s="5"/>
+      <c r="B276" s="4"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277">
-      <c r="B277" s="6"/>
-      <c r="F277" s="5"/>
+      <c r="B277" s="4"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278">
-      <c r="B278" s="6"/>
-      <c r="F278" s="5"/>
+      <c r="B278" s="4"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279">
-      <c r="B279" s="6"/>
-      <c r="F279" s="5"/>
+      <c r="B279" s="4"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280">
-      <c r="B280" s="6"/>
-      <c r="F280" s="5"/>
+      <c r="B280" s="4"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281">
-      <c r="B281" s="6"/>
-      <c r="F281" s="5"/>
+      <c r="B281" s="4"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282">
-      <c r="B282" s="6"/>
-      <c r="F282" s="5"/>
+      <c r="B282" s="4"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283">
-      <c r="B283" s="6"/>
-      <c r="F283" s="5"/>
+      <c r="B283" s="4"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284">
-      <c r="B284" s="6"/>
-      <c r="F284" s="5"/>
+      <c r="B284" s="4"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285">
-      <c r="B285" s="6"/>
-      <c r="F285" s="5"/>
+      <c r="B285" s="4"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286">
-      <c r="B286" s="6"/>
-      <c r="F286" s="5"/>
+      <c r="B286" s="4"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287">
-      <c r="B287" s="6"/>
-      <c r="F287" s="5"/>
+      <c r="B287" s="4"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288">
-      <c r="B288" s="6"/>
-      <c r="F288" s="5"/>
+      <c r="B288" s="4"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289">
-      <c r="B289" s="6"/>
-      <c r="F289" s="5"/>
+      <c r="B289" s="4"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290">
-      <c r="B290" s="6"/>
-      <c r="F290" s="5"/>
+      <c r="B290" s="4"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291">
-      <c r="B291" s="6"/>
-      <c r="F291" s="5"/>
+      <c r="B291" s="4"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292">
-      <c r="B292" s="6"/>
-      <c r="F292" s="5"/>
+      <c r="B292" s="4"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293">
-      <c r="B293" s="6"/>
-      <c r="F293" s="5"/>
+      <c r="B293" s="4"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294">
-      <c r="B294" s="6"/>
-      <c r="F294" s="5"/>
+      <c r="B294" s="4"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295">
-      <c r="B295" s="6"/>
-      <c r="F295" s="5"/>
+      <c r="B295" s="4"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296">
-      <c r="B296" s="6"/>
-      <c r="F296" s="5"/>
+      <c r="B296" s="4"/>
+      <c r="F296" s="6"/>
     </row>
     <row r="297">
-      <c r="B297" s="6"/>
-      <c r="F297" s="5"/>
+      <c r="B297" s="4"/>
+      <c r="F297" s="6"/>
     </row>
     <row r="298">
-      <c r="B298" s="6"/>
-      <c r="F298" s="5"/>
+      <c r="B298" s="4"/>
+      <c r="F298" s="6"/>
     </row>
     <row r="299">
-      <c r="B299" s="6"/>
-      <c r="F299" s="5"/>
+      <c r="B299" s="4"/>
+      <c r="F299" s="6"/>
     </row>
     <row r="300">
-      <c r="B300" s="6"/>
-      <c r="F300" s="5"/>
+      <c r="B300" s="4"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301">
-      <c r="B301" s="6"/>
-      <c r="F301" s="5"/>
+      <c r="B301" s="4"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302">
-      <c r="B302" s="6"/>
-      <c r="F302" s="5"/>
+      <c r="B302" s="4"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303">
-      <c r="B303" s="6"/>
-      <c r="F303" s="5"/>
+      <c r="B303" s="4"/>
+      <c r="F303" s="6"/>
     </row>
     <row r="304">
-      <c r="B304" s="6"/>
-      <c r="F304" s="5"/>
+      <c r="B304" s="4"/>
+      <c r="F304" s="6"/>
     </row>
     <row r="305">
-      <c r="B305" s="6"/>
-      <c r="F305" s="5"/>
+      <c r="B305" s="4"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306">
-      <c r="B306" s="6"/>
-      <c r="F306" s="5"/>
+      <c r="B306" s="4"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307">
-      <c r="B307" s="6"/>
-      <c r="F307" s="5"/>
+      <c r="B307" s="4"/>
+      <c r="F307" s="6"/>
     </row>
     <row r="308">
-      <c r="B308" s="6"/>
-      <c r="F308" s="5"/>
+      <c r="B308" s="4"/>
+      <c r="F308" s="6"/>
     </row>
     <row r="309">
-      <c r="B309" s="6"/>
-      <c r="F309" s="5"/>
+      <c r="B309" s="4"/>
+      <c r="F309" s="6"/>
     </row>
     <row r="310">
-      <c r="B310" s="6"/>
-      <c r="F310" s="5"/>
+      <c r="B310" s="4"/>
+      <c r="F310" s="6"/>
     </row>
     <row r="311">
-      <c r="B311" s="6"/>
-      <c r="F311" s="5"/>
+      <c r="B311" s="4"/>
+      <c r="F311" s="6"/>
     </row>
     <row r="312">
-      <c r="B312" s="6"/>
-      <c r="F312" s="5"/>
+      <c r="B312" s="4"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313">
-      <c r="B313" s="6"/>
-      <c r="F313" s="5"/>
+      <c r="B313" s="4"/>
+      <c r="F313" s="6"/>
     </row>
     <row r="314">
-      <c r="B314" s="6"/>
-      <c r="F314" s="5"/>
+      <c r="B314" s="4"/>
+      <c r="F314" s="6"/>
     </row>
     <row r="315">
-      <c r="B315" s="6"/>
-      <c r="F315" s="5"/>
+      <c r="B315" s="4"/>
+      <c r="F315" s="6"/>
     </row>
     <row r="316">
-      <c r="B316" s="6"/>
-      <c r="F316" s="5"/>
+      <c r="B316" s="4"/>
+      <c r="F316" s="6"/>
     </row>
     <row r="317">
-      <c r="B317" s="6"/>
-      <c r="F317" s="5"/>
+      <c r="B317" s="4"/>
+      <c r="F317" s="6"/>
     </row>
     <row r="318">
-      <c r="B318" s="6"/>
-      <c r="F318" s="5"/>
+      <c r="B318" s="4"/>
+      <c r="F318" s="6"/>
     </row>
     <row r="319">
-      <c r="B319" s="6"/>
-      <c r="F319" s="5"/>
+      <c r="B319" s="4"/>
+      <c r="F319" s="6"/>
     </row>
     <row r="320">
-      <c r="B320" s="6"/>
-      <c r="F320" s="5"/>
+      <c r="B320" s="4"/>
+      <c r="F320" s="6"/>
     </row>
     <row r="321">
-      <c r="B321" s="6"/>
-      <c r="F321" s="5"/>
+      <c r="B321" s="4"/>
+      <c r="F321" s="6"/>
     </row>
     <row r="322">
-      <c r="B322" s="6"/>
-      <c r="F322" s="5"/>
+      <c r="B322" s="4"/>
+      <c r="F322" s="6"/>
     </row>
     <row r="323">
-      <c r="B323" s="6"/>
-      <c r="F323" s="5"/>
+      <c r="B323" s="4"/>
+      <c r="F323" s="6"/>
     </row>
     <row r="324">
-      <c r="B324" s="6"/>
-      <c r="F324" s="5"/>
+      <c r="B324" s="4"/>
+      <c r="F324" s="6"/>
     </row>
     <row r="325">
-      <c r="B325" s="6"/>
-      <c r="F325" s="5"/>
+      <c r="B325" s="4"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326">
-      <c r="B326" s="6"/>
-      <c r="F326" s="5"/>
+      <c r="B326" s="4"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327">
-      <c r="B327" s="6"/>
-      <c r="F327" s="5"/>
+      <c r="B327" s="4"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328">
-      <c r="B328" s="6"/>
-      <c r="F328" s="5"/>
+      <c r="B328" s="4"/>
+      <c r="F328" s="6"/>
     </row>
     <row r="329">
-      <c r="B329" s="6"/>
-      <c r="F329" s="5"/>
+      <c r="B329" s="4"/>
+      <c r="F329" s="6"/>
     </row>
     <row r="330">
-      <c r="B330" s="6"/>
-      <c r="F330" s="5"/>
+      <c r="B330" s="4"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331">
-      <c r="B331" s="6"/>
-      <c r="F331" s="5"/>
+      <c r="B331" s="4"/>
+      <c r="F331" s="6"/>
     </row>
     <row r="332">
-      <c r="B332" s="6"/>
-      <c r="F332" s="5"/>
+      <c r="B332" s="4"/>
+      <c r="F332" s="6"/>
     </row>
     <row r="333">
-      <c r="B333" s="6"/>
-      <c r="F333" s="5"/>
+      <c r="B333" s="4"/>
+      <c r="F333" s="6"/>
     </row>
     <row r="334">
-      <c r="B334" s="6"/>
-      <c r="F334" s="5"/>
+      <c r="B334" s="4"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335">
-      <c r="B335" s="6"/>
-      <c r="F335" s="5"/>
+      <c r="B335" s="4"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336">
-      <c r="B336" s="6"/>
-      <c r="F336" s="5"/>
+      <c r="B336" s="4"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337">
-      <c r="B337" s="6"/>
-      <c r="F337" s="5"/>
+      <c r="B337" s="4"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338">
-      <c r="B338" s="6"/>
-      <c r="F338" s="5"/>
+      <c r="B338" s="4"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339">
-      <c r="B339" s="6"/>
-      <c r="F339" s="5"/>
+      <c r="B339" s="4"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340">
-      <c r="B340" s="6"/>
-      <c r="F340" s="5"/>
+      <c r="B340" s="4"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341">
-      <c r="B341" s="6"/>
-      <c r="F341" s="5"/>
+      <c r="B341" s="4"/>
+      <c r="F341" s="6"/>
     </row>
     <row r="342">
-      <c r="B342" s="6"/>
-      <c r="F342" s="5"/>
+      <c r="B342" s="4"/>
+      <c r="F342" s="6"/>
     </row>
     <row r="343">
-      <c r="B343" s="6"/>
-      <c r="F343" s="5"/>
+      <c r="B343" s="4"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344">
-      <c r="B344" s="6"/>
-      <c r="F344" s="5"/>
+      <c r="B344" s="4"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345">
-      <c r="B345" s="6"/>
-      <c r="F345" s="5"/>
+      <c r="B345" s="4"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346">
-      <c r="B346" s="6"/>
-      <c r="F346" s="5"/>
+      <c r="B346" s="4"/>
+      <c r="F346" s="6"/>
     </row>
     <row r="347">
-      <c r="B347" s="6"/>
-      <c r="F347" s="5"/>
+      <c r="B347" s="4"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348">
-      <c r="B348" s="6"/>
-      <c r="F348" s="5"/>
+      <c r="B348" s="4"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349">
-      <c r="B349" s="6"/>
-      <c r="F349" s="5"/>
+      <c r="B349" s="4"/>
+      <c r="F349" s="6"/>
     </row>
     <row r="350">
-      <c r="B350" s="6"/>
-      <c r="F350" s="5"/>
+      <c r="B350" s="4"/>
+      <c r="F350" s="6"/>
     </row>
     <row r="351">
-      <c r="B351" s="6"/>
-      <c r="F351" s="5"/>
+      <c r="B351" s="4"/>
+      <c r="F351" s="6"/>
     </row>
     <row r="352">
-      <c r="B352" s="6"/>
-      <c r="F352" s="5"/>
+      <c r="B352" s="4"/>
+      <c r="F352" s="6"/>
     </row>
     <row r="353">
-      <c r="B353" s="6"/>
-      <c r="F353" s="5"/>
+      <c r="B353" s="4"/>
+      <c r="F353" s="6"/>
     </row>
     <row r="354">
-      <c r="B354" s="6"/>
-      <c r="F354" s="5"/>
+      <c r="B354" s="4"/>
+      <c r="F354" s="6"/>
     </row>
     <row r="355">
-      <c r="B355" s="6"/>
-      <c r="F355" s="5"/>
+      <c r="B355" s="4"/>
+      <c r="F355" s="6"/>
     </row>
     <row r="356">
-      <c r="B356" s="6"/>
-      <c r="F356" s="5"/>
+      <c r="B356" s="4"/>
+      <c r="F356" s="6"/>
     </row>
     <row r="357">
-      <c r="B357" s="6"/>
-      <c r="F357" s="5"/>
+      <c r="B357" s="4"/>
+      <c r="F357" s="6"/>
     </row>
     <row r="358">
-      <c r="B358" s="6"/>
-      <c r="F358" s="5"/>
+      <c r="B358" s="4"/>
+      <c r="F358" s="6"/>
     </row>
     <row r="359">
-      <c r="B359" s="6"/>
-      <c r="F359" s="5"/>
+      <c r="B359" s="4"/>
+      <c r="F359" s="6"/>
     </row>
     <row r="360">
-      <c r="B360" s="6"/>
-      <c r="F360" s="5"/>
+      <c r="B360" s="4"/>
+      <c r="F360" s="6"/>
     </row>
     <row r="361">
-      <c r="B361" s="6"/>
-      <c r="F361" s="5"/>
+      <c r="B361" s="4"/>
+      <c r="F361" s="6"/>
     </row>
     <row r="362">
-      <c r="B362" s="6"/>
-      <c r="F362" s="5"/>
+      <c r="B362" s="4"/>
+      <c r="F362" s="6"/>
     </row>
     <row r="363">
-      <c r="B363" s="6"/>
-      <c r="F363" s="5"/>
+      <c r="B363" s="4"/>
+      <c r="F363" s="6"/>
     </row>
     <row r="364">
-      <c r="B364" s="6"/>
-      <c r="F364" s="5"/>
+      <c r="B364" s="4"/>
+      <c r="F364" s="6"/>
     </row>
     <row r="365">
-      <c r="B365" s="6"/>
-      <c r="F365" s="5"/>
+      <c r="B365" s="4"/>
+      <c r="F365" s="6"/>
     </row>
     <row r="366">
-      <c r="B366" s="6"/>
-      <c r="F366" s="5"/>
+      <c r="B366" s="4"/>
+      <c r="F366" s="6"/>
     </row>
     <row r="367">
-      <c r="B367" s="6"/>
-      <c r="F367" s="5"/>
+      <c r="B367" s="4"/>
+      <c r="F367" s="6"/>
     </row>
     <row r="368">
-      <c r="B368" s="6"/>
-      <c r="F368" s="5"/>
+      <c r="B368" s="4"/>
+      <c r="F368" s="6"/>
     </row>
     <row r="369">
-      <c r="B369" s="6"/>
-      <c r="F369" s="5"/>
+      <c r="B369" s="4"/>
+      <c r="F369" s="6"/>
     </row>
     <row r="370">
-      <c r="B370" s="6"/>
-      <c r="F370" s="5"/>
+      <c r="B370" s="4"/>
+      <c r="F370" s="6"/>
     </row>
     <row r="371">
-      <c r="B371" s="6"/>
-      <c r="F371" s="5"/>
+      <c r="B371" s="4"/>
+      <c r="F371" s="6"/>
     </row>
     <row r="372">
-      <c r="B372" s="6"/>
-      <c r="F372" s="5"/>
+      <c r="B372" s="4"/>
+      <c r="F372" s="6"/>
     </row>
     <row r="373">
-      <c r="B373" s="6"/>
-      <c r="F373" s="5"/>
+      <c r="B373" s="4"/>
+      <c r="F373" s="6"/>
     </row>
     <row r="374">
-      <c r="B374" s="6"/>
-      <c r="F374" s="5"/>
+      <c r="B374" s="4"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375">
-      <c r="B375" s="6"/>
-      <c r="F375" s="5"/>
+      <c r="B375" s="4"/>
+      <c r="F375" s="6"/>
     </row>
     <row r="376">
-      <c r="B376" s="6"/>
-      <c r="F376" s="5"/>
+      <c r="B376" s="4"/>
+      <c r="F376" s="6"/>
     </row>
     <row r="377">
-      <c r="B377" s="6"/>
-      <c r="F377" s="5"/>
+      <c r="B377" s="4"/>
+      <c r="F377" s="6"/>
     </row>
     <row r="378">
-      <c r="B378" s="6"/>
-      <c r="F378" s="5"/>
+      <c r="B378" s="4"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379">
-      <c r="B379" s="6"/>
-      <c r="F379" s="5"/>
+      <c r="B379" s="4"/>
+      <c r="F379" s="6"/>
     </row>
     <row r="380">
-      <c r="B380" s="6"/>
-      <c r="F380" s="5"/>
+      <c r="B380" s="4"/>
+      <c r="F380" s="6"/>
     </row>
     <row r="381">
-      <c r="B381" s="6"/>
-      <c r="F381" s="5"/>
+      <c r="B381" s="4"/>
+      <c r="F381" s="6"/>
     </row>
     <row r="382">
-      <c r="B382" s="6"/>
-      <c r="F382" s="5"/>
+      <c r="B382" s="4"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383">
-      <c r="B383" s="6"/>
-      <c r="F383" s="5"/>
+      <c r="B383" s="4"/>
+      <c r="F383" s="6"/>
     </row>
     <row r="384">
-      <c r="B384" s="6"/>
-      <c r="F384" s="5"/>
+      <c r="B384" s="4"/>
+      <c r="F384" s="6"/>
     </row>
     <row r="385">
-      <c r="B385" s="6"/>
-      <c r="F385" s="5"/>
+      <c r="B385" s="4"/>
+      <c r="F385" s="6"/>
     </row>
     <row r="386">
-      <c r="B386" s="6"/>
-      <c r="F386" s="5"/>
+      <c r="B386" s="4"/>
+      <c r="F386" s="6"/>
     </row>
     <row r="387">
-      <c r="B387" s="6"/>
-      <c r="F387" s="5"/>
+      <c r="B387" s="4"/>
+      <c r="F387" s="6"/>
     </row>
     <row r="388">
-      <c r="B388" s="6"/>
-      <c r="F388" s="5"/>
+      <c r="B388" s="4"/>
+      <c r="F388" s="6"/>
     </row>
     <row r="389">
-      <c r="B389" s="6"/>
-      <c r="F389" s="5"/>
+      <c r="B389" s="4"/>
+      <c r="F389" s="6"/>
     </row>
     <row r="390">
-      <c r="B390" s="6"/>
-      <c r="F390" s="5"/>
+      <c r="B390" s="4"/>
+      <c r="F390" s="6"/>
     </row>
     <row r="391">
-      <c r="B391" s="6"/>
-      <c r="F391" s="5"/>
+      <c r="B391" s="4"/>
+      <c r="F391" s="6"/>
     </row>
     <row r="392">
-      <c r="B392" s="6"/>
-      <c r="F392" s="5"/>
+      <c r="B392" s="4"/>
+      <c r="F392" s="6"/>
     </row>
     <row r="393">
-      <c r="B393" s="6"/>
-      <c r="F393" s="5"/>
+      <c r="B393" s="4"/>
+      <c r="F393" s="6"/>
     </row>
     <row r="394">
-      <c r="B394" s="6"/>
-      <c r="F394" s="5"/>
+      <c r="B394" s="4"/>
+      <c r="F394" s="6"/>
     </row>
     <row r="395">
-      <c r="B395" s="6"/>
-      <c r="F395" s="5"/>
+      <c r="B395" s="4"/>
+      <c r="F395" s="6"/>
     </row>
     <row r="396">
-      <c r="B396" s="6"/>
-      <c r="F396" s="5"/>
+      <c r="B396" s="4"/>
+      <c r="F396" s="6"/>
     </row>
     <row r="397">
-      <c r="B397" s="6"/>
-      <c r="F397" s="5"/>
+      <c r="B397" s="4"/>
+      <c r="F397" s="6"/>
     </row>
     <row r="398">
-      <c r="B398" s="6"/>
-      <c r="F398" s="5"/>
+      <c r="B398" s="4"/>
+      <c r="F398" s="6"/>
     </row>
     <row r="399">
-      <c r="B399" s="6"/>
-      <c r="F399" s="5"/>
+      <c r="B399" s="4"/>
+      <c r="F399" s="6"/>
     </row>
     <row r="400">
-      <c r="B400" s="6"/>
-      <c r="F400" s="5"/>
+      <c r="B400" s="4"/>
+      <c r="F400" s="6"/>
     </row>
     <row r="401">
-      <c r="B401" s="6"/>
-      <c r="F401" s="5"/>
+      <c r="B401" s="4"/>
+      <c r="F401" s="6"/>
     </row>
     <row r="402">
-      <c r="B402" s="6"/>
-      <c r="F402" s="5"/>
+      <c r="B402" s="4"/>
+      <c r="F402" s="6"/>
     </row>
     <row r="403">
-      <c r="B403" s="6"/>
-      <c r="F403" s="5"/>
+      <c r="B403" s="4"/>
+      <c r="F403" s="6"/>
     </row>
     <row r="404">
-      <c r="B404" s="6"/>
-      <c r="F404" s="5"/>
+      <c r="B404" s="4"/>
+      <c r="F404" s="6"/>
     </row>
     <row r="405">
-      <c r="B405" s="6"/>
-      <c r="F405" s="5"/>
+      <c r="B405" s="4"/>
+      <c r="F405" s="6"/>
     </row>
     <row r="406">
-      <c r="B406" s="6"/>
-      <c r="F406" s="5"/>
+      <c r="B406" s="4"/>
+      <c r="F406" s="6"/>
     </row>
     <row r="407">
-      <c r="B407" s="6"/>
-      <c r="F407" s="5"/>
+      <c r="B407" s="4"/>
+      <c r="F407" s="6"/>
     </row>
     <row r="408">
-      <c r="B408" s="6"/>
-      <c r="F408" s="5"/>
+      <c r="B408" s="4"/>
+      <c r="F408" s="6"/>
     </row>
     <row r="409">
-      <c r="B409" s="6"/>
-      <c r="F409" s="5"/>
+      <c r="B409" s="4"/>
+      <c r="F409" s="6"/>
     </row>
     <row r="410">
-      <c r="B410" s="6"/>
-      <c r="F410" s="5"/>
+      <c r="B410" s="4"/>
+      <c r="F410" s="6"/>
     </row>
     <row r="411">
-      <c r="B411" s="6"/>
-      <c r="F411" s="5"/>
+      <c r="B411" s="4"/>
+      <c r="F411" s="6"/>
     </row>
     <row r="412">
-      <c r="B412" s="6"/>
-      <c r="F412" s="5"/>
+      <c r="B412" s="4"/>
+      <c r="F412" s="6"/>
     </row>
     <row r="413">
-      <c r="B413" s="6"/>
-      <c r="F413" s="5"/>
+      <c r="B413" s="4"/>
+      <c r="F413" s="6"/>
     </row>
     <row r="414">
-      <c r="B414" s="6"/>
-      <c r="F414" s="5"/>
+      <c r="B414" s="4"/>
+      <c r="F414" s="6"/>
     </row>
     <row r="415">
-      <c r="B415" s="6"/>
-      <c r="F415" s="5"/>
+      <c r="B415" s="4"/>
+      <c r="F415" s="6"/>
     </row>
     <row r="416">
-      <c r="B416" s="6"/>
-      <c r="F416" s="5"/>
+      <c r="B416" s="4"/>
+      <c r="F416" s="6"/>
     </row>
     <row r="417">
-      <c r="B417" s="6"/>
-      <c r="F417" s="5"/>
+      <c r="B417" s="4"/>
+      <c r="F417" s="6"/>
     </row>
     <row r="418">
-      <c r="B418" s="6"/>
-      <c r="F418" s="5"/>
+      <c r="B418" s="4"/>
+      <c r="F418" s="6"/>
     </row>
     <row r="419">
-      <c r="B419" s="6"/>
-      <c r="F419" s="5"/>
+      <c r="B419" s="4"/>
+      <c r="F419" s="6"/>
     </row>
     <row r="420">
-      <c r="B420" s="6"/>
-      <c r="F420" s="5"/>
+      <c r="B420" s="4"/>
+      <c r="F420" s="6"/>
     </row>
     <row r="421">
-      <c r="B421" s="6"/>
-      <c r="F421" s="5"/>
+      <c r="B421" s="4"/>
+      <c r="F421" s="6"/>
     </row>
     <row r="422">
-      <c r="B422" s="6"/>
-      <c r="F422" s="5"/>
+      <c r="B422" s="4"/>
+      <c r="F422" s="6"/>
     </row>
     <row r="423">
-      <c r="B423" s="6"/>
-      <c r="F423" s="5"/>
+      <c r="B423" s="4"/>
+      <c r="F423" s="6"/>
     </row>
     <row r="424">
-      <c r="B424" s="6"/>
-      <c r="F424" s="5"/>
+      <c r="B424" s="4"/>
+      <c r="F424" s="6"/>
     </row>
     <row r="425">
-      <c r="B425" s="6"/>
-      <c r="F425" s="5"/>
+      <c r="B425" s="4"/>
+      <c r="F425" s="6"/>
     </row>
     <row r="426">
-      <c r="B426" s="6"/>
-      <c r="F426" s="5"/>
+      <c r="B426" s="4"/>
+      <c r="F426" s="6"/>
     </row>
     <row r="427">
-      <c r="B427" s="6"/>
-      <c r="F427" s="5"/>
+      <c r="B427" s="4"/>
+      <c r="F427" s="6"/>
     </row>
     <row r="428">
-      <c r="B428" s="6"/>
-      <c r="F428" s="5"/>
+      <c r="B428" s="4"/>
+      <c r="F428" s="6"/>
     </row>
     <row r="429">
-      <c r="B429" s="6"/>
-      <c r="F429" s="5"/>
+      <c r="B429" s="4"/>
+      <c r="F429" s="6"/>
     </row>
     <row r="430">
-      <c r="B430" s="6"/>
-      <c r="F430" s="5"/>
+      <c r="B430" s="4"/>
+      <c r="F430" s="6"/>
     </row>
     <row r="431">
-      <c r="B431" s="6"/>
-      <c r="F431" s="5"/>
+      <c r="B431" s="4"/>
+      <c r="F431" s="6"/>
     </row>
     <row r="432">
-      <c r="B432" s="6"/>
-      <c r="F432" s="5"/>
+      <c r="B432" s="4"/>
+      <c r="F432" s="6"/>
     </row>
     <row r="433">
-      <c r="B433" s="6"/>
-      <c r="F433" s="5"/>
+      <c r="B433" s="4"/>
+      <c r="F433" s="6"/>
     </row>
     <row r="434">
-      <c r="B434" s="6"/>
-      <c r="F434" s="5"/>
+      <c r="B434" s="4"/>
+      <c r="F434" s="6"/>
     </row>
     <row r="435">
-      <c r="B435" s="6"/>
-      <c r="F435" s="5"/>
+      <c r="B435" s="4"/>
+      <c r="F435" s="6"/>
     </row>
     <row r="436">
-      <c r="B436" s="6"/>
-      <c r="F436" s="5"/>
+      <c r="B436" s="4"/>
+      <c r="F436" s="6"/>
     </row>
     <row r="437">
-      <c r="B437" s="6"/>
-      <c r="F437" s="5"/>
+      <c r="B437" s="4"/>
+      <c r="F437" s="6"/>
     </row>
     <row r="438">
-      <c r="B438" s="6"/>
-      <c r="F438" s="5"/>
+      <c r="B438" s="4"/>
+      <c r="F438" s="6"/>
     </row>
     <row r="439">
-      <c r="B439" s="6"/>
-      <c r="F439" s="5"/>
+      <c r="B439" s="4"/>
+      <c r="F439" s="6"/>
     </row>
     <row r="440">
-      <c r="B440" s="6"/>
-      <c r="F440" s="5"/>
+      <c r="B440" s="4"/>
+      <c r="F440" s="6"/>
     </row>
     <row r="441">
-      <c r="B441" s="6"/>
-      <c r="F441" s="5"/>
+      <c r="B441" s="4"/>
+      <c r="F441" s="6"/>
     </row>
     <row r="442">
-      <c r="B442" s="6"/>
-      <c r="F442" s="5"/>
+      <c r="B442" s="4"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443">
-      <c r="B443" s="6"/>
-      <c r="F443" s="5"/>
+      <c r="B443" s="4"/>
+      <c r="F443" s="6"/>
     </row>
     <row r="444">
-      <c r="B444" s="6"/>
-      <c r="F444" s="5"/>
+      <c r="B444" s="4"/>
+      <c r="F444" s="6"/>
     </row>
     <row r="445">
-      <c r="B445" s="6"/>
-      <c r="F445" s="5"/>
+      <c r="B445" s="4"/>
+      <c r="F445" s="6"/>
     </row>
     <row r="446">
-      <c r="B446" s="6"/>
-      <c r="F446" s="5"/>
+      <c r="B446" s="4"/>
+      <c r="F446" s="6"/>
     </row>
     <row r="447">
-      <c r="B447" s="6"/>
-      <c r="F447" s="5"/>
+      <c r="B447" s="4"/>
+      <c r="F447" s="6"/>
     </row>
     <row r="448">
-      <c r="B448" s="6"/>
-      <c r="F448" s="5"/>
+      <c r="B448" s="4"/>
+      <c r="F448" s="6"/>
     </row>
     <row r="449">
-      <c r="B449" s="6"/>
-      <c r="F449" s="5"/>
+      <c r="B449" s="4"/>
+      <c r="F449" s="6"/>
     </row>
     <row r="450">
-      <c r="B450" s="6"/>
-      <c r="F450" s="5"/>
+      <c r="B450" s="4"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451">
-      <c r="B451" s="6"/>
-      <c r="F451" s="5"/>
+      <c r="B451" s="4"/>
+      <c r="F451" s="6"/>
     </row>
     <row r="452">
-      <c r="B452" s="6"/>
-      <c r="F452" s="5"/>
+      <c r="B452" s="4"/>
+      <c r="F452" s="6"/>
     </row>
     <row r="453">
-      <c r="B453" s="6"/>
-      <c r="F453" s="5"/>
+      <c r="B453" s="4"/>
+      <c r="F453" s="6"/>
     </row>
     <row r="454">
-      <c r="B454" s="6"/>
-      <c r="F454" s="5"/>
+      <c r="B454" s="4"/>
+      <c r="F454" s="6"/>
     </row>
     <row r="455">
-      <c r="B455" s="6"/>
-      <c r="F455" s="5"/>
+      <c r="B455" s="4"/>
+      <c r="F455" s="6"/>
     </row>
     <row r="456">
-      <c r="B456" s="6"/>
-      <c r="F456" s="5"/>
+      <c r="B456" s="4"/>
+      <c r="F456" s="6"/>
     </row>
     <row r="457">
-      <c r="B457" s="6"/>
-      <c r="F457" s="5"/>
+      <c r="B457" s="4"/>
+      <c r="F457" s="6"/>
     </row>
     <row r="458">
-      <c r="B458" s="6"/>
-      <c r="F458" s="5"/>
+      <c r="B458" s="4"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459">
-      <c r="B459" s="6"/>
-      <c r="F459" s="5"/>
+      <c r="B459" s="4"/>
+      <c r="F459" s="6"/>
     </row>
     <row r="460">
-      <c r="B460" s="6"/>
-      <c r="F460" s="5"/>
+      <c r="B460" s="4"/>
+      <c r="F460" s="6"/>
     </row>
     <row r="461">
-      <c r="B461" s="6"/>
-      <c r="F461" s="5"/>
+      <c r="B461" s="4"/>
+      <c r="F461" s="6"/>
     </row>
     <row r="462">
-      <c r="B462" s="6"/>
-      <c r="F462" s="5"/>
+      <c r="B462" s="4"/>
+      <c r="F462" s="6"/>
     </row>
     <row r="463">
-      <c r="B463" s="6"/>
-      <c r="F463" s="5"/>
+      <c r="B463" s="4"/>
+      <c r="F463" s="6"/>
     </row>
     <row r="464">
-      <c r="B464" s="6"/>
-      <c r="F464" s="5"/>
+      <c r="B464" s="4"/>
+      <c r="F464" s="6"/>
     </row>
     <row r="465">
-      <c r="B465" s="6"/>
-      <c r="F465" s="5"/>
+      <c r="B465" s="4"/>
+      <c r="F465" s="6"/>
     </row>
     <row r="466">
-      <c r="B466" s="6"/>
-      <c r="F466" s="5"/>
+      <c r="B466" s="4"/>
+      <c r="F466" s="6"/>
     </row>
     <row r="467">
-      <c r="B467" s="6"/>
-      <c r="F467" s="5"/>
+      <c r="B467" s="4"/>
+      <c r="F467" s="6"/>
     </row>
     <row r="468">
-      <c r="B468" s="6"/>
-      <c r="F468" s="5"/>
+      <c r="B468" s="4"/>
+      <c r="F468" s="6"/>
     </row>
     <row r="469">
-      <c r="B469" s="6"/>
-      <c r="F469" s="5"/>
+      <c r="B469" s="4"/>
+      <c r="F469" s="6"/>
     </row>
     <row r="470">
-      <c r="B470" s="6"/>
-      <c r="F470" s="5"/>
+      <c r="B470" s="4"/>
+      <c r="F470" s="6"/>
     </row>
     <row r="471">
-      <c r="B471" s="6"/>
-      <c r="F471" s="5"/>
+      <c r="B471" s="4"/>
+      <c r="F471" s="6"/>
     </row>
     <row r="472">
-      <c r="B472" s="6"/>
-      <c r="F472" s="5"/>
+      <c r="B472" s="4"/>
+      <c r="F472" s="6"/>
     </row>
     <row r="473">
-      <c r="B473" s="6"/>
-      <c r="F473" s="5"/>
+      <c r="B473" s="4"/>
+      <c r="F473" s="6"/>
     </row>
     <row r="474">
-      <c r="B474" s="6"/>
-      <c r="F474" s="5"/>
+      <c r="B474" s="4"/>
+      <c r="F474" s="6"/>
     </row>
     <row r="475">
-      <c r="B475" s="6"/>
-      <c r="F475" s="5"/>
+      <c r="B475" s="4"/>
+      <c r="F475" s="6"/>
     </row>
     <row r="476">
-      <c r="B476" s="6"/>
-      <c r="F476" s="5"/>
+      <c r="B476" s="4"/>
+      <c r="F476" s="6"/>
     </row>
     <row r="477">
-      <c r="B477" s="6"/>
-      <c r="F477" s="5"/>
+      <c r="B477" s="4"/>
+      <c r="F477" s="6"/>
     </row>
     <row r="478">
-      <c r="B478" s="6"/>
-      <c r="F478" s="5"/>
+      <c r="B478" s="4"/>
+      <c r="F478" s="6"/>
     </row>
     <row r="479">
-      <c r="B479" s="6"/>
-      <c r="F479" s="5"/>
+      <c r="B479" s="4"/>
+      <c r="F479" s="6"/>
     </row>
     <row r="480">
-      <c r="B480" s="6"/>
-      <c r="F480" s="5"/>
+      <c r="B480" s="4"/>
+      <c r="F480" s="6"/>
     </row>
     <row r="481">
-      <c r="B481" s="6"/>
-      <c r="F481" s="5"/>
+      <c r="B481" s="4"/>
+      <c r="F481" s="6"/>
     </row>
     <row r="482">
-      <c r="B482" s="6"/>
-      <c r="F482" s="5"/>
+      <c r="B482" s="4"/>
+      <c r="F482" s="6"/>
     </row>
     <row r="483">
-      <c r="B483" s="6"/>
-      <c r="F483" s="5"/>
+      <c r="B483" s="4"/>
+      <c r="F483" s="6"/>
     </row>
     <row r="484">
-      <c r="B484" s="6"/>
-      <c r="F484" s="5"/>
+      <c r="B484" s="4"/>
+      <c r="F484" s="6"/>
     </row>
     <row r="485">
-      <c r="B485" s="6"/>
-      <c r="F485" s="5"/>
+      <c r="B485" s="4"/>
+      <c r="F485" s="6"/>
     </row>
     <row r="486">
-      <c r="B486" s="6"/>
-      <c r="F486" s="5"/>
+      <c r="B486" s="4"/>
+      <c r="F486" s="6"/>
     </row>
     <row r="487">
-      <c r="B487" s="6"/>
-      <c r="F487" s="5"/>
+      <c r="B487" s="4"/>
+      <c r="F487" s="6"/>
     </row>
     <row r="488">
-      <c r="B488" s="6"/>
-      <c r="F488" s="5"/>
+      <c r="B488" s="4"/>
+      <c r="F488" s="6"/>
     </row>
     <row r="489">
-      <c r="B489" s="6"/>
-      <c r="F489" s="5"/>
+      <c r="B489" s="4"/>
+      <c r="F489" s="6"/>
     </row>
     <row r="490">
-      <c r="B490" s="6"/>
-      <c r="F490" s="5"/>
+      <c r="B490" s="4"/>
+      <c r="F490" s="6"/>
     </row>
     <row r="491">
-      <c r="B491" s="6"/>
-      <c r="F491" s="5"/>
+      <c r="B491" s="4"/>
+      <c r="F491" s="6"/>
     </row>
     <row r="492">
-      <c r="B492" s="6"/>
-      <c r="F492" s="5"/>
+      <c r="B492" s="4"/>
+      <c r="F492" s="6"/>
     </row>
     <row r="493">
-      <c r="B493" s="6"/>
-      <c r="F493" s="5"/>
+      <c r="B493" s="4"/>
+      <c r="F493" s="6"/>
     </row>
     <row r="494">
-      <c r="B494" s="6"/>
-      <c r="F494" s="5"/>
+      <c r="B494" s="4"/>
+      <c r="F494" s="6"/>
     </row>
     <row r="495">
-      <c r="B495" s="6"/>
-      <c r="F495" s="5"/>
+      <c r="B495" s="4"/>
+      <c r="F495" s="6"/>
     </row>
     <row r="496">
-      <c r="B496" s="6"/>
-      <c r="F496" s="5"/>
+      <c r="B496" s="4"/>
+      <c r="F496" s="6"/>
     </row>
     <row r="497">
-      <c r="B497" s="6"/>
-      <c r="F497" s="5"/>
+      <c r="B497" s="4"/>
+      <c r="F497" s="6"/>
     </row>
     <row r="498">
-      <c r="B498" s="6"/>
-      <c r="F498" s="5"/>
+      <c r="B498" s="4"/>
+      <c r="F498" s="6"/>
     </row>
     <row r="499">
-      <c r="B499" s="6"/>
-      <c r="F499" s="5"/>
+      <c r="B499" s="4"/>
+      <c r="F499" s="6"/>
     </row>
     <row r="500">
-      <c r="B500" s="6"/>
-      <c r="F500" s="5"/>
+      <c r="B500" s="4"/>
+      <c r="F500" s="6"/>
     </row>
     <row r="501">
-      <c r="B501" s="6"/>
-      <c r="F501" s="5"/>
+      <c r="B501" s="4"/>
+      <c r="F501" s="6"/>
     </row>
     <row r="502">
-      <c r="B502" s="6"/>
-      <c r="F502" s="5"/>
+      <c r="B502" s="4"/>
+      <c r="F502" s="6"/>
     </row>
     <row r="503">
-      <c r="B503" s="6"/>
-      <c r="F503" s="5"/>
+      <c r="B503" s="4"/>
+      <c r="F503" s="6"/>
     </row>
     <row r="504">
-      <c r="B504" s="6"/>
-      <c r="F504" s="5"/>
+      <c r="B504" s="4"/>
+      <c r="F504" s="6"/>
     </row>
     <row r="505">
-      <c r="B505" s="6"/>
-      <c r="F505" s="5"/>
+      <c r="B505" s="4"/>
+      <c r="F505" s="6"/>
     </row>
     <row r="506">
-      <c r="B506" s="6"/>
-      <c r="F506" s="5"/>
+      <c r="B506" s="4"/>
+      <c r="F506" s="6"/>
     </row>
     <row r="507">
-      <c r="B507" s="6"/>
-      <c r="F507" s="5"/>
+      <c r="B507" s="4"/>
+      <c r="F507" s="6"/>
     </row>
     <row r="508">
-      <c r="B508" s="6"/>
-      <c r="F508" s="5"/>
+      <c r="B508" s="4"/>
+      <c r="F508" s="6"/>
     </row>
     <row r="509">
-      <c r="B509" s="6"/>
-      <c r="F509" s="5"/>
+      <c r="B509" s="4"/>
+      <c r="F509" s="6"/>
     </row>
     <row r="510">
-      <c r="B510" s="6"/>
-      <c r="F510" s="5"/>
+      <c r="B510" s="4"/>
+      <c r="F510" s="6"/>
     </row>
     <row r="511">
-      <c r="B511" s="6"/>
-      <c r="F511" s="5"/>
+      <c r="B511" s="4"/>
+      <c r="F511" s="6"/>
     </row>
     <row r="512">
-      <c r="B512" s="6"/>
+      <c r="B512" s="4"/>
     </row>
     <row r="513">
-      <c r="B513" s="6"/>
+      <c r="B513" s="4"/>
     </row>
     <row r="514">
-      <c r="B514" s="6"/>
+      <c r="B514" s="4"/>
     </row>
     <row r="515">
-      <c r="B515" s="6"/>
+      <c r="B515" s="4"/>
     </row>
     <row r="516">
-      <c r="B516" s="6"/>
+      <c r="B516" s="4"/>
     </row>
     <row r="517">
-      <c r="B517" s="6"/>
+      <c r="B517" s="4"/>
     </row>
     <row r="518">
-      <c r="B518" s="6"/>
+      <c r="B518" s="4"/>
     </row>
     <row r="519">
-      <c r="B519" s="6"/>
+      <c r="B519" s="4"/>
     </row>
     <row r="520">
-      <c r="B520" s="6"/>
+      <c r="B520" s="4"/>
     </row>
     <row r="521">
-      <c r="B521" s="6"/>
+      <c r="B521" s="4"/>
     </row>
     <row r="522">
-      <c r="B522" s="6"/>
+      <c r="B522" s="4"/>
     </row>
     <row r="523">
-      <c r="B523" s="6"/>
+      <c r="B523" s="4"/>
     </row>
     <row r="524">
-      <c r="B524" s="6"/>
+      <c r="B524" s="4"/>
     </row>
     <row r="525">
-      <c r="B525" s="6"/>
+      <c r="B525" s="4"/>
     </row>
     <row r="526">
-      <c r="B526" s="6"/>
+      <c r="B526" s="4"/>
     </row>
     <row r="527">
-      <c r="B527" s="6"/>
+      <c r="B527" s="4"/>
     </row>
     <row r="528">
-      <c r="B528" s="6"/>
+      <c r="B528" s="4"/>
     </row>
     <row r="529">
-      <c r="B529" s="6"/>
+      <c r="B529" s="4"/>
     </row>
     <row r="530">
-      <c r="B530" s="6"/>
+      <c r="B530" s="4"/>
     </row>
     <row r="531">
-      <c r="B531" s="6"/>
+      <c r="B531" s="4"/>
     </row>
     <row r="532">
-      <c r="B532" s="6"/>
+      <c r="B532" s="4"/>
     </row>
     <row r="533">
-      <c r="B533" s="6"/>
+      <c r="B533" s="4"/>
     </row>
     <row r="534">
-      <c r="B534" s="6"/>
+      <c r="B534" s="4"/>
     </row>
     <row r="535">
-      <c r="B535" s="6"/>
+      <c r="B535" s="4"/>
     </row>
     <row r="536">
-      <c r="B536" s="6"/>
+      <c r="B536" s="4"/>
     </row>
     <row r="537">
-      <c r="B537" s="6"/>
+      <c r="B537" s="4"/>
     </row>
     <row r="538">
-      <c r="B538" s="6"/>
+      <c r="B538" s="4"/>
     </row>
     <row r="539">
-      <c r="B539" s="6"/>
+      <c r="B539" s="4"/>
     </row>
     <row r="540">
-      <c r="B540" s="6"/>
+      <c r="B540" s="4"/>
     </row>
     <row r="541">
-      <c r="B541" s="6"/>
+      <c r="B541" s="4"/>
     </row>
     <row r="542">
-      <c r="B542" s="6"/>
+      <c r="B542" s="4"/>
     </row>
     <row r="543">
-      <c r="B543" s="6"/>
+      <c r="B543" s="4"/>
     </row>
     <row r="544">
-      <c r="B544" s="6"/>
+      <c r="B544" s="4"/>
     </row>
     <row r="545">
-      <c r="B545" s="6"/>
+      <c r="B545" s="4"/>
     </row>
     <row r="546">
-      <c r="B546" s="6"/>
+      <c r="B546" s="4"/>
     </row>
     <row r="547">
-      <c r="B547" s="6"/>
+      <c r="B547" s="4"/>
     </row>
     <row r="548">
-      <c r="B548" s="6"/>
+      <c r="B548" s="4"/>
     </row>
     <row r="549">
-      <c r="B549" s="6"/>
+      <c r="B549" s="4"/>
     </row>
     <row r="550">
-      <c r="B550" s="6"/>
+      <c r="B550" s="4"/>
     </row>
     <row r="551">
-      <c r="B551" s="6"/>
+      <c r="B551" s="4"/>
     </row>
     <row r="552">
-      <c r="B552" s="6"/>
+      <c r="B552" s="4"/>
     </row>
     <row r="553">
-      <c r="B553" s="6"/>
+      <c r="B553" s="4"/>
     </row>
     <row r="554">
-      <c r="B554" s="6"/>
+      <c r="B554" s="4"/>
     </row>
     <row r="555">
-      <c r="B555" s="6"/>
+      <c r="B555" s="4"/>
     </row>
     <row r="556">
-      <c r="B556" s="6"/>
+      <c r="B556" s="4"/>
     </row>
     <row r="557">
-      <c r="B557" s="6"/>
+      <c r="B557" s="4"/>
     </row>
     <row r="558">
-      <c r="B558" s="6"/>
+      <c r="B558" s="4"/>
     </row>
     <row r="559">
-      <c r="B559" s="6"/>
+      <c r="B559" s="4"/>
     </row>
     <row r="560">
-      <c r="B560" s="6"/>
+      <c r="B560" s="4"/>
     </row>
     <row r="561">
-      <c r="B561" s="6"/>
+      <c r="B561" s="4"/>
     </row>
     <row r="562">
-      <c r="B562" s="6"/>
+      <c r="B562" s="4"/>
     </row>
     <row r="563">
-      <c r="B563" s="6"/>
+      <c r="B563" s="4"/>
     </row>
     <row r="564">
-      <c r="B564" s="6"/>
+      <c r="B564" s="4"/>
     </row>
     <row r="565">
-      <c r="B565" s="6"/>
+      <c r="B565" s="4"/>
     </row>
     <row r="566">
-      <c r="B566" s="6"/>
+      <c r="B566" s="4"/>
     </row>
     <row r="567">
-      <c r="B567" s="6"/>
+      <c r="B567" s="4"/>
     </row>
     <row r="568">
-      <c r="B568" s="6"/>
+      <c r="B568" s="4"/>
     </row>
     <row r="569">
-      <c r="B569" s="6"/>
+      <c r="B569" s="4"/>
     </row>
     <row r="570">
-      <c r="B570" s="6"/>
+      <c r="B570" s="4"/>
     </row>
     <row r="571">
-      <c r="B571" s="6"/>
+      <c r="B571" s="4"/>
     </row>
     <row r="572">
-      <c r="B572" s="6"/>
+      <c r="B572" s="4"/>
     </row>
     <row r="573">
-      <c r="B573" s="6"/>
+      <c r="B573" s="4"/>
     </row>
     <row r="574">
-      <c r="B574" s="6"/>
+      <c r="B574" s="4"/>
     </row>
     <row r="575">
-      <c r="B575" s="6"/>
+      <c r="B575" s="4"/>
     </row>
     <row r="576">
-      <c r="B576" s="6"/>
+      <c r="B576" s="4"/>
     </row>
     <row r="577">
-      <c r="B577" s="6"/>
+      <c r="B577" s="4"/>
     </row>
     <row r="578">
-      <c r="B578" s="6"/>
+      <c r="B578" s="4"/>
     </row>
     <row r="579">
-      <c r="B579" s="6"/>
+      <c r="B579" s="4"/>
     </row>
     <row r="580">
-      <c r="B580" s="6"/>
+      <c r="B580" s="4"/>
     </row>
     <row r="581">
-      <c r="B581" s="6"/>
+      <c r="B581" s="4"/>
     </row>
     <row r="582">
-      <c r="B582" s="6"/>
+      <c r="B582" s="4"/>
     </row>
     <row r="583">
-      <c r="B583" s="6"/>
+      <c r="B583" s="4"/>
     </row>
     <row r="584">
-      <c r="B584" s="6"/>
+      <c r="B584" s="4"/>
     </row>
     <row r="585">
-      <c r="B585" s="6"/>
+      <c r="B585" s="4"/>
     </row>
     <row r="586">
-      <c r="B586" s="6"/>
+      <c r="B586" s="4"/>
     </row>
     <row r="587">
-      <c r="B587" s="6"/>
+      <c r="B587" s="4"/>
     </row>
     <row r="588">
-      <c r="B588" s="6"/>
+      <c r="B588" s="4"/>
     </row>
     <row r="589">
-      <c r="B589" s="6"/>
+      <c r="B589" s="4"/>
     </row>
     <row r="590">
-      <c r="B590" s="6"/>
+      <c r="B590" s="4"/>
     </row>
     <row r="591">
-      <c r="B591" s="6"/>
+      <c r="B591" s="4"/>
     </row>
     <row r="592">
-      <c r="B592" s="6"/>
+      <c r="B592" s="4"/>
     </row>
     <row r="593">
-      <c r="B593" s="6"/>
+      <c r="B593" s="4"/>
     </row>
     <row r="594">
-      <c r="B594" s="6"/>
+      <c r="B594" s="4"/>
     </row>
     <row r="595">
-      <c r="B595" s="6"/>
+      <c r="B595" s="4"/>
     </row>
     <row r="596">
-      <c r="B596" s="6"/>
+      <c r="B596" s="4"/>
     </row>
     <row r="597">
-      <c r="B597" s="6"/>
+      <c r="B597" s="4"/>
     </row>
     <row r="598">
-      <c r="B598" s="6"/>
+      <c r="B598" s="4"/>
     </row>
     <row r="599">
-      <c r="B599" s="6"/>
+      <c r="B599" s="4"/>
     </row>
     <row r="600">
-      <c r="B600" s="6"/>
+      <c r="B600" s="4"/>
     </row>
     <row r="601">
-      <c r="B601" s="6"/>
+      <c r="B601" s="4"/>
     </row>
     <row r="602">
-      <c r="B602" s="6"/>
+      <c r="B602" s="4"/>
     </row>
     <row r="603">
-      <c r="B603" s="6"/>
+      <c r="B603" s="4"/>
     </row>
     <row r="604">
-      <c r="B604" s="6"/>
+      <c r="B604" s="4"/>
     </row>
     <row r="605">
-      <c r="B605" s="6"/>
+      <c r="B605" s="4"/>
     </row>
     <row r="606">
-      <c r="B606" s="6"/>
+      <c r="B606" s="4"/>
     </row>
     <row r="607">
-      <c r="B607" s="6"/>
+      <c r="B607" s="4"/>
     </row>
     <row r="608">
-      <c r="B608" s="6"/>
+      <c r="B608" s="4"/>
     </row>
     <row r="609">
-      <c r="B609" s="6"/>
+      <c r="B609" s="4"/>
     </row>
     <row r="610">
-      <c r="B610" s="6"/>
+      <c r="B610" s="4"/>
     </row>
     <row r="611">
-      <c r="B611" s="6"/>
+      <c r="B611" s="4"/>
     </row>
     <row r="612">
-      <c r="B612" s="6"/>
+      <c r="B612" s="4"/>
     </row>
     <row r="613">
-      <c r="B613" s="6"/>
+      <c r="B613" s="4"/>
     </row>
     <row r="614">
-      <c r="B614" s="6"/>
+      <c r="B614" s="4"/>
     </row>
     <row r="615">
-      <c r="B615" s="6"/>
+      <c r="B615" s="4"/>
     </row>
     <row r="616">
-      <c r="B616" s="6"/>
+      <c r="B616" s="4"/>
     </row>
     <row r="617">
-      <c r="B617" s="6"/>
+      <c r="B617" s="4"/>
     </row>
     <row r="618">
-      <c r="B618" s="6"/>
+      <c r="B618" s="4"/>
     </row>
     <row r="619">
-      <c r="B619" s="6"/>
+      <c r="B619" s="4"/>
     </row>
     <row r="620">
-      <c r="B620" s="6"/>
+      <c r="B620" s="4"/>
     </row>
     <row r="621">
-      <c r="B621" s="6"/>
+      <c r="B621" s="4"/>
     </row>
     <row r="622">
-      <c r="B622" s="6"/>
+      <c r="B622" s="4"/>
     </row>
     <row r="623">
-      <c r="B623" s="6"/>
+      <c r="B623" s="4"/>
     </row>
     <row r="624">
-      <c r="B624" s="6"/>
+      <c r="B624" s="4"/>
     </row>
     <row r="625">
-      <c r="B625" s="6"/>
+      <c r="B625" s="4"/>
     </row>
     <row r="626">
-      <c r="B626" s="6"/>
+      <c r="B626" s="4"/>
     </row>
     <row r="627">
-      <c r="B627" s="6"/>
+      <c r="B627" s="4"/>
     </row>
     <row r="628">
-      <c r="B628" s="6"/>
+      <c r="B628" s="4"/>
     </row>
     <row r="629">
-      <c r="B629" s="6"/>
+      <c r="B629" s="4"/>
     </row>
     <row r="630">
-      <c r="B630" s="6"/>
+      <c r="B630" s="4"/>
     </row>
     <row r="631">
-      <c r="B631" s="6"/>
+      <c r="B631" s="4"/>
     </row>
     <row r="632">
-      <c r="B632" s="6"/>
+      <c r="B632" s="4"/>
     </row>
     <row r="633">
-      <c r="B633" s="6"/>
+      <c r="B633" s="4"/>
     </row>
     <row r="634">
-      <c r="B634" s="6"/>
+      <c r="B634" s="4"/>
     </row>
     <row r="635">
-      <c r="B635" s="6"/>
+      <c r="B635" s="4"/>
     </row>
     <row r="636">
-      <c r="B636" s="6"/>
+      <c r="B636" s="4"/>
     </row>
     <row r="637">
-      <c r="B637" s="6"/>
+      <c r="B637" s="4"/>
     </row>
     <row r="638">
-      <c r="B638" s="6"/>
+      <c r="B638" s="4"/>
     </row>
     <row r="639">
-      <c r="B639" s="6"/>
+      <c r="B639" s="4"/>
     </row>
     <row r="640">
-      <c r="B640" s="6"/>
+      <c r="B640" s="4"/>
     </row>
     <row r="641">
-      <c r="B641" s="6"/>
+      <c r="B641" s="4"/>
     </row>
     <row r="642">
-      <c r="B642" s="6"/>
+      <c r="B642" s="4"/>
     </row>
     <row r="643">
-      <c r="B643" s="6"/>
+      <c r="B643" s="4"/>
     </row>
     <row r="644">
-      <c r="B644" s="6"/>
+      <c r="B644" s="4"/>
     </row>
     <row r="645">
-      <c r="B645" s="6"/>
+      <c r="B645" s="4"/>
     </row>
     <row r="646">
-      <c r="B646" s="6"/>
+      <c r="B646" s="4"/>
     </row>
     <row r="647">
-      <c r="B647" s="6"/>
+      <c r="B647" s="4"/>
     </row>
     <row r="648">
-      <c r="B648" s="6"/>
+      <c r="B648" s="4"/>
     </row>
     <row r="649">
-      <c r="B649" s="6"/>
+      <c r="B649" s="4"/>
     </row>
     <row r="650">
-      <c r="B650" s="6"/>
+      <c r="B650" s="4"/>
     </row>
     <row r="651">
-      <c r="B651" s="6"/>
+      <c r="B651" s="4"/>
     </row>
     <row r="652">
-      <c r="B652" s="6"/>
+      <c r="B652" s="4"/>
     </row>
     <row r="653">
-      <c r="B653" s="6"/>
+      <c r="B653" s="4"/>
     </row>
     <row r="654">
-      <c r="B654" s="6"/>
+      <c r="B654" s="4"/>
     </row>
     <row r="655">
-      <c r="B655" s="6"/>
+      <c r="B655" s="4"/>
     </row>
     <row r="656">
-      <c r="B656" s="6"/>
+      <c r="B656" s="4"/>
     </row>
     <row r="657">
-      <c r="B657" s="6"/>
+      <c r="B657" s="4"/>
     </row>
     <row r="658">
-      <c r="B658" s="6"/>
+      <c r="B658" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A658">
@@ -4989,7 +5817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
